--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qingt\Desktop\一个文件夹\pxh工作\xd_med\0420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Desktop\LixiangCar\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174F550F-2217-40A9-86A6-ABEE6C86FE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ED1BD1-5AF5-4F59-BB76-BA810E370153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12264" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12260" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1512,12 +1512,12 @@
   <dimension ref="A1:O327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1577,12 +1577,15 @@
       <c r="D2">
         <v>2.52</v>
       </c>
+      <c r="E2">
+        <v>0.17</v>
+      </c>
       <c r="F2">
         <v>79.13</v>
       </c>
       <c r="G2" s="4">
         <f>IFERROR(AVERAGE(A2:F2),0)</f>
-        <v>37.908333333333331</v>
+        <v>30.360666666666667</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>338</v>
@@ -1609,7 +1612,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1622,12 +1625,15 @@
       <c r="D3">
         <v>1.5</v>
       </c>
+      <c r="E3">
+        <v>5.48</v>
+      </c>
       <c r="F3">
         <v>322.86</v>
       </c>
       <c r="G3" s="4">
         <f>IFERROR(AVERAGE(A3:F3),0)</f>
-        <v>134.46083333333331</v>
+        <v>108.66466666666665</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>339</v>
@@ -1654,7 +1660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1667,12 +1673,15 @@
       <c r="D4">
         <v>28.543333333333333</v>
       </c>
+      <c r="E4">
+        <v>32.918333333333329</v>
+      </c>
       <c r="F4">
         <v>1482.2825</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G7" si="0">IFERROR(AVERAGE(A4:F4),0)</f>
-        <v>404.81687499999998</v>
+        <v>330.43716666666671</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>338</v>
@@ -1699,7 +1708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,12 +1721,15 @@
       <c r="D5">
         <v>1.5633333333333332</v>
       </c>
+      <c r="E5">
+        <v>0.3833333333333333</v>
+      </c>
       <c r="F5">
         <v>149.14333329999999</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>60.852499991666669</v>
+        <v>48.758666660000003</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>339</v>
@@ -1744,7 +1756,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,12 +1769,15 @@
       <c r="D6">
         <v>1.2449999999999999</v>
       </c>
+      <c r="E6">
+        <v>46.001666666666672</v>
+      </c>
       <c r="F6">
         <v>4663.34</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>1245.0791666666667</v>
+        <v>1005.2636666666667</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>339</v>
@@ -1789,7 +1804,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1802,12 +1817,15 @@
       <c r="D7">
         <v>1.52</v>
       </c>
+      <c r="E7">
+        <v>70.286000000000001</v>
+      </c>
       <c r="F7">
         <v>9319.2800000000007</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>2385.8110000000001</v>
+        <v>1922.7060000000001</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>338</v>
@@ -1834,7 +1852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1847,12 +1865,15 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>21.291999999999998</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="4">
         <f>IFERROR(AVERAGE(A8:F8),0)</f>
-        <v>36.399166666666673</v>
+        <v>33.377733333333339</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>339</v>
@@ -1879,7 +1900,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,12 +1913,15 @@
       <c r="D9">
         <v>1.55</v>
       </c>
+      <c r="E9">
+        <v>0.30399999999999994</v>
+      </c>
       <c r="F9">
         <v>309.79000000000002</v>
       </c>
       <c r="G9" s="4">
         <f>IFERROR(AVERAGE(A9:F9),0)</f>
-        <v>112.81875000000001</v>
+        <v>90.31580000000001</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>338</v>
@@ -1924,7 +1948,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1937,12 +1961,15 @@
       <c r="D10">
         <v>1.46</v>
       </c>
+      <c r="E10">
+        <v>3.6840000000000002</v>
+      </c>
       <c r="F10">
         <v>337.09</v>
       </c>
       <c r="G10" s="4">
         <f>IFERROR(AVERAGE(A10:F10),0)</f>
-        <v>129.23166666666665</v>
+        <v>104.12213333333334</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>339</v>
@@ -1969,7 +1996,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1982,12 +2009,15 @@
       <c r="D11">
         <v>1.53</v>
       </c>
+      <c r="E11">
+        <v>0.20666666666666667</v>
+      </c>
       <c r="F11">
         <v>43.2</v>
       </c>
       <c r="G11" s="4">
         <f>IFERROR(AVERAGE(A11:F11),0)</f>
-        <v>20.3125</v>
+        <v>16.291333333333334</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>338</v>
@@ -2014,7 +2044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2027,12 +2057,15 @@
       <c r="D12">
         <v>3.145</v>
       </c>
+      <c r="E12">
+        <v>93.694999999999993</v>
+      </c>
       <c r="F12">
         <v>9855.0249999999996</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12:G14" si="1">IFERROR(AVERAGE(A12:F12),0)</f>
-        <v>2487.8412499999999</v>
+        <v>2009.0119999999999</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>339</v>
@@ -2059,7 +2092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2072,12 +2105,15 @@
       <c r="D13">
         <v>4.32</v>
       </c>
+      <c r="E13">
+        <v>27.932500000000001</v>
+      </c>
       <c r="F13">
         <v>640.47</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>189.67125000000001</v>
+        <v>157.32350000000002</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>338</v>
@@ -2104,7 +2140,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,12 +2153,15 @@
       <c r="D14">
         <v>1.33</v>
       </c>
+      <c r="E14">
+        <v>32.857500000000002</v>
+      </c>
       <c r="F14">
         <v>919.85</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>276.84375</v>
+        <v>228.04650000000001</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>339</v>
@@ -2149,7 +2188,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2162,12 +2201,15 @@
       <c r="D15">
         <v>4.1400000000000006</v>
       </c>
+      <c r="E15">
+        <v>7.15</v>
+      </c>
       <c r="F15">
         <v>8417.6350000000002</v>
       </c>
       <c r="G15" s="4">
         <f>IFERROR(AVERAGE(A15:F15),0)</f>
-        <v>2150.4967500000002</v>
+        <v>1721.8274000000001</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>338</v>
@@ -2194,7 +2236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2207,12 +2249,15 @@
       <c r="D16">
         <v>2.3000000000000003</v>
       </c>
+      <c r="E16">
+        <v>80.466666666666654</v>
+      </c>
       <c r="F16">
         <v>284.71333329999999</v>
       </c>
       <c r="G16" s="4">
         <f>IFERROR(AVERAGE(A16:F16),0)</f>
-        <v>98.378749991666666</v>
+        <v>94.796333326666655</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>338</v>
@@ -2239,7 +2284,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2252,12 +2297,15 @@
       <c r="D17">
         <v>2.54</v>
       </c>
+      <c r="E17">
+        <v>0.65249999999999997</v>
+      </c>
       <c r="F17">
         <v>712.22</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17:G34" si="2">IFERROR(AVERAGE(A17:F17),0)</f>
-        <v>214.47499999999999</v>
+        <v>171.7105</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>339</v>
@@ -2284,7 +2332,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,12 +2345,15 @@
       <c r="D18">
         <v>0</v>
       </c>
+      <c r="E18">
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
-        <v>3.9679166666666665</v>
+        <v>3.1876666666666664</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>338</v>
@@ -2329,7 +2380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2342,12 +2393,15 @@
       <c r="D19">
         <v>1.4833333333333334</v>
       </c>
+      <c r="E19">
+        <v>48.547499999999999</v>
+      </c>
       <c r="F19">
         <v>2668.7466669999999</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
-        <v>694.59500008333328</v>
+        <v>565.38550006666662</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>338</v>
@@ -2374,7 +2428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2387,12 +2441,15 @@
       <c r="D20">
         <v>1.6</v>
       </c>
+      <c r="E20">
+        <v>34.427500000000002</v>
+      </c>
       <c r="F20">
         <v>25.815000000000001</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
-        <v>35.598124999999996</v>
+        <v>35.363999999999997</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>338</v>
@@ -2419,7 +2476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2432,12 +2489,15 @@
       <c r="D21">
         <v>1.7749999999999999</v>
       </c>
+      <c r="E21">
+        <v>0.26</v>
+      </c>
       <c r="F21">
         <v>189.17</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
-        <v>81.044999999999987</v>
+        <v>64.887999999999991</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>339</v>
@@ -2464,7 +2524,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2477,12 +2537,15 @@
       <c r="D22">
         <v>1.67</v>
       </c>
+      <c r="E22">
+        <v>21.747500000000002</v>
+      </c>
       <c r="F22">
         <v>12.49666667</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
-        <v>19.7835416675</v>
+        <v>20.176333333999999</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>339</v>
@@ -2509,7 +2572,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2522,12 +2585,15 @@
       <c r="D23">
         <v>1.4533333333333334</v>
       </c>
+      <c r="E23">
+        <v>1.5059999999999998</v>
+      </c>
       <c r="F23">
         <v>121.1733333</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>66.96416665833334</v>
+        <v>53.872533326666669</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>339</v>
@@ -2554,7 +2620,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2567,12 +2633,15 @@
       <c r="D24">
         <v>0.95666666666666667</v>
       </c>
+      <c r="E24">
+        <v>5.2466666666666661</v>
+      </c>
       <c r="F24">
         <v>62.47</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
-        <v>52.948541666666671</v>
+        <v>43.408166666666673</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>338</v>
@@ -2599,7 +2668,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2612,12 +2681,15 @@
       <c r="D25">
         <v>1.24</v>
       </c>
+      <c r="E25">
+        <v>16.745000000000001</v>
+      </c>
       <c r="F25">
         <v>25055.93</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
-        <v>6319.1737499999999</v>
+        <v>5058.6880000000001</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>339</v>
@@ -2644,7 +2716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2657,12 +2729,15 @@
       <c r="D26">
         <v>1.07</v>
       </c>
+      <c r="E26">
+        <v>38.452500000000001</v>
+      </c>
       <c r="F26">
         <v>5286.5249999999996</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
-        <v>1427.2106249999999</v>
+        <v>1149.4589999999998</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>339</v>
@@ -2689,7 +2764,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2702,12 +2777,15 @@
       <c r="D27">
         <v>0.82000000000000006</v>
       </c>
+      <c r="E27">
+        <v>6.9300000000000006</v>
+      </c>
       <c r="F27">
         <v>57.56</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
-        <v>67.672499999999999</v>
+        <v>55.524000000000001</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>339</v>
@@ -2734,7 +2812,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2747,12 +2825,15 @@
       <c r="D28">
         <v>1.0900000000000001</v>
       </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
       <c r="F28">
         <v>12386.48</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
-        <v>3195.5349999999999</v>
+        <v>2576.4279999999999</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>339</v>
@@ -2779,7 +2860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2792,12 +2873,15 @@
       <c r="D29">
         <v>1.2300000000000002</v>
       </c>
+      <c r="E29">
+        <v>3.3374999999999999</v>
+      </c>
       <c r="F29">
         <v>1773.6866669999999</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>547.38229175000004</v>
+        <v>438.57333339999997</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>339</v>
@@ -2824,7 +2908,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2837,12 +2921,15 @@
       <c r="D30">
         <v>1.79</v>
       </c>
+      <c r="E30">
+        <v>8.1724999999999994</v>
+      </c>
       <c r="F30">
         <v>1118.7266669999999</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
-        <v>319.90041674999998</v>
+        <v>257.55483340000001</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>339</v>
@@ -2869,7 +2956,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,12 +2969,15 @@
       <c r="D31">
         <v>1.0933333333333333</v>
       </c>
+      <c r="E31">
+        <v>13.645000000000001</v>
+      </c>
       <c r="F31">
         <v>1562.2966670000001</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
-        <v>662.98875008333334</v>
+        <v>533.12000006666676</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>339</v>
@@ -2914,7 +3004,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,12 +3017,15 @@
       <c r="D32">
         <v>0.94333333333333336</v>
       </c>
+      <c r="E32">
+        <v>3.4950000000000001</v>
+      </c>
       <c r="F32">
         <v>73.456666670000004</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
-        <v>39.188750000833338</v>
+        <v>32.050000000666671</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>339</v>
@@ -2959,7 +3052,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2972,12 +3065,15 @@
       <c r="D33">
         <v>1.69</v>
       </c>
+      <c r="E33">
+        <v>78.944999999999993</v>
+      </c>
       <c r="F33">
         <v>1826.55</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
-        <v>512.88499999999999</v>
+        <v>426.09699999999992</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>339</v>
@@ -3004,7 +3100,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3017,12 +3113,15 @@
       <c r="D34">
         <v>1.105</v>
       </c>
+      <c r="E34">
+        <v>0.42</v>
+      </c>
       <c r="F34">
         <v>106.89</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="2"/>
-        <v>60.570625000000007</v>
+        <v>48.540499999999994</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>339</v>
@@ -3049,7 +3148,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3062,12 +3161,15 @@
       <c r="D35">
         <v>1.2933333333333332</v>
       </c>
+      <c r="E35">
+        <v>5.1360000000000001</v>
+      </c>
       <c r="F35">
         <v>6488.56</v>
       </c>
       <c r="G35" s="4">
         <f>IFERROR(AVERAGE(A35:F35),0)</f>
-        <v>1693.8963333333334</v>
+        <v>1356.1442666666667</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>339</v>
@@ -3094,7 +3196,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3107,12 +3209,15 @@
       <c r="D36">
         <v>2.8766666666666669</v>
       </c>
+      <c r="E36">
+        <v>6.2250000000000005</v>
+      </c>
       <c r="F36">
         <v>565.15333329999999</v>
       </c>
       <c r="G36" s="4">
         <f>IFERROR(AVERAGE(A36:F36),0)</f>
-        <v>174.75999999166666</v>
+        <v>141.05299999333334</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>339</v>
@@ -3139,7 +3244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3152,12 +3257,15 @@
       <c r="D37">
         <v>1.075</v>
       </c>
+      <c r="E37">
+        <v>12.294</v>
+      </c>
       <c r="F37">
         <v>32.295000000000002</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" ref="G37:G40" si="3">IFERROR(AVERAGE(A37:F37),0)</f>
-        <v>46.300416666666663</v>
+        <v>39.49913333333334</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>339</v>
@@ -3184,7 +3292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -3197,12 +3305,15 @@
       <c r="D38">
         <v>1.5599999999999998</v>
       </c>
+      <c r="E38">
+        <v>2.2075</v>
+      </c>
       <c r="F38">
         <v>4386.49</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>1144.211875</v>
+        <v>915.81099999999992</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>339</v>
@@ -3229,7 +3340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -3242,12 +3353,15 @@
       <c r="D39">
         <v>1.2749999999999999</v>
       </c>
+      <c r="E39">
+        <v>2.9400000000000004</v>
+      </c>
       <c r="F39">
         <v>31.26</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>28.930083333333336</v>
+        <v>23.732066666666668</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>339</v>
@@ -3274,7 +3388,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -3287,12 +3401,15 @@
       <c r="D40">
         <v>1.1200000000000001</v>
       </c>
+      <c r="E40">
+        <v>31.173333333333332</v>
+      </c>
       <c r="F40">
         <v>470.06</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>191.4425</v>
+        <v>159.38866666666667</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>339</v>
@@ -3319,7 +3436,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -3332,12 +3449,15 @@
       <c r="D41">
         <v>1.1399999999999999</v>
       </c>
+      <c r="E41">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="F41">
         <v>64.31</v>
       </c>
       <c r="G41" s="4">
         <f>IFERROR(AVERAGE(A41:F41),0)</f>
-        <v>52.284999999999997</v>
+        <v>41.844999999999999</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>338</v>
@@ -3364,7 +3484,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -3377,12 +3497,15 @@
       <c r="D42">
         <v>1.1433333333333333</v>
       </c>
+      <c r="E42">
+        <v>24.627500000000001</v>
+      </c>
       <c r="F42">
         <v>28.18</v>
       </c>
       <c r="G42" s="4">
         <f>IFERROR(AVERAGE(A42:F42),0)</f>
-        <v>44.215208333333337</v>
+        <v>40.297666666666672</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>338</v>
@@ -3409,7 +3532,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,12 +3545,15 @@
       <c r="D43">
         <v>1.1100000000000001</v>
       </c>
+      <c r="E43">
+        <v>2.5124999999999997</v>
+      </c>
       <c r="F43">
         <v>19.22</v>
       </c>
       <c r="G43" s="4">
         <f>IFERROR(AVERAGE(A43:F43),0)</f>
-        <v>19.869999999999997</v>
+        <v>16.398500000000002</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>339</v>
@@ -3454,7 +3580,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -3467,12 +3593,15 @@
       <c r="D44">
         <v>1.2024999999999999</v>
       </c>
+      <c r="E44">
+        <v>2.1</v>
+      </c>
       <c r="F44">
         <v>1322.558</v>
       </c>
       <c r="G44" s="4">
         <f>IFERROR(AVERAGE(A44:F44),0)</f>
-        <v>367.00962499999997</v>
+        <v>294.02769999999998</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>338</v>
@@ -3499,7 +3628,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -3512,12 +3641,15 @@
       <c r="D45">
         <v>1.075</v>
       </c>
+      <c r="E45">
+        <v>0.15333333333333332</v>
+      </c>
       <c r="F45">
         <v>12.2875</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" ref="G45:G47" si="4">IFERROR(AVERAGE(A45:F45),0)</f>
-        <v>10.37875</v>
+        <v>8.3336666666666659</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>339</v>
@@ -3544,7 +3676,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -3557,12 +3689,15 @@
       <c r="D46">
         <v>0.28999999999999998</v>
       </c>
+      <c r="E46">
+        <v>33.712000000000003</v>
+      </c>
       <c r="F46">
         <v>296.11</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="4"/>
-        <v>139.12725</v>
+        <v>118.0442</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>339</v>
@@ -3589,7 +3724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -3602,12 +3737,15 @@
       <c r="D47">
         <v>0.71</v>
       </c>
+      <c r="E47">
+        <v>2.89</v>
+      </c>
       <c r="F47">
         <v>20.234999999999999</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="4"/>
-        <v>31.626874999999998</v>
+        <v>25.879499999999997</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>338</v>
@@ -3634,7 +3772,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -3647,12 +3785,15 @@
       <c r="D48">
         <v>1.165</v>
       </c>
+      <c r="E48">
+        <v>3.7239999999999993</v>
+      </c>
       <c r="F48">
         <v>66.48</v>
       </c>
       <c r="G48" s="4">
         <f>IFERROR(AVERAGE(A48:F48),0)</f>
-        <v>32.98075</v>
+        <v>27.129400000000004</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>339</v>
@@ -3679,7 +3820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -3692,12 +3833,15 @@
       <c r="D49">
         <v>1.2000000000000002</v>
       </c>
+      <c r="E49">
+        <v>13.585000000000001</v>
+      </c>
       <c r="F49">
         <v>1172.6500000000001</v>
       </c>
       <c r="G49" s="4">
         <f>IFERROR(AVERAGE(A49:F49),0)</f>
-        <v>336.22187500000001</v>
+        <v>271.69450000000001</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>339</v>
@@ -3724,7 +3868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3737,12 +3881,15 @@
       <c r="D50">
         <v>0.8</v>
       </c>
+      <c r="E50">
+        <v>3.4966749999999998</v>
+      </c>
       <c r="F50">
         <v>12.75</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" ref="G50:G56" si="5">IFERROR(AVERAGE(A50:F50),0)</f>
-        <v>10.459375000000001</v>
+        <v>9.0668350000000011</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>339</v>
@@ -3769,7 +3916,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -3782,12 +3929,15 @@
       <c r="D51">
         <v>0.94</v>
       </c>
+      <c r="E51">
+        <v>4.8250000000000002</v>
+      </c>
       <c r="F51">
         <v>817.14</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="5"/>
-        <v>228.57999999999998</v>
+        <v>183.82900000000001</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>338</v>
@@ -3814,7 +3964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -3827,12 +3977,15 @@
       <c r="D52">
         <v>0.72</v>
       </c>
+      <c r="E52">
+        <v>0.68</v>
+      </c>
       <c r="F52">
         <v>5.41</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="5"/>
-        <v>20.53875</v>
+        <v>16.567</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>339</v>
@@ -3859,7 +4012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -3872,12 +4025,15 @@
       <c r="D53">
         <v>1.4</v>
       </c>
+      <c r="E53">
+        <v>60.674999999999997</v>
+      </c>
       <c r="F53">
         <v>10432.040000000001</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="5"/>
-        <v>2685.2875000000004</v>
+        <v>2160.3650000000002</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>339</v>
@@ -3904,7 +4060,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -3917,12 +4073,15 @@
       <c r="D54">
         <v>0.96333333333333326</v>
       </c>
+      <c r="E54">
+        <v>10.040000000000001</v>
+      </c>
       <c r="F54">
         <v>92</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="5"/>
-        <v>72.855833333333337</v>
+        <v>60.292666666666676</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>339</v>
@@ -3949,7 +4108,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -3962,12 +4121,15 @@
       <c r="D55">
         <v>0.78499999999999992</v>
       </c>
+      <c r="E55">
+        <v>3.4166666666666665</v>
+      </c>
       <c r="F55">
         <v>28.42</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="5"/>
-        <v>45.302499999999995</v>
+        <v>36.925333333333334</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>339</v>
@@ -3994,7 +4156,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4007,12 +4169,15 @@
       <c r="D56">
         <v>8.06</v>
       </c>
+      <c r="E56">
+        <v>98.17</v>
+      </c>
       <c r="F56">
         <v>9020.44</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="5"/>
-        <v>2320.6375000000003</v>
+        <v>1876.1440000000002</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>339</v>
@@ -4039,7 +4204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4052,12 +4217,15 @@
       <c r="D57">
         <v>1.05</v>
       </c>
+      <c r="E57">
+        <v>2.7850000000000001</v>
+      </c>
       <c r="F57">
         <v>1220.33</v>
       </c>
       <c r="G57" s="4">
         <f>IFERROR(AVERAGE(A57:F57),0)</f>
-        <v>346.09812499999998</v>
+        <v>277.43549999999999</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>339</v>
@@ -4084,7 +4252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -4097,12 +4265,15 @@
       <c r="D58">
         <v>0.93</v>
       </c>
+      <c r="E58">
+        <v>0.77499999999999991</v>
+      </c>
       <c r="F58">
         <v>8.1233333329999997</v>
       </c>
       <c r="G58" s="4">
         <f>IFERROR(AVERAGE(A58:F58),0)</f>
-        <v>29.50833333325</v>
+        <v>23.7616666666</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>339</v>
@@ -4129,7 +4300,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4142,12 +4313,15 @@
       <c r="D59">
         <v>1.0900000000000001</v>
       </c>
+      <c r="E59">
+        <v>38.984999999999999</v>
+      </c>
       <c r="F59">
         <v>110.61</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" ref="G59:G62" si="6">IFERROR(AVERAGE(A59:F59),0)</f>
-        <v>99.775999999999996</v>
+        <v>87.617800000000003</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>339</v>
@@ -4174,7 +4348,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4187,12 +4361,15 @@
       <c r="D60">
         <v>1.21</v>
       </c>
+      <c r="E60">
+        <v>1.1300000000000001</v>
+      </c>
       <c r="F60">
         <v>86.94</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="6"/>
-        <v>72.96437499999999</v>
+        <v>58.597499999999989</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>339</v>
@@ -4219,7 +4396,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,12 +4409,15 @@
       <c r="D61">
         <v>1.19</v>
       </c>
+      <c r="E61">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="F61">
         <v>146.83333329999999</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" si="6"/>
-        <v>66.441333325000002</v>
+        <v>53.218066659999998</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>339</v>
@@ -4264,7 +4444,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4277,12 +4457,15 @@
       <c r="D62">
         <v>0.61499999999999999</v>
       </c>
+      <c r="E62">
+        <v>1.78</v>
+      </c>
       <c r="F62">
         <v>29.74</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" si="6"/>
-        <v>42.106750000000012</v>
+        <v>34.04140000000001</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>339</v>
@@ -4309,7 +4492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4322,12 +4505,15 @@
       <c r="D63">
         <v>0.9425</v>
       </c>
+      <c r="E63">
+        <v>29.952499999999997</v>
+      </c>
       <c r="F63">
         <v>209.91749999999999</v>
       </c>
       <c r="G63" s="4">
         <f>IFERROR(AVERAGE(A63:F63),0)</f>
-        <v>109.21375</v>
+        <v>93.361500000000007</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>338</v>
@@ -4354,7 +4540,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4367,12 +4553,15 @@
       <c r="D64">
         <v>1.0725</v>
       </c>
+      <c r="E64">
+        <v>0.12</v>
+      </c>
       <c r="F64">
         <v>242.23249999999999</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" ref="G64:G127" si="7">IFERROR(AVERAGE(A64:F64),0)</f>
-        <v>68.004583333333329</v>
+        <v>54.427666666666667</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>339</v>
@@ -4399,7 +4588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4412,12 +4601,15 @@
       <c r="D65">
         <v>1.0249999999999999</v>
       </c>
+      <c r="E65">
+        <v>4.0599999999999996</v>
+      </c>
       <c r="F65">
         <v>26.38</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" si="7"/>
-        <v>24.517916666666668</v>
+        <v>20.426333333333336</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>338</v>
@@ -4444,7 +4636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -4457,12 +4649,15 @@
       <c r="D66">
         <v>1.405</v>
       </c>
+      <c r="E66">
+        <v>2.1224999999999996</v>
+      </c>
       <c r="F66">
         <v>28.565000000000001</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" si="7"/>
-        <v>32.037833333333332</v>
+        <v>26.054766666666666</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>339</v>
@@ -4489,7 +4684,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -4502,12 +4697,15 @@
       <c r="D67">
         <v>0.625</v>
       </c>
+      <c r="E67">
+        <v>10.14</v>
+      </c>
       <c r="F67">
         <v>814.16</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" si="7"/>
-        <v>291.37937499999998</v>
+        <v>235.13150000000002</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>339</v>
@@ -4534,7 +4732,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -4547,12 +4745,15 @@
       <c r="D68">
         <v>1.415</v>
       </c>
+      <c r="E68">
+        <v>7.2099999999999991</v>
+      </c>
       <c r="F68">
         <v>1287.7650000000001</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" si="7"/>
-        <v>334.02875</v>
+        <v>268.66500000000002</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>339</v>
@@ -4579,7 +4780,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4592,12 +4793,15 @@
       <c r="D69">
         <v>0.28000000000000003</v>
       </c>
+      <c r="E69">
+        <v>0.32999999999999996</v>
+      </c>
       <c r="F69">
         <v>4.84</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" si="7"/>
-        <v>23.975625000000001</v>
+        <v>19.246500000000001</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>339</v>
@@ -4624,7 +4828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -4637,12 +4841,15 @@
       <c r="D70">
         <v>0.24</v>
       </c>
+      <c r="E70">
+        <v>0.10500000000000001</v>
+      </c>
       <c r="F70">
         <v>20.16</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" si="7"/>
-        <v>35.078125</v>
+        <v>28.083499999999997</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>338</v>
@@ -4669,7 +4876,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -4682,12 +4889,15 @@
       <c r="D71">
         <v>1.1266666666666667</v>
       </c>
+      <c r="E71">
+        <v>0.95</v>
+      </c>
       <c r="F71">
         <v>33.22</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" si="7"/>
-        <v>27.103166666666667</v>
+        <v>21.872533333333333</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>339</v>
@@ -4714,7 +4924,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -4727,12 +4937,15 @@
       <c r="D72">
         <v>0.83499999999999996</v>
       </c>
+      <c r="E72">
+        <v>0.14333333333333334</v>
+      </c>
       <c r="F72">
         <v>12.47</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="7"/>
-        <v>16.952500000000001</v>
+        <v>13.590666666666667</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>339</v>
@@ -4759,7 +4972,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -4772,12 +4985,15 @@
       <c r="D73">
         <v>1.68</v>
       </c>
+      <c r="E73">
+        <v>3.1574999999999998</v>
+      </c>
       <c r="F73">
         <v>791.96</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="7"/>
-        <v>247.21312500000002</v>
+        <v>198.40199999999999</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>339</v>
@@ -4804,7 +5020,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -4817,12 +5033,15 @@
       <c r="D74">
         <v>1.2066666666666668</v>
       </c>
+      <c r="E74">
+        <v>0.24</v>
+      </c>
       <c r="F74">
         <v>23</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="7"/>
-        <v>18.570666666666664</v>
+        <v>14.90453333333333</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>339</v>
@@ -4849,7 +5068,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -4862,12 +5081,15 @@
       <c r="D75">
         <v>1.0266666666666666</v>
       </c>
+      <c r="E75">
+        <v>10.26</v>
+      </c>
       <c r="F75">
         <v>91.9</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="7"/>
-        <v>55.651666666666671</v>
+        <v>46.573333333333338</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>339</v>
@@ -4894,7 +5116,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -4907,12 +5129,15 @@
       <c r="D76">
         <v>1.2</v>
       </c>
+      <c r="E76">
+        <v>6.83</v>
+      </c>
       <c r="F76">
         <v>52.67</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="7"/>
-        <v>38.330833333333331</v>
+        <v>32.030666666666669</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>338</v>
@@ -4939,7 +5164,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -4952,12 +5177,15 @@
       <c r="D77">
         <v>0.88</v>
       </c>
+      <c r="E77">
+        <v>0.45500000000000002</v>
+      </c>
       <c r="F77">
         <v>44.94</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="7"/>
-        <v>32.493124999999999</v>
+        <v>26.085500000000003</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>339</v>
@@ -4984,7 +5212,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4997,12 +5225,15 @@
       <c r="D78">
         <v>41.38</v>
       </c>
+      <c r="E78">
+        <v>67.443333333333328</v>
+      </c>
       <c r="F78">
         <v>17155.43</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" si="7"/>
-        <v>4305.5783333333338</v>
+        <v>3457.9513333333334</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>339</v>
@@ -5029,7 +5260,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -5042,12 +5273,15 @@
       <c r="D79">
         <v>1.78</v>
       </c>
+      <c r="E79">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F79">
         <v>106.355</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" si="7"/>
-        <v>60.780625000000001</v>
+        <v>49.084500000000006</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>338</v>
@@ -5074,7 +5308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -5087,12 +5321,15 @@
       <c r="D80">
         <v>1.1575</v>
       </c>
+      <c r="E80">
+        <v>0.13999999999999999</v>
+      </c>
       <c r="F80">
         <v>16.432500000000001</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" si="7"/>
-        <v>19.807500000000001</v>
+        <v>15.874000000000001</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>339</v>
@@ -5119,7 +5356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -5132,12 +5369,15 @@
       <c r="D81">
         <v>0.91</v>
       </c>
+      <c r="E81">
+        <v>1.7250000000000001</v>
+      </c>
       <c r="F81">
         <v>240.36</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" si="7"/>
-        <v>75.105000000000004</v>
+        <v>60.428999999999995</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>339</v>
@@ -5164,7 +5404,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -5177,12 +5417,15 @@
       <c r="D82">
         <v>1.03</v>
       </c>
+      <c r="E82">
+        <v>1.17</v>
+      </c>
       <c r="F82">
         <v>157.77000000000001</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" si="7"/>
-        <v>122.65375</v>
+        <v>98.356999999999999</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>339</v>
@@ -5209,7 +5452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -5222,12 +5465,15 @@
       <c r="D83">
         <v>2.085</v>
       </c>
+      <c r="E83">
+        <v>0.11</v>
+      </c>
       <c r="F83">
         <v>199.065</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" si="7"/>
-        <v>71.428749999999994</v>
+        <v>57.164999999999999</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>338</v>
@@ -5254,7 +5500,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -5267,12 +5513,15 @@
       <c r="D84">
         <v>1.18</v>
       </c>
+      <c r="E84">
+        <v>3.2524999999999995</v>
+      </c>
       <c r="F84">
         <v>274.73</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" si="7"/>
-        <v>121.977</v>
+        <v>98.232100000000003</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>339</v>
@@ -5299,7 +5548,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5312,12 +5561,15 @@
       <c r="D85">
         <v>2.1800000000000002</v>
       </c>
+      <c r="E85">
+        <v>2.6833333333333336</v>
+      </c>
       <c r="F85">
         <v>76.650000000000006</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" si="7"/>
-        <v>29.129000000000001</v>
+        <v>23.839866666666669</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>338</v>
@@ -5344,7 +5596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -5357,12 +5609,15 @@
       <c r="D86">
         <v>1.5383333333333333</v>
       </c>
+      <c r="E86">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="F86">
         <v>291.00666669999998</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" si="7"/>
-        <v>108.28075000833333</v>
+        <v>86.737600006666668</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>339</v>
@@ -5389,7 +5644,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -5402,12 +5657,15 @@
       <c r="D87">
         <v>1.91</v>
       </c>
+      <c r="E87">
+        <v>3.9899999999999998</v>
+      </c>
       <c r="F87">
         <v>199.92</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" si="7"/>
-        <v>78.918125000000003</v>
+        <v>63.93249999999999</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>339</v>
@@ -5434,7 +5692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -5447,12 +5705,15 @@
       <c r="D88">
         <v>1.7266666666666666</v>
       </c>
+      <c r="E88">
+        <v>6.7850000000000001</v>
+      </c>
       <c r="F88">
         <v>5664.103333</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" si="7"/>
-        <v>1508.2381249166667</v>
+        <v>1207.9474999333333</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>338</v>
@@ -5479,7 +5740,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -5492,12 +5753,15 @@
       <c r="D89">
         <v>1.1033333333333333</v>
       </c>
+      <c r="E89">
+        <v>0.44</v>
+      </c>
       <c r="F89">
         <v>24.116666670000001</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" si="7"/>
-        <v>14.042708334166667</v>
+        <v>11.322166667333333</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>338</v>
@@ -5524,7 +5788,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -5537,12 +5801,15 @@
       <c r="D90">
         <v>1.9240000000000002</v>
       </c>
+      <c r="E90">
+        <v>2.9666666666666668</v>
+      </c>
       <c r="F90">
         <v>93.075999999999993</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" si="7"/>
-        <v>54.025000000000006</v>
+        <v>43.81333333333334</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>338</v>
@@ -5569,7 +5836,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -5582,12 +5849,15 @@
       <c r="D91">
         <v>1.31</v>
       </c>
+      <c r="E91">
+        <v>0.29666666666666669</v>
+      </c>
       <c r="F91">
         <v>261.70999999999998</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" si="7"/>
-        <v>104.795625</v>
+        <v>83.895833333333329</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>338</v>
@@ -5614,7 +5884,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -5627,12 +5897,15 @@
       <c r="D92">
         <v>1.59</v>
       </c>
+      <c r="E92">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="F92">
         <v>4.82</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" si="7"/>
-        <v>14.046250000000001</v>
+        <v>11.266999999999999</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>338</v>
@@ -5659,7 +5932,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -5672,12 +5945,15 @@
       <c r="D93">
         <v>2.145</v>
       </c>
+      <c r="E93">
+        <v>0.13</v>
+      </c>
       <c r="F93">
         <v>5.7149999999999999</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" si="7"/>
-        <v>11.706250000000001</v>
+        <v>9.3910000000000018</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>338</v>
@@ -5704,7 +5980,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -5717,12 +5993,15 @@
       <c r="D94">
         <v>1.7975000000000001</v>
       </c>
+      <c r="E94">
+        <v>5.8574999999999999</v>
+      </c>
       <c r="F94">
         <v>171.845</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" si="7"/>
-        <v>54.343125000000001</v>
+        <v>44.646000000000001</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>338</v>
@@ -5749,7 +6028,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -5762,12 +6041,15 @@
       <c r="D95">
         <v>1.516</v>
       </c>
+      <c r="E95">
+        <v>1.4</v>
+      </c>
       <c r="F95">
         <v>140.17400000000001</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" si="7"/>
-        <v>60.432500000000005</v>
+        <v>48.625999999999998</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>339</v>
@@ -5794,7 +6076,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -5807,12 +6089,15 @@
       <c r="D96">
         <v>1.6783333333333335</v>
       </c>
+      <c r="E96">
+        <v>6.5540000000000003</v>
+      </c>
       <c r="F96">
         <v>1116.885</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="7"/>
-        <v>309.37958333333336</v>
+        <v>248.81446666666665</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>339</v>
@@ -5839,7 +6124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -5852,12 +6137,15 @@
       <c r="D97">
         <v>1.69</v>
       </c>
+      <c r="E97">
+        <v>9.7149999999999999</v>
+      </c>
       <c r="F97">
         <v>1840.94</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" si="7"/>
-        <v>510.16437500000001</v>
+        <v>410.0745</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>339</v>
@@ -5884,7 +6172,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -5897,12 +6185,15 @@
       <c r="D98">
         <v>1.62</v>
       </c>
+      <c r="E98">
+        <v>2.4966666666666666</v>
+      </c>
       <c r="F98">
         <v>162.05000000000001</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" si="7"/>
-        <v>105.97812500000001</v>
+        <v>85.281833333333338</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>338</v>
@@ -5929,7 +6220,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -5942,12 +6233,15 @@
       <c r="D99">
         <v>1.99</v>
       </c>
+      <c r="E99">
+        <v>0.16333333333333333</v>
+      </c>
       <c r="F99">
         <v>90.234999999999999</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" si="7"/>
-        <v>63.325000000000003</v>
+        <v>50.692666666666661</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>339</v>
@@ -5974,7 +6268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -5987,12 +6281,15 @@
       <c r="D100">
         <v>1.84</v>
       </c>
+      <c r="E100">
+        <v>13.522500000000001</v>
+      </c>
       <c r="F100">
         <v>3325.73</v>
       </c>
       <c r="G100" s="4">
         <f t="shared" si="7"/>
-        <v>870.05687499999999</v>
+        <v>698.75</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>339</v>
@@ -6019,7 +6316,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -6032,12 +6329,15 @@
       <c r="D101">
         <v>1.1766666666666665</v>
       </c>
+      <c r="E101">
+        <v>0.185</v>
+      </c>
       <c r="F101">
         <v>56.403333330000002</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" si="7"/>
-        <v>29.752999999166668</v>
+        <v>23.839399999333335</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>339</v>
@@ -6064,7 +6364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -6077,12 +6377,15 @@
       <c r="D102">
         <v>1.32</v>
       </c>
+      <c r="E102">
+        <v>0.84666666666666668</v>
+      </c>
       <c r="F102">
         <v>33.270000000000003</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="7"/>
-        <v>69.64</v>
+        <v>55.88133333333333</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>338</v>
@@ -6109,7 +6412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -6122,12 +6425,15 @@
       <c r="D103">
         <v>1.56</v>
       </c>
+      <c r="E103">
+        <v>6.27</v>
+      </c>
       <c r="F103">
         <v>1882.02</v>
       </c>
       <c r="G103" s="4">
         <f t="shared" si="7"/>
-        <v>479.28916666666669</v>
+        <v>384.68533333333335</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>338</v>
@@ -6154,7 +6460,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -6167,12 +6473,15 @@
       <c r="D104">
         <v>1.2675000000000001</v>
       </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
       <c r="F104">
         <v>146.94</v>
       </c>
       <c r="G104" s="4">
         <f t="shared" si="7"/>
-        <v>134.64999999999998</v>
+        <v>127.71999999999998</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>339</v>
@@ -6199,7 +6508,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -6212,12 +6521,15 @@
       <c r="D105">
         <v>0.91999999999999993</v>
       </c>
+      <c r="E105">
+        <v>0.06</v>
+      </c>
       <c r="F105">
         <v>2421.6950000000002</v>
       </c>
       <c r="G105" s="4">
         <f t="shared" si="7"/>
-        <v>648.56437500000004</v>
+        <v>518.86350000000004</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>339</v>
@@ -6244,7 +6556,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -6257,12 +6569,15 @@
       <c r="D106">
         <v>0.9225000000000001</v>
       </c>
+      <c r="E106">
+        <v>8.4999999999999992E-2</v>
+      </c>
       <c r="F106">
         <v>40.137500000000003</v>
       </c>
       <c r="G106" s="4">
         <f t="shared" si="7"/>
-        <v>14.925000000000001</v>
+        <v>11.957000000000001</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>339</v>
@@ -6289,7 +6604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -6302,12 +6617,15 @@
       <c r="D107">
         <v>2.1949999999999998</v>
       </c>
+      <c r="E107">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="F107">
         <v>20.73</v>
       </c>
       <c r="G107" s="4">
         <f t="shared" si="7"/>
-        <v>35.730624999999996</v>
+        <v>28.767500000000002</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>339</v>
@@ -6334,7 +6652,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -6347,12 +6665,15 @@
       <c r="D108">
         <v>2.41</v>
       </c>
+      <c r="E108">
+        <v>0.83</v>
+      </c>
       <c r="F108">
         <v>47.56</v>
       </c>
       <c r="G108" s="4">
         <f t="shared" si="7"/>
-        <v>62.838124999999998</v>
+        <v>50.436500000000002</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>339</v>
@@ -6379,7 +6700,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -6392,12 +6713,15 @@
       <c r="D109">
         <v>1.3</v>
       </c>
+      <c r="E109">
+        <v>96.077500000000001</v>
+      </c>
       <c r="F109">
         <v>931.39250000000004</v>
       </c>
       <c r="G109" s="4">
         <f t="shared" si="7"/>
-        <v>287.53937500000001</v>
+        <v>249.24700000000001</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>339</v>
@@ -6424,7 +6748,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -6437,12 +6761,15 @@
       <c r="D110">
         <v>1.56</v>
       </c>
+      <c r="E110">
+        <v>2.92</v>
+      </c>
       <c r="F110">
         <v>111.185</v>
       </c>
       <c r="G110" s="4">
         <f t="shared" si="7"/>
-        <v>55.133125</v>
+        <v>44.6905</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>338</v>
@@ -6469,7 +6796,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -6482,12 +6809,15 @@
       <c r="D111">
         <v>1.46</v>
       </c>
+      <c r="E111">
+        <v>77.935000000000002</v>
+      </c>
       <c r="F111">
         <v>170.7175</v>
       </c>
       <c r="G111" s="4">
         <f t="shared" si="7"/>
-        <v>70.650624999999991</v>
+        <v>72.107500000000002</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>339</v>
@@ -6514,7 +6844,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -6527,12 +6857,15 @@
       <c r="D112">
         <v>2.33</v>
       </c>
+      <c r="E112">
+        <v>3.91</v>
+      </c>
       <c r="F112">
         <v>549.26</v>
       </c>
       <c r="G112" s="4">
         <f t="shared" si="7"/>
-        <v>174.995</v>
+        <v>140.77799999999999</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>339</v>
@@ -6559,7 +6892,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -6572,12 +6905,15 @@
       <c r="D113">
         <v>1.22</v>
       </c>
+      <c r="E113">
+        <v>0.65</v>
+      </c>
       <c r="F113">
         <v>70.625</v>
       </c>
       <c r="G113" s="4">
         <f t="shared" si="7"/>
-        <v>39.809583333333336</v>
+        <v>31.977666666666664</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>338</v>
@@ -6604,7 +6940,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -6617,12 +6953,15 @@
       <c r="D114">
         <v>1.1399999999999999</v>
       </c>
+      <c r="E114">
+        <v>0.85</v>
+      </c>
       <c r="F114">
         <v>234.28</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="7"/>
-        <v>65.253749999999997</v>
+        <v>52.373000000000005</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>339</v>
@@ -6649,7 +6988,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -6662,12 +7001,15 @@
       <c r="D115">
         <v>1.27</v>
       </c>
+      <c r="E115">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="F115">
         <v>17.850000000000001</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="7"/>
-        <v>23.35</v>
+        <v>18.795999999999999</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>339</v>
@@ -6694,7 +7036,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -6707,12 +7049,15 @@
       <c r="D116">
         <v>2.0499999999999998</v>
       </c>
+      <c r="E116">
+        <v>47.3125</v>
+      </c>
       <c r="F116">
         <v>447.48</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="7"/>
-        <v>198.10812500000003</v>
+        <v>167.94900000000001</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>339</v>
@@ -6739,7 +7084,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -6752,12 +7097,15 @@
       <c r="D117">
         <v>1.5775000000000001</v>
       </c>
+      <c r="E117">
+        <v>1.1040000000000001</v>
+      </c>
       <c r="F117">
         <v>184.7525</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="7"/>
-        <v>82.413999999999987</v>
+        <v>66.152000000000001</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>339</v>
@@ -6784,7 +7132,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -6797,12 +7145,15 @@
       <c r="D118">
         <v>1.0249999999999999</v>
       </c>
+      <c r="E118">
+        <v>42.41749999999999</v>
+      </c>
       <c r="F118">
         <v>693.2</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="7"/>
-        <v>273.90312500000005</v>
+        <v>227.60600000000005</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>339</v>
@@ -6829,7 +7180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -6842,12 +7193,15 @@
       <c r="D119">
         <v>0.99</v>
       </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
       <c r="F119">
         <v>28067.47</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="7"/>
-        <v>7106.50875</v>
+        <v>5705.2070000000003</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>339</v>
@@ -6874,7 +7228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -6887,12 +7241,15 @@
       <c r="D120">
         <v>1.9224999999999999</v>
       </c>
+      <c r="E120">
+        <v>14.879999999999999</v>
+      </c>
       <c r="F120">
         <v>99.06</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="7"/>
-        <v>44.160624999999996</v>
+        <v>38.304499999999997</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>339</v>
@@ -6919,7 +7276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -6932,12 +7289,15 @@
       <c r="D121">
         <v>2.1</v>
       </c>
+      <c r="E121">
+        <v>0.19</v>
+      </c>
       <c r="F121">
         <v>35.590000000000003</v>
       </c>
       <c r="G121" s="4">
         <f t="shared" si="7"/>
-        <v>33.025833333333338</v>
+        <v>26.458666666666669</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>338</v>
@@ -6964,7 +7324,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -6977,12 +7337,15 @@
       <c r="D122">
         <v>3.0649999999999999</v>
       </c>
+      <c r="E122">
+        <v>71.33</v>
+      </c>
       <c r="F122">
         <v>1865.405</v>
       </c>
       <c r="G122" s="4">
         <f t="shared" si="7"/>
-        <v>560.64708333333328</v>
+        <v>462.78366666666659</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>338</v>
@@ -7009,7 +7372,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -7022,12 +7385,15 @@
       <c r="D123">
         <v>2.0674999999999999</v>
       </c>
+      <c r="E123">
+        <v>0.3</v>
+      </c>
       <c r="F123">
         <v>732.6925</v>
       </c>
       <c r="G123" s="4">
         <f t="shared" si="7"/>
-        <v>206.99875</v>
+        <v>165.65899999999999</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>339</v>
@@ -7054,7 +7420,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -7067,12 +7433,15 @@
       <c r="D124">
         <v>2.3933333333333331</v>
       </c>
+      <c r="E124">
+        <v>48.022499999999994</v>
+      </c>
       <c r="F124">
         <v>10068.879999999999</v>
       </c>
       <c r="G124" s="4">
         <f t="shared" si="7"/>
-        <v>2547.5887499999999</v>
+        <v>2047.6754999999998</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>339</v>
@@ -7099,7 +7468,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -7112,12 +7481,15 @@
       <c r="D125">
         <v>2.0350000000000001</v>
       </c>
+      <c r="E125">
+        <v>5.55</v>
+      </c>
       <c r="F125">
         <v>79.215000000000003</v>
       </c>
       <c r="G125" s="4">
         <f t="shared" si="7"/>
-        <v>50.281874999999999</v>
+        <v>41.335500000000003</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>339</v>
@@ -7144,7 +7516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -7157,12 +7529,15 @@
       <c r="D126">
         <v>2.0049999999999999</v>
       </c>
+      <c r="E126">
+        <v>0.05</v>
+      </c>
       <c r="F126">
         <v>32.185000000000002</v>
       </c>
       <c r="G126" s="4">
         <f t="shared" si="7"/>
-        <v>42.161499999999997</v>
+        <v>33.739199999999997</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>339</v>
@@ -7189,7 +7564,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -7202,12 +7577,15 @@
       <c r="D127">
         <v>1.81</v>
       </c>
+      <c r="E127">
+        <v>0.40333333333333332</v>
+      </c>
       <c r="F127">
         <v>442.4</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="7"/>
-        <v>118.21124999999999</v>
+        <v>94.649666666666661</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>338</v>
@@ -7234,7 +7612,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -7247,12 +7625,15 @@
       <c r="D128">
         <v>1.895</v>
       </c>
+      <c r="E128">
+        <v>15.9575</v>
+      </c>
       <c r="F128">
         <v>767.97500000000002</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" ref="G128:G191" si="8">IFERROR(AVERAGE(A128:F128),0)</f>
-        <v>249.90312500000002</v>
+        <v>203.114</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>339</v>
@@ -7279,7 +7660,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -7292,12 +7673,15 @@
       <c r="D129">
         <v>1.2366666666666666</v>
       </c>
+      <c r="E129">
+        <v>9.7000000000000011</v>
+      </c>
       <c r="F129">
         <v>1092.49</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="8"/>
-        <v>311.37541666666664</v>
+        <v>251.04033333333331</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>338</v>
@@ -7324,7 +7708,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -7337,12 +7721,15 @@
       <c r="D130">
         <v>1.22</v>
       </c>
+      <c r="E130">
+        <v>0.25</v>
+      </c>
       <c r="F130">
         <v>41.405000000000001</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" si="8"/>
-        <v>26.883749999999999</v>
+        <v>21.556999999999999</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>339</v>
@@ -7369,7 +7756,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -7382,12 +7769,15 @@
       <c r="D131">
         <v>1.7250000000000001</v>
       </c>
+      <c r="E131">
+        <v>0.79</v>
+      </c>
       <c r="F131">
         <v>423.93</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="8"/>
-        <v>151.04874999999998</v>
+        <v>120.997</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>339</v>
@@ -7414,7 +7804,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -7427,12 +7817,15 @@
       <c r="D132">
         <v>1.51</v>
       </c>
+      <c r="E132">
+        <v>31.403333333333336</v>
+      </c>
       <c r="F132">
         <v>188.5675</v>
       </c>
       <c r="G132" s="4">
         <f t="shared" si="8"/>
-        <v>87.596249999999998</v>
+        <v>76.35766666666666</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>339</v>
@@ -7459,7 +7852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -7472,12 +7865,15 @@
       <c r="D133">
         <v>2.2549999999999999</v>
       </c>
+      <c r="E133">
+        <v>65.210000000000008</v>
+      </c>
       <c r="F133">
         <v>585.59500000000003</v>
       </c>
       <c r="G133" s="4">
         <f t="shared" si="8"/>
-        <v>202.6575</v>
+        <v>175.16800000000001</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>338</v>
@@ -7504,7 +7900,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -7517,12 +7913,15 @@
       <c r="D134">
         <v>2.2199999999999998</v>
       </c>
+      <c r="E134">
+        <v>0.79999999999999993</v>
+      </c>
       <c r="F134">
         <v>25.18</v>
       </c>
       <c r="G134" s="4">
         <f t="shared" si="8"/>
-        <v>25.659375000000004</v>
+        <v>20.6875</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>339</v>
@@ -7549,7 +7948,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -7562,12 +7961,15 @@
       <c r="D135">
         <v>2.65</v>
       </c>
+      <c r="E135">
+        <v>6.1225000000000005</v>
+      </c>
       <c r="F135">
         <v>504.6</v>
       </c>
       <c r="G135" s="4">
         <f t="shared" si="8"/>
-        <v>182.91125</v>
+        <v>147.55350000000001</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>339</v>
@@ -7594,7 +7996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -7607,12 +8009,15 @@
       <c r="D136">
         <v>2.1566666666666667</v>
       </c>
+      <c r="E136">
+        <v>0.72333333333333327</v>
+      </c>
       <c r="F136">
         <v>128.61333329999999</v>
       </c>
       <c r="G136" s="4">
         <f t="shared" si="8"/>
-        <v>72.22874999166666</v>
+        <v>57.92766666</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>338</v>
@@ -7639,7 +8044,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -7652,12 +8057,15 @@
       <c r="D137">
         <v>1.9899999999999998</v>
       </c>
+      <c r="E137">
+        <v>3.6399999999999997</v>
+      </c>
       <c r="F137">
         <v>63.856000000000002</v>
       </c>
       <c r="G137" s="4">
         <f t="shared" si="8"/>
-        <v>69.541500000000013</v>
+        <v>56.361200000000011</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>339</v>
@@ -7684,7 +8092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -7697,12 +8105,15 @@
       <c r="D138">
         <v>1.6</v>
       </c>
+      <c r="E138">
+        <v>2.7033333333333331</v>
+      </c>
       <c r="F138">
         <v>20.51</v>
       </c>
       <c r="G138" s="4">
         <f t="shared" si="8"/>
-        <v>16.61375</v>
+        <v>13.831666666666667</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>338</v>
@@ -7729,7 +8140,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -7742,12 +8153,15 @@
       <c r="D139">
         <v>2.0833333333333335</v>
       </c>
+      <c r="E139">
+        <v>58.512500000000003</v>
+      </c>
       <c r="F139">
         <v>6743.09</v>
       </c>
       <c r="G139" s="4">
         <f t="shared" si="8"/>
-        <v>1788.9523333333334</v>
+        <v>1442.8643666666667</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>339</v>
@@ -7774,7 +8188,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -7787,12 +8201,15 @@
       <c r="D140">
         <v>1.9849999999999999</v>
       </c>
+      <c r="E140">
+        <v>2.23</v>
+      </c>
       <c r="F140">
         <v>165.59</v>
       </c>
       <c r="G140" s="4">
         <f t="shared" si="8"/>
-        <v>69.682249999999996</v>
+        <v>56.191800000000001</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>339</v>
@@ -7819,7 +8236,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -7832,12 +8249,15 @@
       <c r="D141">
         <v>1.8460000000000001</v>
       </c>
+      <c r="E141">
+        <v>0.34</v>
+      </c>
       <c r="F141">
         <v>116.914</v>
       </c>
       <c r="G141" s="4">
         <f t="shared" si="8"/>
-        <v>59.015000000000001</v>
+        <v>47.280000000000008</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>339</v>
@@ -7864,7 +8284,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>152</v>
       </c>
@@ -7877,12 +8297,15 @@
       <c r="D142">
         <v>2.1633333333333336</v>
       </c>
+      <c r="E142">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="F142">
         <v>331.39666670000003</v>
       </c>
       <c r="G142" s="4">
         <f t="shared" si="8"/>
-        <v>110.17200000833334</v>
+        <v>88.193600006666685</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>339</v>
@@ -7909,7 +8332,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -7922,12 +8345,15 @@
       <c r="D143">
         <v>2.02</v>
       </c>
+      <c r="E143">
+        <v>27.36</v>
+      </c>
       <c r="F143">
         <v>181.54</v>
       </c>
       <c r="G143" s="4">
         <f t="shared" si="8"/>
-        <v>131.29499999999999</v>
+        <v>110.508</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>339</v>
@@ -7954,7 +8380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -7967,12 +8393,15 @@
       <c r="D144">
         <v>2.1933333333333334</v>
       </c>
+      <c r="E144">
+        <v>11.0425</v>
+      </c>
       <c r="F144">
         <v>106.4933333</v>
       </c>
       <c r="G144" s="4">
         <f t="shared" si="8"/>
-        <v>68.521666658333331</v>
+        <v>57.025833326666657</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>339</v>
@@ -7999,7 +8428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -8012,12 +8441,15 @@
       <c r="D145">
         <v>2.38</v>
       </c>
+      <c r="E145">
+        <v>87.242500000000007</v>
+      </c>
       <c r="F145">
         <v>16785.78</v>
       </c>
       <c r="G145" s="4">
         <f t="shared" si="8"/>
-        <v>4272.2849999999999</v>
+        <v>3435.2764999999999</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>338</v>
@@ -8044,7 +8476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -8057,12 +8489,15 @@
       <c r="D146">
         <v>1.58</v>
       </c>
+      <c r="E146">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="F146">
         <v>3.77</v>
       </c>
       <c r="G146" s="4">
         <f t="shared" si="8"/>
-        <v>8.5843750000000014</v>
+        <v>6.8815000000000008</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>338</v>
@@ -8089,7 +8524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -8102,12 +8537,15 @@
       <c r="D147">
         <v>2.7</v>
       </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
       <c r="F147">
         <v>16785.78</v>
       </c>
       <c r="G147" s="4">
         <f t="shared" si="8"/>
-        <v>4288.3891666666668</v>
+        <v>3450.7113333333336</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>339</v>
@@ -8134,7 +8572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>158</v>
       </c>
@@ -8147,12 +8585,15 @@
       <c r="D148">
         <v>2.98</v>
       </c>
+      <c r="E148">
+        <v>0.21</v>
+      </c>
       <c r="F148">
         <v>9.4933333330000007</v>
       </c>
       <c r="G148" s="4">
         <f t="shared" si="8"/>
-        <v>37.172083333250001</v>
+        <v>29.779666666600001</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>339</v>
@@ -8179,7 +8620,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -8192,12 +8633,15 @@
       <c r="D149">
         <v>2.1150000000000002</v>
       </c>
+      <c r="E149">
+        <v>6.6099999999999994</v>
+      </c>
       <c r="F149">
         <v>101.77500000000001</v>
       </c>
       <c r="G149" s="4">
         <f t="shared" si="8"/>
-        <v>76.334583333333342</v>
+        <v>62.389666666666677</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>339</v>
@@ -8224,7 +8668,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>160</v>
       </c>
@@ -8237,12 +8681,15 @@
       <c r="D150">
         <v>3.335</v>
       </c>
+      <c r="E150">
+        <v>4.28</v>
+      </c>
       <c r="F150">
         <v>373.88499999999999</v>
       </c>
       <c r="G150" s="4">
         <f t="shared" si="8"/>
-        <v>138.61562499999999</v>
+        <v>111.74849999999999</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>338</v>
@@ -8269,7 +8716,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -8282,12 +8729,15 @@
       <c r="D151">
         <v>3.7699999999999996</v>
       </c>
+      <c r="E151">
+        <v>2.8</v>
+      </c>
       <c r="F151">
         <v>11.66333333</v>
       </c>
       <c r="G151" s="4">
         <f t="shared" si="8"/>
-        <v>27.595333332500001</v>
+        <v>22.636266666000001</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>339</v>
@@ -8314,7 +8764,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
@@ -8327,12 +8777,15 @@
       <c r="D152">
         <v>1.7675000000000001</v>
       </c>
+      <c r="E152">
+        <v>0.17</v>
+      </c>
       <c r="F152">
         <v>22.69</v>
       </c>
       <c r="G152" s="4">
         <f t="shared" si="8"/>
-        <v>15.683375000000002</v>
+        <v>12.580700000000002</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>338</v>
@@ -8359,7 +8812,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>163</v>
       </c>
@@ -8372,12 +8825,15 @@
       <c r="D153">
         <v>3.64</v>
       </c>
+      <c r="E153">
+        <v>100</v>
+      </c>
       <c r="F153">
         <v>17403.18</v>
       </c>
       <c r="G153" s="4">
         <f t="shared" si="8"/>
-        <v>4390.8216666666667</v>
+        <v>3532.6573333333336</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>339</v>
@@ -8404,7 +8860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>164</v>
       </c>
@@ -8417,12 +8873,15 @@
       <c r="D154">
         <v>2.0099999999999998</v>
       </c>
+      <c r="E154">
+        <v>0.125</v>
+      </c>
       <c r="F154">
         <v>22.92</v>
       </c>
       <c r="G154" s="4">
         <f t="shared" si="8"/>
-        <v>40.204374999999999</v>
+        <v>32.188499999999998</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>339</v>
@@ -8449,7 +8908,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>165</v>
       </c>
@@ -8462,12 +8921,15 @@
       <c r="D155">
         <v>3.65</v>
       </c>
+      <c r="E155">
+        <v>14.096666666666666</v>
+      </c>
       <c r="F155">
         <v>840.06</v>
       </c>
       <c r="G155" s="4">
         <f t="shared" si="8"/>
-        <v>222.60999999999999</v>
+        <v>180.90733333333333</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>339</v>
@@ -8494,7 +8956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -8507,12 +8969,15 @@
       <c r="D156">
         <v>2.0466666666666669</v>
       </c>
+      <c r="E156">
+        <v>1.2050000000000001</v>
+      </c>
       <c r="F156">
         <v>18.403333329999999</v>
       </c>
       <c r="G156" s="4">
         <f t="shared" si="8"/>
-        <v>21.616874999166665</v>
+        <v>17.534499999333331</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>339</v>
@@ -8539,7 +9004,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -8552,12 +9017,15 @@
       <c r="D157">
         <v>2.0700000000000003</v>
       </c>
+      <c r="E157">
+        <v>0.375</v>
+      </c>
       <c r="F157">
         <v>3.5950000000000002</v>
       </c>
       <c r="G157" s="4">
         <f t="shared" si="8"/>
-        <v>23.038125000000001</v>
+        <v>18.505500000000001</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>338</v>
@@ -8584,7 +9052,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>168</v>
       </c>
@@ -8597,12 +9065,15 @@
       <c r="D158">
         <v>1.9124999999999996</v>
       </c>
+      <c r="E158">
+        <v>7.4575000000000005</v>
+      </c>
       <c r="F158">
         <v>35.232500000000002</v>
       </c>
       <c r="G158" s="4">
         <f t="shared" si="8"/>
-        <v>56.583749999999995</v>
+        <v>46.758500000000005</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>339</v>
@@ -8629,7 +9100,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>169</v>
       </c>
@@ -8642,12 +9113,15 @@
       <c r="D159">
         <v>2.0449999999999999</v>
       </c>
+      <c r="E159">
+        <v>4.08</v>
+      </c>
       <c r="F159">
         <v>344.505</v>
       </c>
       <c r="G159" s="4">
         <f t="shared" si="8"/>
-        <v>98.674166666666665</v>
+        <v>79.755333333333326</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>338</v>
@@ -8674,7 +9148,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -8687,12 +9161,15 @@
       <c r="D160">
         <v>5.94</v>
       </c>
+      <c r="E160">
+        <v>17.93</v>
+      </c>
       <c r="F160">
         <v>454.26</v>
       </c>
       <c r="G160" s="4">
         <f t="shared" si="8"/>
-        <v>214.88499999999999</v>
+        <v>175.494</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>339</v>
@@ -8719,7 +9196,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>171</v>
       </c>
@@ -8732,12 +9209,15 @@
       <c r="D161">
         <v>2.41</v>
       </c>
+      <c r="E161">
+        <v>1.46</v>
+      </c>
       <c r="F161">
         <v>418.63</v>
       </c>
       <c r="G161" s="4">
         <f t="shared" si="8"/>
-        <v>144.08437499999999</v>
+        <v>115.5595</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>338</v>
@@ -8764,7 +9244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
@@ -8777,12 +9257,15 @@
       <c r="D162">
         <v>1.44</v>
       </c>
+      <c r="E162">
+        <v>0.36749999999999999</v>
+      </c>
       <c r="F162">
         <v>70.694999999999993</v>
       </c>
       <c r="G162" s="4">
         <f t="shared" si="8"/>
-        <v>36.623750000000001</v>
+        <v>29.372500000000002</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>338</v>
@@ -8809,7 +9292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>173</v>
       </c>
@@ -8822,12 +9305,15 @@
       <c r="D163">
         <v>1.885</v>
       </c>
+      <c r="E163">
+        <v>21.844999999999999</v>
+      </c>
       <c r="F163">
         <v>7537.7250000000004</v>
       </c>
       <c r="G163" s="4">
         <f t="shared" si="8"/>
-        <v>1892.1756250000001</v>
+        <v>1518.1095</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>339</v>
@@ -8854,7 +9340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -8867,12 +9353,15 @@
       <c r="D164">
         <v>1.1819999999999999</v>
       </c>
+      <c r="E164">
+        <v>1.7733333333333334</v>
+      </c>
       <c r="F164">
         <v>135.506</v>
       </c>
       <c r="G164" s="4">
         <f t="shared" si="8"/>
-        <v>50.612499999999997</v>
+        <v>40.844666666666669</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>338</v>
@@ -8899,7 +9388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -8912,12 +9401,15 @@
       <c r="D165">
         <v>0.99500000000000011</v>
       </c>
+      <c r="E165">
+        <v>0.17333333333333334</v>
+      </c>
       <c r="F165">
         <v>158.27000000000001</v>
       </c>
       <c r="G165" s="4">
         <f t="shared" si="8"/>
-        <v>58.951250000000002</v>
+        <v>47.195666666666668</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>339</v>
@@ -8944,7 +9436,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -8957,12 +9449,15 @@
       <c r="D166">
         <v>1.2050000000000001</v>
       </c>
+      <c r="E166">
+        <v>1.3566666666666667</v>
+      </c>
       <c r="F166">
         <v>31.77</v>
       </c>
       <c r="G166" s="4">
         <f t="shared" si="8"/>
-        <v>58.843750000000014</v>
+        <v>47.346333333333341</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>338</v>
@@ -8989,7 +9484,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -9002,12 +9497,15 @@
       <c r="D167">
         <v>0.83499999999999996</v>
       </c>
+      <c r="E167">
+        <v>49.699999999999996</v>
+      </c>
       <c r="F167">
         <v>578.54499999999996</v>
       </c>
       <c r="G167" s="4">
         <f t="shared" si="8"/>
-        <v>251.33333333333331</v>
+        <v>211.00666666666666</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>339</v>
@@ -9034,7 +9532,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>178</v>
       </c>
@@ -9047,12 +9545,15 @@
       <c r="D168">
         <v>1.2075</v>
       </c>
+      <c r="E168">
+        <v>0.995</v>
+      </c>
       <c r="F168">
         <v>50.634999999999998</v>
       </c>
       <c r="G168" s="4">
         <f t="shared" si="8"/>
-        <v>31.286875000000002</v>
+        <v>25.228500000000004</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>338</v>
@@ -9079,7 +9580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>179</v>
       </c>
@@ -9092,12 +9593,15 @@
       <c r="D169">
         <v>1.06</v>
       </c>
+      <c r="E169">
+        <v>0.34499999999999997</v>
+      </c>
       <c r="F169">
         <v>42.186666670000001</v>
       </c>
       <c r="G169" s="4">
         <f t="shared" si="8"/>
-        <v>80.309166667500008</v>
+        <v>64.316333334000007</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>339</v>
@@ -9124,7 +9628,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -9137,12 +9641,15 @@
       <c r="D170">
         <v>1.39</v>
       </c>
+      <c r="E170">
+        <v>3.3650000000000002</v>
+      </c>
       <c r="F170">
         <v>1444.66</v>
       </c>
       <c r="G170" s="4">
         <f t="shared" si="8"/>
-        <v>369.049375</v>
+        <v>295.91250000000002</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>338</v>
@@ -9169,7 +9676,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -9182,12 +9689,15 @@
       <c r="D171">
         <v>1.62</v>
       </c>
+      <c r="E171">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="F171">
         <v>184.94499999999999</v>
       </c>
       <c r="G171" s="4">
         <f t="shared" si="8"/>
-        <v>114.29125000000001</v>
+        <v>91.897000000000006</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>339</v>
@@ -9214,7 +9724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>182</v>
       </c>
@@ -9227,12 +9737,15 @@
       <c r="D172">
         <v>0.71</v>
       </c>
+      <c r="E172">
+        <v>9.8966666666666665</v>
+      </c>
       <c r="F172">
         <v>2166.1999999999998</v>
       </c>
       <c r="G172" s="4">
         <f t="shared" si="8"/>
-        <v>611.14687499999991</v>
+        <v>490.89683333333335</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>338</v>
@@ -9259,7 +9772,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>183</v>
       </c>
@@ -9272,12 +9785,15 @@
       <c r="D173">
         <v>1.2999999999999998</v>
       </c>
+      <c r="E173">
+        <v>1.01</v>
+      </c>
       <c r="F173">
         <v>56.947499999999998</v>
       </c>
       <c r="G173" s="4">
         <f t="shared" si="8"/>
-        <v>66.047291666666666</v>
+        <v>53.039833333333334</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>339</v>
@@ -9304,7 +9820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -9317,12 +9833,15 @@
       <c r="D174">
         <v>2.11</v>
       </c>
+      <c r="E174">
+        <v>7.41</v>
+      </c>
       <c r="F174">
         <v>1119.31</v>
       </c>
       <c r="G174" s="4">
         <f t="shared" si="8"/>
-        <v>321.61833333333334</v>
+        <v>258.77666666666664</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>338</v>
@@ -9349,7 +9868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>185</v>
       </c>
@@ -9362,12 +9881,15 @@
       <c r="D175">
         <v>1.2749999999999999</v>
       </c>
+      <c r="E175">
+        <v>1.105</v>
+      </c>
       <c r="F175">
         <v>17.225000000000001</v>
       </c>
       <c r="G175" s="4">
         <f t="shared" si="8"/>
-        <v>31.927</v>
+        <v>25.762600000000003</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>339</v>
@@ -9394,7 +9916,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -9407,12 +9929,15 @@
       <c r="D176">
         <v>1.2566666666666668</v>
       </c>
+      <c r="E176">
+        <v>100</v>
+      </c>
       <c r="F176">
         <v>74.216666669999995</v>
       </c>
       <c r="G176" s="4">
         <f t="shared" si="8"/>
-        <v>61.150208334166663</v>
+        <v>68.920166667333334</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>338</v>
@@ -9439,7 +9964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
@@ -9452,12 +9977,15 @@
       <c r="D177">
         <v>1.085</v>
       </c>
+      <c r="E177">
+        <v>0.4</v>
+      </c>
       <c r="F177">
         <v>53.185000000000002</v>
       </c>
       <c r="G177" s="4">
         <f t="shared" si="8"/>
-        <v>32.112499999999997</v>
+        <v>25.77</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>338</v>
@@ -9484,7 +10012,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -9497,12 +10025,15 @@
       <c r="D178">
         <v>0.45499999999999996</v>
       </c>
+      <c r="E178">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="F178">
         <v>1.5149999999999999</v>
       </c>
       <c r="G178" s="4">
         <f t="shared" si="8"/>
-        <v>15.894374999999998</v>
+        <v>12.792499999999999</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>339</v>
@@ -9529,7 +10060,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>189</v>
       </c>
@@ -9542,12 +10073,15 @@
       <c r="D179">
         <v>1.2974999999999999</v>
       </c>
+      <c r="E179">
+        <v>0.79</v>
+      </c>
       <c r="F179">
         <v>277.7475</v>
       </c>
       <c r="G179" s="4">
         <f t="shared" si="8"/>
-        <v>88.701750000000004</v>
+        <v>71.119399999999999</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>339</v>
@@ -9574,7 +10108,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>190</v>
       </c>
@@ -9587,12 +10121,15 @@
       <c r="D180">
         <v>0.74</v>
       </c>
+      <c r="E180">
+        <v>9.9649999999999999</v>
+      </c>
       <c r="F180">
         <v>128.78</v>
       </c>
       <c r="G180" s="4">
         <f t="shared" si="8"/>
-        <v>66.573125000000005</v>
+        <v>55.251500000000007</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>338</v>
@@ -9619,7 +10156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -9632,12 +10169,15 @@
       <c r="D181">
         <v>0.72</v>
       </c>
+      <c r="E181">
+        <v>25.122500000000002</v>
+      </c>
       <c r="F181">
         <v>228.095</v>
       </c>
       <c r="G181" s="4">
         <f t="shared" si="8"/>
-        <v>83.398750000000007</v>
+        <v>71.743499999999997</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>339</v>
@@ -9664,7 +10204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>192</v>
       </c>
@@ -9677,12 +10217,15 @@
       <c r="D182">
         <v>1.4375</v>
       </c>
+      <c r="E182">
+        <v>6.5350000000000001</v>
+      </c>
       <c r="F182">
         <v>74.617500000000007</v>
       </c>
       <c r="G182" s="4">
         <f t="shared" si="8"/>
-        <v>61.279375000000002</v>
+        <v>50.330500000000001</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>339</v>
@@ -9709,7 +10252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -9722,12 +10265,15 @@
       <c r="D183">
         <v>1.78</v>
       </c>
+      <c r="E183">
+        <v>0.10000000000000002</v>
+      </c>
       <c r="F183">
         <v>84.396666670000002</v>
       </c>
       <c r="G183" s="4">
         <f t="shared" si="8"/>
-        <v>26.056833334166669</v>
+        <v>20.865466667333333</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>338</v>
@@ -9754,7 +10300,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -9767,12 +10313,15 @@
       <c r="D184">
         <v>1.2066666666666668</v>
       </c>
+      <c r="E184">
+        <v>0.16</v>
+      </c>
       <c r="F184">
         <v>472.58</v>
       </c>
       <c r="G184" s="4">
         <f t="shared" si="8"/>
-        <v>151.49716666666666</v>
+        <v>121.22973333333334</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>339</v>
@@ -9799,7 +10348,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -9812,12 +10361,15 @@
       <c r="D185">
         <v>1.3250000000000002</v>
       </c>
+      <c r="E185">
+        <v>2.1850000000000001</v>
+      </c>
       <c r="F185">
         <v>210.74333329999999</v>
       </c>
       <c r="G185" s="4">
         <f t="shared" si="8"/>
-        <v>82.997708324999991</v>
+        <v>66.835166659999999</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>339</v>
@@ -9844,7 +10396,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -9857,12 +10409,15 @@
       <c r="D186">
         <v>0.46</v>
       </c>
+      <c r="E186">
+        <v>0.125</v>
+      </c>
       <c r="F186">
         <v>503.245</v>
       </c>
       <c r="G186" s="4">
         <f t="shared" si="8"/>
-        <v>173.80875</v>
+        <v>139.072</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>338</v>
@@ -9889,7 +10444,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -9902,12 +10457,15 @@
       <c r="D187">
         <v>1.4700000000000002</v>
       </c>
+      <c r="E187">
+        <v>1.355</v>
+      </c>
       <c r="F187">
         <v>688.93</v>
       </c>
       <c r="G187" s="4">
         <f t="shared" si="8"/>
-        <v>221.39299999999997</v>
+        <v>177.38539999999998</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>338</v>
@@ -9934,7 +10492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -9947,12 +10505,15 @@
       <c r="D188">
         <v>1.01</v>
       </c>
+      <c r="E188">
+        <v>0.35</v>
+      </c>
       <c r="F188">
         <v>8.3366666669999994</v>
       </c>
       <c r="G188" s="4">
         <f t="shared" si="8"/>
-        <v>14.127666666749999</v>
+        <v>11.372133333400001</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>339</v>
@@ -9979,7 +10540,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -9992,12 +10553,15 @@
       <c r="D189">
         <v>1.034</v>
       </c>
+      <c r="E189">
+        <v>47.387999999999998</v>
+      </c>
       <c r="F189">
         <v>278.41199999999998</v>
       </c>
       <c r="G189" s="4">
         <f t="shared" si="8"/>
-        <v>118.010875</v>
+        <v>103.88629999999998</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>338</v>
@@ -10024,7 +10588,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -10037,12 +10601,15 @@
       <c r="D190">
         <v>1.4</v>
       </c>
+      <c r="E190">
+        <v>0.26</v>
+      </c>
       <c r="F190">
         <v>9.3800000000000008</v>
       </c>
       <c r="G190" s="4">
         <f t="shared" si="8"/>
-        <v>11.711874999999999</v>
+        <v>9.4214999999999982</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>338</v>
@@ -10069,7 +10636,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -10082,12 +10649,15 @@
       <c r="D191">
         <v>1.17</v>
       </c>
+      <c r="E191">
+        <v>0.80750000000000011</v>
+      </c>
       <c r="F191">
         <v>854.35500000000002</v>
       </c>
       <c r="G191" s="4">
         <f t="shared" si="8"/>
-        <v>302.82574999999997</v>
+        <v>242.4221</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>339</v>
@@ -10114,7 +10684,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
@@ -10127,12 +10697,15 @@
       <c r="D192">
         <v>0.95000000000000007</v>
       </c>
+      <c r="E192">
+        <v>1.4600000000000002</v>
+      </c>
       <c r="F192">
         <v>633.69000000000005</v>
       </c>
       <c r="G192" s="4">
         <f t="shared" ref="G192:G255" si="9">IFERROR(AVERAGE(A192:F192),0)</f>
-        <v>191.51625000000001</v>
+        <v>153.50500000000002</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>339</v>
@@ -10159,7 +10732,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -10172,12 +10745,15 @@
       <c r="D193">
         <v>1.43</v>
       </c>
+      <c r="E193">
+        <v>18.589999999999996</v>
+      </c>
       <c r="F193">
         <v>3471.2</v>
       </c>
       <c r="G193" s="4">
         <f t="shared" si="9"/>
-        <v>945.80312499999991</v>
+        <v>760.3605</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>339</v>
@@ -10204,7 +10780,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>204</v>
       </c>
@@ -10217,12 +10793,15 @@
       <c r="D194">
         <v>1.6575</v>
       </c>
+      <c r="E194">
+        <v>6.2933333333333321</v>
+      </c>
       <c r="F194">
         <v>452.98750000000001</v>
       </c>
       <c r="G194" s="4">
         <f t="shared" si="9"/>
-        <v>229.81812500000001</v>
+        <v>185.11316666666667</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>338</v>
@@ -10249,7 +10828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -10262,12 +10841,15 @@
       <c r="D195">
         <v>2.17</v>
       </c>
+      <c r="E195">
+        <v>1.87</v>
+      </c>
       <c r="F195">
         <v>49.814999999999998</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="9"/>
-        <v>38.349583333333335</v>
+        <v>31.053666666666668</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>339</v>
@@ -10294,7 +10876,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -10307,12 +10889,15 @@
       <c r="D196">
         <v>1.58</v>
       </c>
+      <c r="E196">
+        <v>2.0266666666666668</v>
+      </c>
       <c r="F196">
         <v>21.09</v>
       </c>
       <c r="G196" s="4">
         <f t="shared" si="9"/>
-        <v>37.39</v>
+        <v>30.317333333333334</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>338</v>
@@ -10339,7 +10924,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>207</v>
       </c>
@@ -10352,12 +10937,15 @@
       <c r="D197">
         <v>1.01</v>
       </c>
+      <c r="E197">
+        <v>42.31</v>
+      </c>
       <c r="F197">
         <v>889.73</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="9"/>
-        <v>317.07125000000002</v>
+        <v>262.11900000000003</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>339</v>
@@ -10384,7 +10972,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>208</v>
       </c>
@@ -10397,12 +10985,15 @@
       <c r="D198">
         <v>1.0825</v>
       </c>
+      <c r="E198">
+        <v>0.53500000000000003</v>
+      </c>
       <c r="F198">
         <v>152.08500000000001</v>
       </c>
       <c r="G198" s="4">
         <f t="shared" si="9"/>
-        <v>76.31</v>
+        <v>61.155000000000008</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>338</v>
@@ -10429,7 +11020,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>209</v>
       </c>
@@ -10442,12 +11033,15 @@
       <c r="D199">
         <v>1.325</v>
       </c>
+      <c r="E199">
+        <v>12.145</v>
+      </c>
       <c r="F199">
         <v>1832.18</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="9"/>
-        <v>502.495</v>
+        <v>404.42500000000001</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>339</v>
@@ -10474,7 +11068,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>210</v>
       </c>
@@ -10487,12 +11081,15 @@
       <c r="D200">
         <v>3.1533333333333338</v>
       </c>
+      <c r="E200">
+        <v>10.0275</v>
+      </c>
       <c r="F200">
         <v>661.93666670000005</v>
       </c>
       <c r="G200" s="4">
         <f t="shared" si="9"/>
-        <v>244.25250000833336</v>
+        <v>197.40750000666668</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>339</v>
@@ -10519,7 +11116,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>211</v>
       </c>
@@ -10532,12 +11129,15 @@
       <c r="D201">
         <v>0.71</v>
       </c>
+      <c r="E201">
+        <v>45.82</v>
+      </c>
       <c r="F201">
         <v>76.19</v>
       </c>
       <c r="G201" s="4">
         <f t="shared" si="9"/>
-        <v>87.571874999999991</v>
+        <v>79.221499999999992</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>339</v>
@@ -10564,7 +11164,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>212</v>
       </c>
@@ -10577,12 +11177,15 @@
       <c r="D202">
         <v>1.62</v>
       </c>
+      <c r="E202">
+        <v>28.549999999999997</v>
+      </c>
       <c r="F202">
         <v>580.29</v>
       </c>
       <c r="G202" s="4">
         <f t="shared" si="9"/>
-        <v>230.92833333333334</v>
+        <v>190.45266666666666</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>339</v>
@@ -10609,7 +11212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>213</v>
       </c>
@@ -10622,12 +11225,15 @@
       <c r="D203">
         <v>1.19</v>
       </c>
+      <c r="E203">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="F203">
         <v>454.93</v>
       </c>
       <c r="G203" s="4">
         <f t="shared" si="9"/>
-        <v>140.50749999999999</v>
+        <v>112.46199999999999</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>339</v>
@@ -10654,7 +11260,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>214</v>
       </c>
@@ -10667,12 +11273,15 @@
       <c r="D204">
         <v>1.33</v>
       </c>
+      <c r="E204">
+        <v>71.029999999999987</v>
+      </c>
       <c r="F204">
         <v>4632.7250000000004</v>
       </c>
       <c r="G204" s="4">
         <f t="shared" si="9"/>
-        <v>1228.308125</v>
+        <v>996.85250000000019</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>338</v>
@@ -10699,7 +11308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>215</v>
       </c>
@@ -10712,12 +11321,15 @@
       <c r="D205">
         <v>1.3866666666666667</v>
       </c>
+      <c r="E205">
+        <v>0.85</v>
+      </c>
       <c r="F205">
         <v>7.29</v>
       </c>
       <c r="G205" s="4">
         <f t="shared" si="9"/>
-        <v>37.810166666666667</v>
+        <v>30.418133333333333</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>338</v>
@@ -10744,7 +11356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -10757,12 +11369,15 @@
       <c r="D206">
         <v>1.55</v>
       </c>
+      <c r="E206">
+        <v>0.24</v>
+      </c>
       <c r="F206">
         <v>13.65</v>
       </c>
       <c r="G206" s="4">
         <f t="shared" si="9"/>
-        <v>26.697500000000002</v>
+        <v>21.405999999999999</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>338</v>
@@ -10789,7 +11404,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -10802,12 +11417,15 @@
       <c r="D207">
         <v>2.21</v>
       </c>
+      <c r="E207">
+        <v>5.96</v>
+      </c>
       <c r="F207">
         <v>164.03</v>
       </c>
       <c r="G207" s="4">
         <f t="shared" si="9"/>
-        <v>100.0325</v>
+        <v>81.218000000000004</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>339</v>
@@ -10834,7 +11452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -10847,12 +11465,15 @@
       <c r="D208">
         <v>0.9</v>
       </c>
+      <c r="E208">
+        <v>0.53</v>
+      </c>
       <c r="F208">
         <v>30.65</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="9"/>
-        <v>53.970000000000006</v>
+        <v>43.282000000000004</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>339</v>
@@ -10879,7 +11500,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -10892,12 +11513,15 @@
       <c r="D209">
         <v>0</v>
       </c>
+      <c r="E209">
+        <v>1.65</v>
+      </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="9"/>
-        <v>43.873333333333335</v>
+        <v>35.428666666666672</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>339</v>
@@ -10924,7 +11548,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -10937,12 +11561,15 @@
       <c r="D210">
         <v>0</v>
       </c>
+      <c r="E210">
+        <v>100</v>
+      </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="9"/>
-        <v>60.347500000000011</v>
+        <v>68.278000000000006</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>339</v>
@@ -10969,7 +11596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -10982,12 +11609,15 @@
       <c r="D211">
         <v>0.995</v>
       </c>
+      <c r="E211">
+        <v>69.763333333333335</v>
+      </c>
       <c r="F211">
         <v>640.755</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="9"/>
-        <v>219.88</v>
+        <v>189.85666666666665</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>338</v>
@@ -11014,7 +11644,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>222</v>
       </c>
@@ -11027,12 +11657,15 @@
       <c r="D212">
         <v>0.54</v>
       </c>
+      <c r="E212">
+        <v>97.025000000000006</v>
+      </c>
       <c r="F212">
         <v>4514.6400000000003</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="9"/>
-        <v>1221.0931250000001</v>
+        <v>996.27949999999998</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>339</v>
@@ -11059,7 +11692,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>223</v>
       </c>
@@ -11072,12 +11705,15 @@
       <c r="D213">
         <v>1.89</v>
       </c>
+      <c r="E213">
+        <v>0.92</v>
+      </c>
       <c r="F213">
         <v>11.86</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="9"/>
-        <v>50.384999999999991</v>
+        <v>40.491999999999997</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>339</v>
@@ -11104,7 +11740,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>224</v>
       </c>
@@ -11117,12 +11753,15 @@
       <c r="D214">
         <v>1.37</v>
       </c>
+      <c r="E214">
+        <v>5.2859999999999996</v>
+      </c>
       <c r="F214">
         <v>143.82</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="9"/>
-        <v>86.29849999999999</v>
+        <v>70.096000000000004</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>338</v>
@@ -11149,7 +11788,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>225</v>
       </c>
@@ -11162,12 +11801,15 @@
       <c r="D215">
         <v>1.28</v>
       </c>
+      <c r="E215">
+        <v>5.44</v>
+      </c>
       <c r="F215">
         <v>20.61</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="9"/>
-        <v>66.935000000000002</v>
+        <v>54.636000000000003</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>339</v>
@@ -11194,7 +11836,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>226</v>
       </c>
@@ -11207,12 +11849,15 @@
       <c r="D216">
         <v>1.3425</v>
       </c>
+      <c r="E216">
+        <v>1.5850000000000002</v>
+      </c>
       <c r="F216">
         <v>11.29</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="9"/>
-        <v>52.072124999999993</v>
+        <v>41.974699999999999</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>338</v>
@@ -11239,7 +11884,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>227</v>
       </c>
@@ -11252,12 +11897,15 @@
       <c r="D217">
         <v>0</v>
       </c>
+      <c r="E217">
+        <v>14.55</v>
+      </c>
       <c r="F217">
         <v>26.35</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="9"/>
-        <v>63.975000000000001</v>
+        <v>54.090000000000011</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>339</v>
@@ -11284,7 +11932,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>228</v>
       </c>
@@ -11297,12 +11945,15 @@
       <c r="D218">
         <v>1.1100000000000001</v>
       </c>
+      <c r="E218">
+        <v>0.89666666666666661</v>
+      </c>
       <c r="F218">
         <v>128.3966667</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="9"/>
-        <v>66.378166675000017</v>
+        <v>53.28186667333334</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>339</v>
@@ -11329,7 +11980,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>229</v>
       </c>
@@ -11342,12 +11993,15 @@
       <c r="D219">
         <v>1.25</v>
       </c>
+      <c r="E219">
+        <v>36.575000000000003</v>
+      </c>
       <c r="F219">
         <v>419.75</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="9"/>
-        <v>227.04166666666669</v>
+        <v>188.94833333333332</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>339</v>
@@ -11374,7 +12028,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -11387,12 +12041,15 @@
       <c r="D220">
         <v>1.4966666666666668</v>
       </c>
+      <c r="E220">
+        <v>19.3</v>
+      </c>
       <c r="F220">
         <v>722.23333330000003</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="9"/>
-        <v>212.00187499166668</v>
+        <v>173.46149999333335</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>339</v>
@@ -11419,7 +12076,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>231</v>
       </c>
@@ -11432,12 +12089,15 @@
       <c r="D221">
         <v>0</v>
       </c>
+      <c r="E221">
+        <v>15.4125</v>
+      </c>
       <c r="F221">
         <v>2021.92</v>
       </c>
       <c r="G221" s="4">
         <f t="shared" si="9"/>
-        <v>564.80000000000007</v>
+        <v>454.92250000000001</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>338</v>
@@ -11464,7 +12124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -11477,12 +12137,15 @@
       <c r="D222">
         <v>0</v>
       </c>
+      <c r="E222">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" si="9"/>
-        <v>22.704499999999999</v>
+        <v>18.272600000000001</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>338</v>
@@ -11509,7 +12172,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -11522,12 +12185,15 @@
       <c r="D223">
         <v>0.94500000000000006</v>
       </c>
+      <c r="E223">
+        <v>0.33</v>
+      </c>
       <c r="F223">
         <v>5.07</v>
       </c>
       <c r="G223" s="4">
         <f t="shared" si="9"/>
-        <v>14.214999999999998</v>
+        <v>11.437999999999999</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>339</v>
@@ -11554,7 +12220,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>234</v>
       </c>
@@ -11567,12 +12233,15 @@
       <c r="D224">
         <v>1.53</v>
       </c>
+      <c r="E224">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="F224">
         <v>13.25</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="9"/>
-        <v>36.837000000000003</v>
+        <v>29.496600000000001</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>338</v>
@@ -11599,7 +12268,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>235</v>
       </c>
@@ -11612,12 +12281,15 @@
       <c r="D225">
         <v>1.08</v>
       </c>
+      <c r="E225">
+        <v>14.374000000000001</v>
+      </c>
       <c r="F225">
         <v>83.14</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="9"/>
-        <v>75.08</v>
+        <v>62.938799999999993</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>339</v>
@@ -11644,7 +12316,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>236</v>
       </c>
@@ -11657,12 +12329,15 @@
       <c r="D226">
         <v>0.56499999999999995</v>
       </c>
+      <c r="E226">
+        <v>13.32</v>
+      </c>
       <c r="F226">
         <v>1027.31</v>
       </c>
       <c r="G226" s="4">
         <f t="shared" si="9"/>
-        <v>293.03274999999996</v>
+        <v>237.09020000000001</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>339</v>
@@ -11689,7 +12364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>237</v>
       </c>
@@ -11702,12 +12377,15 @@
       <c r="D227">
         <v>0.6</v>
       </c>
+      <c r="E227">
+        <v>16.912500000000001</v>
+      </c>
       <c r="F227">
         <v>20.76</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="9"/>
-        <v>47.888749999999995</v>
+        <v>41.693499999999993</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>338</v>
@@ -11734,7 +12412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>238</v>
       </c>
@@ -11747,12 +12425,15 @@
       <c r="D228">
         <v>1.1499999999999999</v>
       </c>
+      <c r="E228">
+        <v>100</v>
+      </c>
       <c r="F228">
         <v>8826.4650000000001</v>
       </c>
       <c r="G228" s="4">
         <f t="shared" si="9"/>
-        <v>2279.8642500000001</v>
+        <v>1843.8914</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>339</v>
@@ -11779,7 +12460,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>239</v>
       </c>
@@ -11792,12 +12473,15 @@
       <c r="D229">
         <v>1.32</v>
       </c>
+      <c r="E229">
+        <v>2.39</v>
+      </c>
       <c r="F229">
         <v>236.59</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="9"/>
-        <v>95.715624999999989</v>
+        <v>77.050499999999985</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>338</v>
@@ -11824,7 +12508,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>240</v>
       </c>
@@ -11837,12 +12521,15 @@
       <c r="D230">
         <v>1.25</v>
       </c>
+      <c r="E230">
+        <v>2.9000000000000004</v>
+      </c>
       <c r="F230">
         <v>44</v>
       </c>
       <c r="G230" s="4">
         <f t="shared" si="9"/>
-        <v>49.227499999999999</v>
+        <v>39.962000000000003</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>339</v>
@@ -11869,7 +12556,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>241</v>
       </c>
@@ -11882,12 +12569,15 @@
       <c r="D231">
         <v>0</v>
       </c>
+      <c r="E231">
+        <v>20.349999999999998</v>
+      </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231" s="4">
         <f t="shared" si="9"/>
-        <v>53.693124999999995</v>
+        <v>47.024499999999996</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>339</v>
@@ -11914,7 +12604,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>242</v>
       </c>
@@ -11927,12 +12617,15 @@
       <c r="D232">
         <v>0.79</v>
       </c>
+      <c r="E232">
+        <v>0.21</v>
+      </c>
       <c r="F232">
         <v>2.84</v>
       </c>
       <c r="G232" s="4">
         <f t="shared" si="9"/>
-        <v>9.7218750000000007</v>
+        <v>7.8194999999999997</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>338</v>
@@ -11959,7 +12652,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>243</v>
       </c>
@@ -11972,12 +12665,15 @@
       <c r="D233">
         <v>0</v>
       </c>
+      <c r="E233">
+        <v>0.08</v>
+      </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233" s="4">
         <f t="shared" si="9"/>
-        <v>13.115624999999998</v>
+        <v>10.508499999999998</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>339</v>
@@ -12004,7 +12700,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>244</v>
       </c>
@@ -12017,12 +12713,15 @@
       <c r="D234">
         <v>0</v>
       </c>
+      <c r="E234">
+        <v>88.02</v>
+      </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234" s="4">
         <f t="shared" si="9"/>
-        <v>47.184375000000003</v>
+        <v>55.351500000000001</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>338</v>
@@ -12049,7 +12748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>245</v>
       </c>
@@ -12062,12 +12761,15 @@
       <c r="D235">
         <v>1.71</v>
       </c>
+      <c r="E235">
+        <v>27.232500000000002</v>
+      </c>
       <c r="F235">
         <v>105.53</v>
       </c>
       <c r="G235" s="4">
         <f t="shared" si="9"/>
-        <v>110.81062500000002</v>
+        <v>94.094999999999999</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>339</v>
@@ -12094,7 +12796,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>246</v>
       </c>
@@ -12107,12 +12809,15 @@
       <c r="D236">
         <v>1.67</v>
       </c>
+      <c r="E236">
+        <v>0.35333333333333333</v>
+      </c>
       <c r="F236">
         <v>14.635</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="9"/>
-        <v>40.32074999999999</v>
+        <v>32.327266666666659</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>338</v>
@@ -12139,7 +12844,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>247</v>
       </c>
@@ -12152,12 +12857,15 @@
       <c r="D237">
         <v>0</v>
       </c>
+      <c r="E237">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237" s="4">
         <f t="shared" si="9"/>
-        <v>53.316874999999996</v>
+        <v>42.858499999999999</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>339</v>
@@ -12184,7 +12892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -12197,12 +12905,15 @@
       <c r="D238">
         <v>0</v>
       </c>
+      <c r="E238">
+        <v>66.14</v>
+      </c>
       <c r="F238">
         <v>1485.5</v>
       </c>
       <c r="G238" s="4">
         <f t="shared" si="9"/>
-        <v>419.36</v>
+        <v>348.71600000000001</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>339</v>
@@ -12229,7 +12940,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>249</v>
       </c>
@@ -12242,12 +12953,15 @@
       <c r="D239">
         <v>1.3049999999999999</v>
       </c>
+      <c r="E239">
+        <v>55.56</v>
+      </c>
       <c r="F239">
         <v>1949.44</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="9"/>
-        <v>558.82074999999998</v>
+        <v>458.16859999999997</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>339</v>
@@ -12274,7 +12988,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -12287,12 +13001,15 @@
       <c r="D240">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E240">
+        <v>2.9250000000000003</v>
+      </c>
       <c r="F240">
         <v>14.33</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="9"/>
-        <v>24.983124999999998</v>
+        <v>20.571499999999997</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>339</v>
@@ -12319,7 +13036,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>251</v>
       </c>
@@ -12332,12 +13049,15 @@
       <c r="D241">
         <v>0</v>
       </c>
+      <c r="E241">
+        <v>4.82</v>
+      </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="9"/>
-        <v>87.509375000000006</v>
+        <v>70.971500000000006</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>339</v>
@@ -12364,7 +13084,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -12377,12 +13097,15 @@
       <c r="D242">
         <v>1.39</v>
       </c>
+      <c r="E242">
+        <v>100</v>
+      </c>
       <c r="F242">
         <v>458.86</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="9"/>
-        <v>220.41312500000001</v>
+        <v>196.3305</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>339</v>
@@ -12409,7 +13132,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>253</v>
       </c>
@@ -12422,12 +13145,15 @@
       <c r="D243">
         <v>0</v>
       </c>
+      <c r="E243">
+        <v>0.16</v>
+      </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" si="9"/>
-        <v>26.460625</v>
+        <v>21.200499999999998</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>339</v>
@@ -12454,7 +13180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
@@ -12467,12 +13193,15 @@
       <c r="D244">
         <v>1.44</v>
       </c>
+      <c r="E244">
+        <v>100</v>
+      </c>
       <c r="F244">
         <v>6651.66</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="9"/>
-        <v>1740.2341666666666</v>
+        <v>1412.1873333333333</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>339</v>
@@ -12499,7 +13228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>255</v>
       </c>
@@ -12512,12 +13241,15 @@
       <c r="D245">
         <v>1.595</v>
       </c>
+      <c r="E245">
+        <v>1.3450000000000002</v>
+      </c>
       <c r="F245">
         <v>1450.65</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="9"/>
-        <v>390.44500000000005</v>
+        <v>312.625</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>339</v>
@@ -12544,7 +13276,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -12557,12 +13289,15 @@
       <c r="D246">
         <v>0</v>
       </c>
+      <c r="E246">
+        <v>2.6425000000000001</v>
+      </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="9"/>
-        <v>39.401250000000005</v>
+        <v>32.049500000000009</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>338</v>
@@ -12589,7 +13324,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>257</v>
       </c>
@@ -12602,12 +13337,15 @@
       <c r="D247">
         <v>0</v>
       </c>
+      <c r="E247">
+        <v>0.36</v>
+      </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="9"/>
-        <v>21.708749999999998</v>
+        <v>17.439</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>338</v>
@@ -12634,7 +13372,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -12647,12 +13385,15 @@
       <c r="D248">
         <v>0</v>
       </c>
+      <c r="E248">
+        <v>0.38</v>
+      </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="9"/>
-        <v>34.777083333333337</v>
+        <v>27.897666666666669</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>339</v>
@@ -12679,7 +13420,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>259</v>
       </c>
@@ -12692,12 +13433,15 @@
       <c r="D249">
         <v>0</v>
       </c>
+      <c r="E249">
+        <v>0.31</v>
+      </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="9"/>
-        <v>4.2525000000000004</v>
+        <v>3.464</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>338</v>
@@ -12724,7 +13468,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -12737,12 +13481,15 @@
       <c r="D250">
         <v>1.81</v>
       </c>
+      <c r="E250">
+        <v>1.87</v>
+      </c>
       <c r="F250">
         <v>25.12</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="9"/>
-        <v>57.42</v>
+        <v>46.31</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>339</v>
@@ -12769,7 +13516,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
@@ -12782,12 +13529,15 @@
       <c r="D251">
         <v>3.16</v>
       </c>
+      <c r="E251">
+        <v>1.23</v>
+      </c>
       <c r="F251">
         <v>477.75</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="9"/>
-        <v>133.93375</v>
+        <v>107.393</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>339</v>
@@ -12814,7 +13564,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>262</v>
       </c>
@@ -12827,12 +13577,15 @@
       <c r="D252">
         <v>0</v>
       </c>
+      <c r="E252">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="9"/>
-        <v>22.221874999999997</v>
+        <v>17.805499999999999</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>339</v>
@@ -12859,7 +13612,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
@@ -12872,12 +13625,15 @@
       <c r="D253">
         <v>1.61</v>
       </c>
+      <c r="E253">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="F253">
         <v>4.3499999999999996</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="9"/>
-        <v>17.888999999999999</v>
+        <v>14.341200000000001</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>339</v>
@@ -12904,7 +13660,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>264</v>
       </c>
@@ -12917,12 +13673,15 @@
       <c r="D254">
         <v>2.62</v>
       </c>
+      <c r="E254">
+        <v>0.21</v>
+      </c>
       <c r="F254">
         <v>535.65</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="9"/>
-        <v>150.63187500000001</v>
+        <v>120.54749999999999</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>338</v>
@@ -12949,7 +13708,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -12962,12 +13721,15 @@
       <c r="D255">
         <v>1.53</v>
       </c>
+      <c r="E255">
+        <v>0.26</v>
+      </c>
       <c r="F255">
         <v>7.13</v>
       </c>
       <c r="G255" s="4">
         <f t="shared" si="9"/>
-        <v>20.92</v>
+        <v>16.788000000000004</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>339</v>
@@ -12994,7 +13756,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>266</v>
       </c>
@@ -13007,12 +13769,15 @@
       <c r="D256">
         <v>1.4</v>
       </c>
+      <c r="E256">
+        <v>0.97</v>
+      </c>
       <c r="F256">
         <v>107.65</v>
       </c>
       <c r="G256" s="4">
         <f t="shared" ref="G256:G319" si="10">IFERROR(AVERAGE(A256:F256),0)</f>
-        <v>53.906666666666666</v>
+        <v>43.31933333333334</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>339</v>
@@ -13039,7 +13804,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
@@ -13052,12 +13817,15 @@
       <c r="D257">
         <v>2.21</v>
       </c>
+      <c r="E257">
+        <v>0.29249999999999998</v>
+      </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" s="4">
         <f t="shared" si="10"/>
-        <v>20.030999999999999</v>
+        <v>16.083300000000001</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>339</v>
@@ -13084,7 +13852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>268</v>
       </c>
@@ -13097,12 +13865,15 @@
       <c r="D258">
         <v>0</v>
       </c>
+      <c r="E258">
+        <v>5.1733333333333338</v>
+      </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" s="4">
         <f t="shared" si="10"/>
-        <v>54.466875000000002</v>
+        <v>44.608166666666669</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>339</v>
@@ -13129,7 +13900,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>269</v>
       </c>
@@ -13142,12 +13913,15 @@
       <c r="D259">
         <v>1.85</v>
       </c>
+      <c r="E259">
+        <v>90.68</v>
+      </c>
       <c r="F259">
         <v>435.09</v>
       </c>
       <c r="G259" s="4">
         <f t="shared" si="10"/>
-        <v>185.58812499999999</v>
+        <v>166.60650000000001</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>339</v>
@@ -13174,7 +13948,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>270</v>
       </c>
@@ -13187,12 +13961,15 @@
       <c r="D260">
         <v>0</v>
       </c>
+      <c r="E260">
+        <v>5.0699999999999994</v>
+      </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260" s="4">
         <f t="shared" si="10"/>
-        <v>74.795624999999987</v>
+        <v>60.85049999999999</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>339</v>
@@ -13219,7 +13996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -13232,12 +14009,15 @@
       <c r="D261">
         <v>1.47</v>
       </c>
+      <c r="E261">
+        <v>0.35</v>
+      </c>
       <c r="F261">
         <v>3.57</v>
       </c>
       <c r="G261" s="4">
         <f t="shared" si="10"/>
-        <v>13.25625</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>338</v>
@@ -13264,7 +14044,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>272</v>
       </c>
@@ -13277,12 +14057,15 @@
       <c r="D262">
         <v>1.56</v>
       </c>
+      <c r="E262">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F262">
         <v>16.809999999999999</v>
       </c>
       <c r="G262" s="4">
         <f t="shared" si="10"/>
-        <v>27.255000000000003</v>
+        <v>22.024000000000001</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>339</v>
@@ -13309,7 +14092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -13322,12 +14105,15 @@
       <c r="D263">
         <v>0.96</v>
       </c>
+      <c r="E263">
+        <v>0.86333333333333329</v>
+      </c>
       <c r="F263">
         <v>18.47</v>
       </c>
       <c r="G263" s="4">
         <f t="shared" si="10"/>
-        <v>35.530999999999999</v>
+        <v>28.597466666666662</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>339</v>
@@ -13354,7 +14140,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -13367,12 +14153,15 @@
       <c r="D264">
         <v>0</v>
       </c>
+      <c r="E264">
+        <v>39.774999999999999</v>
+      </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264" s="4">
         <f t="shared" si="10"/>
-        <v>97.627499999999998</v>
+        <v>86.056999999999988</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>339</v>
@@ -13399,7 +14188,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -13412,12 +14201,15 @@
       <c r="D265">
         <v>0</v>
       </c>
+      <c r="E265">
+        <v>9.5224999999999991</v>
+      </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265" s="4">
         <f t="shared" si="10"/>
-        <v>16.842500000000001</v>
+        <v>15.378499999999999</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>339</v>
@@ -13444,7 +14236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>276</v>
       </c>
@@ -13457,12 +14249,15 @@
       <c r="D266">
         <v>1.1100000000000001</v>
       </c>
+      <c r="E266">
+        <v>1.0399999999999998</v>
+      </c>
       <c r="F266">
         <v>181.8533333</v>
       </c>
       <c r="G266" s="4">
         <f t="shared" si="10"/>
-        <v>78.662333325000006</v>
+        <v>63.137866660000007</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>339</v>
@@ -13489,7 +14284,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -13502,12 +14297,15 @@
       <c r="D267">
         <v>0.74</v>
       </c>
+      <c r="E267">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="F267">
         <v>19.510000000000002</v>
       </c>
       <c r="G267" s="4">
         <f t="shared" si="10"/>
-        <v>27.909999999999997</v>
+        <v>22.441999999999997</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>338</v>
@@ -13534,7 +14332,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>278</v>
       </c>
@@ -13547,12 +14345,15 @@
       <c r="D268">
         <v>1.38</v>
       </c>
+      <c r="E268">
+        <v>17.2925</v>
+      </c>
       <c r="F268">
         <v>190.41</v>
       </c>
       <c r="G268" s="4">
         <f t="shared" si="10"/>
-        <v>103.09</v>
+        <v>85.930499999999995</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>338</v>
@@ -13579,7 +14380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>279</v>
       </c>
@@ -13592,12 +14393,15 @@
       <c r="D269">
         <v>2.665</v>
       </c>
+      <c r="E269">
+        <v>6.1760000000000002</v>
+      </c>
       <c r="F269">
         <v>1640.875</v>
       </c>
       <c r="G269" s="4">
         <f t="shared" si="10"/>
-        <v>437.73349999999999</v>
+        <v>351.42199999999997</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>339</v>
@@ -13624,7 +14428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>280</v>
       </c>
@@ -13637,12 +14441,15 @@
       <c r="D270">
         <v>2.63</v>
       </c>
+      <c r="E270">
+        <v>0.10500000000000001</v>
+      </c>
       <c r="F270">
         <v>40.869999999999997</v>
       </c>
       <c r="G270" s="4">
         <f t="shared" si="10"/>
-        <v>18.251666666666665</v>
+        <v>14.62233333333333</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>339</v>
@@ -13669,7 +14476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>281</v>
       </c>
@@ -13682,12 +14489,15 @@
       <c r="D271">
         <v>0</v>
       </c>
+      <c r="E271">
+        <v>100</v>
+      </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" s="4">
         <f t="shared" si="10"/>
-        <v>69.463750000000005</v>
+        <v>75.570999999999998</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>339</v>
@@ -13714,7 +14524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>282</v>
       </c>
@@ -13727,12 +14537,15 @@
       <c r="D272">
         <v>0</v>
       </c>
+      <c r="E272">
+        <v>1.2425000000000002</v>
+      </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272" s="4">
         <f t="shared" si="10"/>
-        <v>21.97</v>
+        <v>17.8245</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>339</v>
@@ -13759,7 +14572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>283</v>
       </c>
@@ -13772,12 +14585,15 @@
       <c r="D273">
         <v>2.06</v>
       </c>
+      <c r="E273">
+        <v>0.37</v>
+      </c>
       <c r="F273">
         <v>27.303333330000001</v>
       </c>
       <c r="G273" s="4">
         <f t="shared" si="10"/>
-        <v>32.027708332499998</v>
+        <v>25.696166666</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>338</v>
@@ -13804,7 +14620,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>284</v>
       </c>
@@ -13817,12 +14633,15 @@
       <c r="D274">
         <v>1.7299999999999998</v>
       </c>
+      <c r="E274">
+        <v>0.12</v>
+      </c>
       <c r="F274">
         <v>8.9166666669999994</v>
       </c>
       <c r="G274" s="4">
         <f t="shared" si="10"/>
-        <v>6.7976666667500005</v>
+        <v>5.4621333333999997</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>338</v>
@@ -13849,7 +14668,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>285</v>
       </c>
@@ -13862,12 +14681,15 @@
       <c r="D275">
         <v>1.08</v>
       </c>
+      <c r="E275">
+        <v>29.893333333333334</v>
+      </c>
       <c r="F275">
         <v>9970.0400000000009</v>
       </c>
       <c r="G275" s="4">
         <f t="shared" si="10"/>
-        <v>2565.3486666666668</v>
+        <v>2058.2575999999999</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>339</v>
@@ -13894,7 +14716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>286</v>
       </c>
@@ -13907,12 +14729,15 @@
       <c r="D276">
         <v>1.85</v>
       </c>
+      <c r="E276">
+        <v>36.419999999999995</v>
+      </c>
       <c r="F276">
         <v>3.31</v>
       </c>
       <c r="G276" s="4">
         <f t="shared" si="10"/>
-        <v>30.875499999999999</v>
+        <v>31.984400000000001</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>339</v>
@@ -13939,7 +14764,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>287</v>
       </c>
@@ -13952,12 +14777,15 @@
       <c r="D277">
         <v>2.14</v>
       </c>
+      <c r="E277">
+        <v>0.97</v>
+      </c>
       <c r="F277">
         <v>90.265000000000001</v>
       </c>
       <c r="G277" s="4">
         <f t="shared" si="10"/>
-        <v>57.89</v>
+        <v>46.505999999999993</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>339</v>
@@ -13984,7 +14812,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>288</v>
       </c>
@@ -13997,12 +14825,15 @@
       <c r="D278">
         <v>1.2866666666666668</v>
       </c>
+      <c r="E278">
+        <v>4.3999999999999995</v>
+      </c>
       <c r="F278">
         <v>358.78</v>
       </c>
       <c r="G278" s="4">
         <f t="shared" si="10"/>
-        <v>185.83104166666666</v>
+        <v>149.54483333333332</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>338</v>
@@ -14029,7 +14860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -14042,12 +14873,15 @@
       <c r="D279">
         <v>1.85</v>
       </c>
+      <c r="E279">
+        <v>0.06</v>
+      </c>
       <c r="F279">
         <v>79.864999999999995</v>
       </c>
       <c r="G279" s="4">
         <f t="shared" si="10"/>
-        <v>47.626874999999998</v>
+        <v>38.113500000000002</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>338</v>
@@ -14074,7 +14908,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>290</v>
       </c>
@@ -14087,12 +14921,15 @@
       <c r="D280">
         <v>1.63</v>
       </c>
+      <c r="E280">
+        <v>2.6199999999999997</v>
+      </c>
       <c r="F280">
         <v>116.08</v>
       </c>
       <c r="G280" s="4">
         <f t="shared" si="10"/>
-        <v>90.465000000000003</v>
+        <v>72.896000000000001</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>339</v>
@@ -14119,7 +14956,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>291</v>
       </c>
@@ -14132,12 +14969,15 @@
       <c r="D281">
         <v>2.1399999999999997</v>
       </c>
+      <c r="E281">
+        <v>24.05</v>
+      </c>
       <c r="F281">
         <v>1492.8150000000001</v>
       </c>
       <c r="G281" s="4">
         <f t="shared" si="10"/>
-        <v>445.28437500000001</v>
+        <v>361.03750000000002</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>339</v>
@@ -14164,7 +15004,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>292</v>
       </c>
@@ -14177,12 +15017,15 @@
       <c r="D282">
         <v>0</v>
       </c>
+      <c r="E282">
+        <v>4.2549999999999999</v>
+      </c>
       <c r="F282">
         <v>1778.42</v>
       </c>
       <c r="G282" s="4">
         <f t="shared" si="10"/>
-        <v>467.611875</v>
+        <v>374.94050000000004</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>339</v>
@@ -14209,7 +15052,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>293</v>
       </c>
@@ -14222,12 +15065,15 @@
       <c r="D283">
         <v>2.36</v>
       </c>
+      <c r="E283">
+        <v>100</v>
+      </c>
       <c r="F283">
         <v>2575.9499999999998</v>
       </c>
       <c r="G283" s="4">
         <f t="shared" si="10"/>
-        <v>747.45062499999995</v>
+        <v>617.96049999999991</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>339</v>
@@ -14254,7 +15100,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -14267,12 +15113,15 @@
       <c r="D284">
         <v>1.72</v>
       </c>
+      <c r="E284">
+        <v>1.8500000000000003</v>
+      </c>
       <c r="F284">
         <v>48.134999999999998</v>
       </c>
       <c r="G284" s="4">
         <f t="shared" si="10"/>
-        <v>30.324374999999996</v>
+        <v>24.629499999999997</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>338</v>
@@ -14299,7 +15148,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>295</v>
       </c>
@@ -14312,12 +15161,15 @@
       <c r="D285">
         <v>1.6625000000000001</v>
       </c>
+      <c r="E285">
+        <v>2.2033333333333331</v>
+      </c>
       <c r="F285">
         <v>106.51</v>
       </c>
       <c r="G285" s="4">
         <f t="shared" si="10"/>
-        <v>72.21374999999999</v>
+        <v>58.211666666666659</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>338</v>
@@ -14344,7 +15196,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -14357,12 +15209,15 @@
       <c r="D286">
         <v>1.7000000000000002</v>
       </c>
+      <c r="E286">
+        <v>25.290000000000003</v>
+      </c>
       <c r="F286">
         <v>28.56</v>
       </c>
       <c r="G286" s="4">
         <f t="shared" si="10"/>
-        <v>46.417499999999997</v>
+        <v>42.191999999999993</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>339</v>
@@ -14389,7 +15244,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>297</v>
       </c>
@@ -14402,12 +15257,15 @@
       <c r="D287">
         <v>1.82</v>
       </c>
+      <c r="E287">
+        <v>43.379999999999995</v>
+      </c>
       <c r="F287">
         <v>1086.69</v>
       </c>
       <c r="G287" s="4">
         <f t="shared" si="10"/>
-        <v>395.91624999999999</v>
+        <v>325.40899999999999</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>339</v>
@@ -14434,7 +15292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -14447,12 +15305,15 @@
       <c r="D288">
         <v>1.72</v>
       </c>
+      <c r="E288">
+        <v>0.71</v>
+      </c>
       <c r="F288">
         <v>166.99</v>
       </c>
       <c r="G288" s="4">
         <f t="shared" si="10"/>
-        <v>134.51300000000001</v>
+        <v>107.75239999999999</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>339</v>
@@ -14479,7 +15340,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>299</v>
       </c>
@@ -14492,12 +15353,15 @@
       <c r="D289">
         <v>1.6259999999999999</v>
       </c>
+      <c r="E289">
+        <v>1.6366666666666667</v>
+      </c>
       <c r="F289">
         <v>223.006</v>
       </c>
       <c r="G289" s="4">
         <f t="shared" si="10"/>
-        <v>100.167</v>
+        <v>80.46093333333333</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>339</v>
@@ -14524,7 +15388,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>300</v>
       </c>
@@ -14537,12 +15401,15 @@
       <c r="D290">
         <v>1.7150000000000001</v>
       </c>
+      <c r="E290">
+        <v>12.265000000000001</v>
+      </c>
       <c r="F290">
         <v>167.85249999999999</v>
       </c>
       <c r="G290" s="4">
         <f t="shared" si="10"/>
-        <v>80.894374999999997</v>
+        <v>67.168499999999995</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>338</v>
@@ -14569,7 +15436,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -14582,12 +15449,15 @@
       <c r="D291">
         <v>2.2966666666666669</v>
       </c>
+      <c r="E291">
+        <v>1.4600000000000002</v>
+      </c>
       <c r="F291">
         <v>412.55333330000002</v>
       </c>
       <c r="G291" s="4">
         <f t="shared" si="10"/>
-        <v>147.99699999166666</v>
+        <v>118.68959999333333</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>338</v>
@@ -14614,7 +15484,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>302</v>
       </c>
@@ -14627,12 +15497,15 @@
       <c r="D292">
         <v>2.5</v>
       </c>
+      <c r="E292">
+        <v>44.155000000000001</v>
+      </c>
       <c r="F292">
         <v>2251</v>
       </c>
       <c r="G292" s="4">
         <f t="shared" si="10"/>
-        <v>634.9425</v>
+        <v>516.78500000000008</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>338</v>
@@ -14659,7 +15532,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -14672,12 +15545,15 @@
       <c r="D293">
         <v>2.3833333333333333</v>
       </c>
+      <c r="E293">
+        <v>7.5</v>
+      </c>
       <c r="F293">
         <v>207.2033333</v>
       </c>
       <c r="G293" s="4">
         <f t="shared" si="10"/>
-        <v>74.039791658333328</v>
+        <v>60.73183332666666</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>339</v>
@@ -14704,7 +15580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>304</v>
       </c>
@@ -14717,12 +15593,15 @@
       <c r="D294">
         <v>1.26</v>
       </c>
+      <c r="E294">
+        <v>33.82</v>
+      </c>
       <c r="F294">
         <v>13568.14</v>
       </c>
       <c r="G294" s="4">
         <f t="shared" si="10"/>
-        <v>3441.0628333333334</v>
+        <v>2759.6142666666665</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>338</v>
@@ -14749,7 +15628,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>305</v>
       </c>
@@ -14762,12 +15641,15 @@
       <c r="D295">
         <v>2.89</v>
       </c>
+      <c r="E295">
+        <v>2.13</v>
+      </c>
       <c r="F295">
         <v>906.83333330000005</v>
       </c>
       <c r="G295" s="4">
         <f t="shared" si="10"/>
-        <v>278.98624999166668</v>
+        <v>223.61499999333336</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>339</v>
@@ -14794,7 +15676,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>306</v>
       </c>
@@ -14807,12 +15689,15 @@
       <c r="D296">
         <v>2.08</v>
       </c>
+      <c r="E296">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="F296">
         <v>162.38</v>
       </c>
       <c r="G296" s="4">
         <f t="shared" si="10"/>
-        <v>83.851875000000007</v>
+        <v>67.109499999999997</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>339</v>
@@ -14839,7 +15724,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -14852,12 +15737,15 @@
       <c r="D297">
         <v>2.75</v>
       </c>
+      <c r="E297">
+        <v>0.3666666666666667</v>
+      </c>
       <c r="F297">
         <v>26.56</v>
       </c>
       <c r="G297" s="4">
         <f t="shared" si="10"/>
-        <v>65.210999999999984</v>
+        <v>52.242133333333321</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>339</v>
@@ -14884,7 +15772,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -14897,12 +15785,15 @@
       <c r="D298">
         <v>2.1949999999999998</v>
       </c>
+      <c r="E298">
+        <v>1.5466666666666666</v>
+      </c>
       <c r="F298">
         <v>37</v>
       </c>
       <c r="G298" s="4">
         <f t="shared" si="10"/>
-        <v>64.096249999999998</v>
+        <v>51.586333333333336</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>338</v>
@@ -14929,7 +15820,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>309</v>
       </c>
@@ -14942,12 +15833,15 @@
       <c r="D299">
         <v>1.95</v>
       </c>
+      <c r="E299">
+        <v>13.357500000000002</v>
+      </c>
       <c r="F299">
         <v>68.963333329999998</v>
       </c>
       <c r="G299" s="4">
         <f t="shared" si="10"/>
-        <v>44.762083332499998</v>
+        <v>38.481166666</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>338</v>
@@ -14974,7 +15868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -14987,12 +15881,15 @@
       <c r="D300">
         <v>5.79</v>
       </c>
+      <c r="E300">
+        <v>91.350000000000009</v>
+      </c>
       <c r="F300">
         <v>15137.99</v>
       </c>
       <c r="G300" s="4">
         <f t="shared" si="10"/>
-        <v>3870.9124999999999</v>
+        <v>3115</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>339</v>
@@ -15019,7 +15916,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>311</v>
       </c>
@@ -15032,12 +15929,15 @@
       <c r="D301">
         <v>2.71</v>
       </c>
+      <c r="E301">
+        <v>0.19500000000000001</v>
+      </c>
       <c r="F301">
         <v>89.59</v>
       </c>
       <c r="G301" s="4">
         <f t="shared" si="10"/>
-        <v>51.089375000000004</v>
+        <v>40.910499999999999</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>339</v>
@@ -15064,7 +15964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>312</v>
       </c>
@@ -15077,12 +15977,15 @@
       <c r="D302">
         <v>1.345</v>
       </c>
+      <c r="E302">
+        <v>8.6750000000000007</v>
+      </c>
       <c r="F302">
         <v>390.38</v>
       </c>
       <c r="G302" s="4">
         <f t="shared" si="10"/>
-        <v>198.49562500000002</v>
+        <v>160.53149999999999</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>338</v>
@@ -15109,7 +16012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -15122,12 +16025,15 @@
       <c r="D303">
         <v>1.36</v>
       </c>
+      <c r="E303">
+        <v>12.036666666666667</v>
+      </c>
       <c r="F303">
         <v>1.86</v>
       </c>
       <c r="G303" s="4">
         <f t="shared" si="10"/>
-        <v>26.878333333333334</v>
+        <v>23.91</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>339</v>
@@ -15154,7 +16060,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>314</v>
       </c>
@@ -15167,12 +16073,15 @@
       <c r="D304">
         <v>1.2466666666666668</v>
       </c>
+      <c r="E304">
+        <v>7.9333333333333345</v>
+      </c>
       <c r="F304">
         <v>525.14</v>
       </c>
       <c r="G304" s="4">
         <f t="shared" si="10"/>
-        <v>156.98979166666666</v>
+        <v>127.17850000000001</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>338</v>
@@ -15199,7 +16108,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>315</v>
       </c>
@@ -15212,12 +16121,15 @@
       <c r="D305">
         <v>1.46</v>
       </c>
+      <c r="E305">
+        <v>5.1033333333333326</v>
+      </c>
       <c r="F305">
         <v>547.73</v>
       </c>
       <c r="G305" s="4">
         <f t="shared" si="10"/>
-        <v>222.34187499999999</v>
+        <v>178.89416666666665</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>338</v>
@@ -15244,7 +16156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -15257,12 +16169,15 @@
       <c r="D306">
         <v>27.76</v>
       </c>
+      <c r="E306">
+        <v>81.650000000000006</v>
+      </c>
       <c r="F306">
         <v>5620.32</v>
       </c>
       <c r="G306" s="4">
         <f t="shared" si="10"/>
-        <v>1424.53125</v>
+        <v>1155.9549999999999</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>338</v>
@@ -15289,7 +16204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -15302,12 +16217,15 @@
       <c r="D307">
         <v>1.0049999999999999</v>
       </c>
+      <c r="E307">
+        <v>14.78</v>
+      </c>
       <c r="F307">
         <v>1297.615</v>
       </c>
       <c r="G307" s="4">
         <f t="shared" si="10"/>
-        <v>382.25350000000003</v>
+        <v>308.75880000000001</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>339</v>
@@ -15334,7 +16252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>318</v>
       </c>
@@ -15347,12 +16265,15 @@
       <c r="D308">
         <v>2.46</v>
       </c>
+      <c r="E308">
+        <v>2.8319999999999999</v>
+      </c>
       <c r="F308">
         <v>19.445</v>
       </c>
       <c r="G308" s="4">
         <f t="shared" si="10"/>
-        <v>33.970750000000002</v>
+        <v>27.743000000000002</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>338</v>
@@ -15379,7 +16300,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>319</v>
       </c>
@@ -15392,12 +16313,15 @@
       <c r="D309">
         <v>1.165</v>
       </c>
+      <c r="E309">
+        <v>3.2133333333333334</v>
+      </c>
       <c r="F309">
         <v>45.72</v>
       </c>
       <c r="G309" s="4">
         <f t="shared" si="10"/>
-        <v>70.696875000000006</v>
+        <v>57.200166666666675</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>339</v>
@@ -15424,7 +16348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -15437,12 +16361,15 @@
       <c r="D310">
         <v>1.3666666666666665</v>
       </c>
+      <c r="E310">
+        <v>0.6100000000000001</v>
+      </c>
       <c r="F310">
         <v>40.783333329999998</v>
       </c>
       <c r="G310" s="4">
         <f t="shared" si="10"/>
-        <v>52.562499999166668</v>
+        <v>42.171999999333337</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>339</v>
@@ -15469,7 +16396,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>321</v>
       </c>
@@ -15482,12 +16409,15 @@
       <c r="D311">
         <v>1.06</v>
       </c>
+      <c r="E311">
+        <v>34.229999999999997</v>
+      </c>
       <c r="F311">
         <v>1175.03</v>
       </c>
       <c r="G311" s="4">
         <f t="shared" si="10"/>
-        <v>357.23750000000001</v>
+        <v>292.63599999999997</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>339</v>
@@ -15514,7 +16444,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>322</v>
       </c>
@@ -15527,12 +16457,15 @@
       <c r="D312">
         <v>1.3025</v>
       </c>
+      <c r="E312">
+        <v>0.14500000000000002</v>
+      </c>
       <c r="F312">
         <v>32.049999999999997</v>
       </c>
       <c r="G312" s="4">
         <f t="shared" si="10"/>
-        <v>26.579374999999995</v>
+        <v>21.292499999999997</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>339</v>
@@ -15559,7 +16492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>323</v>
       </c>
@@ -15572,12 +16505,15 @@
       <c r="D313">
         <v>0.96</v>
       </c>
+      <c r="E313">
+        <v>26.1875</v>
+      </c>
       <c r="F313">
         <v>132.3775</v>
       </c>
       <c r="G313" s="4">
         <f t="shared" si="10"/>
-        <v>109.64749999999999</v>
+        <v>92.955500000000001</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>338</v>
@@ -15604,7 +16540,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
@@ -15617,12 +16553,15 @@
       <c r="D314">
         <v>1.67</v>
       </c>
+      <c r="E314">
+        <v>52.430000000000007</v>
+      </c>
       <c r="F314">
         <v>15646.31</v>
       </c>
       <c r="G314" s="4">
         <f t="shared" si="10"/>
-        <v>3945.4825000000001</v>
+        <v>3166.8719999999998</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>339</v>
@@ -15649,7 +16588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
@@ -15662,12 +16601,15 @@
       <c r="D315">
         <v>1.7199999999999998</v>
       </c>
+      <c r="E315">
+        <v>10.4175</v>
+      </c>
       <c r="F315">
         <v>493.52249999999998</v>
       </c>
       <c r="G315" s="4">
         <f t="shared" si="10"/>
-        <v>222.74437499999999</v>
+        <v>180.279</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>338</v>
@@ -15694,7 +16636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>326</v>
       </c>
@@ -15707,12 +16649,15 @@
       <c r="D316">
         <v>1.7550000000000001</v>
       </c>
+      <c r="E316">
+        <v>2.5400000000000005</v>
+      </c>
       <c r="F316">
         <v>110.42749999999999</v>
       </c>
       <c r="G316" s="4">
         <f t="shared" si="10"/>
-        <v>37.502499999999998</v>
+        <v>30.51</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>339</v>
@@ -15739,7 +16684,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>327</v>
       </c>
@@ -15752,12 +16697,15 @@
       <c r="D317">
         <v>1.45</v>
       </c>
+      <c r="E317">
+        <v>0.67999999999999994</v>
+      </c>
       <c r="F317">
         <v>35.17</v>
       </c>
       <c r="G317" s="4">
         <f t="shared" si="10"/>
-        <v>26.696666666666665</v>
+        <v>21.493333333333332</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>338</v>
@@ -15784,7 +16732,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>328</v>
       </c>
@@ -15797,12 +16745,15 @@
       <c r="D318">
         <v>2.3233333333333333</v>
       </c>
+      <c r="E318">
+        <v>24.685000000000002</v>
+      </c>
       <c r="F318">
         <v>451.66</v>
       </c>
       <c r="G318" s="4">
         <f t="shared" si="10"/>
-        <v>154.52708333333334</v>
+        <v>128.55866666666668</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>339</v>
@@ -15829,7 +16780,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>329</v>
       </c>
@@ -15842,12 +16793,15 @@
       <c r="D319">
         <v>1.86</v>
       </c>
+      <c r="E319">
+        <v>1.1833333333333333</v>
+      </c>
       <c r="F319">
         <v>201.58333329999999</v>
       </c>
       <c r="G319" s="4">
         <f t="shared" si="10"/>
-        <v>115.55166665833333</v>
+        <v>92.67799999333333</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>339</v>
@@ -15874,7 +16828,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -15887,12 +16841,15 @@
       <c r="D320">
         <v>1.31</v>
       </c>
+      <c r="E320">
+        <v>28.74</v>
+      </c>
       <c r="F320">
         <v>44.04</v>
       </c>
       <c r="G320" s="4">
         <f t="shared" ref="G320:G327" si="11">IFERROR(AVERAGE(A320:F320),0)</f>
-        <v>56.871874999999996</v>
+        <v>51.245500000000007</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>339</v>
@@ -15919,7 +16876,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -15932,12 +16889,15 @@
       <c r="D321">
         <v>2.19</v>
       </c>
+      <c r="E321">
+        <v>10.835000000000001</v>
+      </c>
       <c r="F321">
         <v>447.00666669999998</v>
       </c>
       <c r="G321" s="4">
         <f t="shared" si="11"/>
-        <v>153.54166667499999</v>
+        <v>125.00033334</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>339</v>
@@ -15964,7 +16924,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -15977,12 +16937,15 @@
       <c r="D322">
         <v>1.7866666666666664</v>
       </c>
+      <c r="E322">
+        <v>16.462499999999999</v>
+      </c>
       <c r="F322">
         <v>32.04666667</v>
       </c>
       <c r="G322" s="4">
         <f t="shared" si="11"/>
-        <v>57.308833334166664</v>
+        <v>49.139566667333334</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>339</v>
@@ -16009,7 +16972,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>333</v>
       </c>
@@ -16022,12 +16985,15 @@
       <c r="D323">
         <v>3.2050000000000001</v>
       </c>
+      <c r="E323">
+        <v>0.91499999999999992</v>
+      </c>
       <c r="F323">
         <v>188.505</v>
       </c>
       <c r="G323" s="4">
         <f t="shared" si="11"/>
-        <v>86.851249999999993</v>
+        <v>69.664000000000001</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>338</v>
@@ -16054,7 +17020,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>334</v>
       </c>
@@ -16067,12 +17033,15 @@
       <c r="D324">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E324">
+        <v>31.7</v>
+      </c>
       <c r="F324">
         <v>19.13</v>
       </c>
       <c r="G324" s="4">
         <f t="shared" si="11"/>
-        <v>49.049374999999991</v>
+        <v>45.579499999999989</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>338</v>
@@ -16099,7 +17068,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>335</v>
       </c>
@@ -16112,12 +17081,15 @@
       <c r="D325">
         <v>3.0866666666666664</v>
       </c>
+      <c r="E325">
+        <v>42.547499999999999</v>
+      </c>
       <c r="F325">
         <v>10165.893330000001</v>
       </c>
       <c r="G325" s="4">
         <f t="shared" si="11"/>
-        <v>2608.163749166667</v>
+        <v>2095.0404993333332</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>340</v>
@@ -16144,7 +17116,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>336</v>
       </c>
@@ -16157,12 +17129,15 @@
       <c r="D326">
         <v>2.08</v>
       </c>
+      <c r="E326">
+        <v>11.87</v>
+      </c>
       <c r="F326">
         <v>127.26</v>
       </c>
       <c r="G326" s="4">
         <f t="shared" si="11"/>
-        <v>90.709375000000009</v>
+        <v>74.941500000000005</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>340</v>
@@ -16189,7 +17164,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -16202,12 +17177,15 @@
       <c r="D327">
         <v>2.27</v>
       </c>
+      <c r="E327">
+        <v>52.44</v>
+      </c>
       <c r="F327">
         <v>2363.31</v>
       </c>
       <c r="G327" s="4">
         <f t="shared" si="11"/>
-        <v>643.58749999999998</v>
+        <v>525.35799999999995</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>340</v>

--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Desktop\LixiangCar\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ED1BD1-5AF5-4F59-BB76-BA810E370153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5BE84-1D2D-454F-B3E1-9708E3BB1CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12260" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="360">
   <si>
     <t>姓名</t>
   </si>
@@ -1113,6 +1113,10 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性病个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1509,15 +1513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2422C1-9143-4F91-B6D8-813C85B14C96}">
-  <dimension ref="A1:O327"/>
+  <dimension ref="A1:P327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1563,8 +1567,11 @@
       <c r="O1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1611,8 +1618,11 @@
       <c r="O2" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,8 +1669,11 @@
       <c r="O3" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1707,8 +1720,11 @@
       <c r="O4" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1755,8 +1771,11 @@
       <c r="O5" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1803,8 +1822,11 @@
       <c r="O6" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1851,8 +1873,11 @@
       <c r="O7" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1899,8 +1924,11 @@
       <c r="O8" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1947,8 +1975,11 @@
       <c r="O9" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1995,8 +2026,11 @@
       <c r="O10" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,8 +2077,11 @@
       <c r="O11" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2091,8 +2128,11 @@
       <c r="O12" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2139,8 +2179,11 @@
       <c r="O13" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2187,8 +2230,11 @@
       <c r="O14" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2235,8 +2281,11 @@
       <c r="O15" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2283,8 +2332,11 @@
       <c r="O16" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2331,8 +2383,11 @@
       <c r="O17" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,8 +2434,11 @@
       <c r="O18" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2427,8 +2485,11 @@
       <c r="O19" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2475,8 +2536,11 @@
       <c r="O20" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="O21" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,8 +2638,11 @@
       <c r="O22" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2619,8 +2689,11 @@
       <c r="O23" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2667,8 +2740,11 @@
       <c r="O24" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2715,8 +2791,11 @@
       <c r="O25" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2763,8 +2842,11 @@
       <c r="O26" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2811,8 +2893,11 @@
       <c r="O27" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2944,11 @@
       <c r="O28" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2907,8 +2995,11 @@
       <c r="O29" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2955,8 +3046,11 @@
       <c r="O30" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3003,8 +3097,11 @@
       <c r="O31" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -3051,8 +3148,11 @@
       <c r="O32" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3099,8 +3199,11 @@
       <c r="O33" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3147,8 +3250,11 @@
       <c r="O34" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3195,8 +3301,11 @@
       <c r="O35" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3243,8 +3352,11 @@
       <c r="O36" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3291,8 +3403,11 @@
       <c r="O37" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -3339,8 +3454,11 @@
       <c r="O38" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -3387,8 +3505,11 @@
       <c r="O39" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -3435,8 +3556,11 @@
       <c r="O40" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -3483,8 +3607,11 @@
       <c r="O41" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -3531,8 +3658,11 @@
       <c r="O42" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -3579,8 +3709,11 @@
       <c r="O43" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3760,11 @@
       <c r="O44" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -3675,8 +3811,11 @@
       <c r="O45" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -3723,8 +3862,11 @@
       <c r="O46" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -3771,8 +3913,11 @@
       <c r="O47" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -3819,8 +3964,11 @@
       <c r="O48" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -3867,8 +4015,11 @@
       <c r="O49" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3915,8 +4066,11 @@
       <c r="O50" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -3963,8 +4117,11 @@
       <c r="O51" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4011,8 +4168,11 @@
       <c r="O52" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4059,8 +4219,11 @@
       <c r="O53" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -4107,8 +4270,11 @@
       <c r="O54" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -4155,8 +4321,11 @@
       <c r="O55" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4203,8 +4372,11 @@
       <c r="O56" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4251,8 +4423,11 @@
       <c r="O57" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -4299,8 +4474,11 @@
       <c r="O58" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4347,8 +4525,11 @@
       <c r="O59" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4395,8 +4576,11 @@
       <c r="O60" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4443,8 +4627,11 @@
       <c r="O61" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4491,8 +4678,11 @@
       <c r="O62" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4539,8 +4729,11 @@
       <c r="O63" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4587,8 +4780,11 @@
       <c r="O64" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4635,8 +4831,11 @@
       <c r="O65" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -4683,8 +4882,11 @@
       <c r="O66" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -4731,8 +4933,11 @@
       <c r="O67" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -4779,8 +4984,11 @@
       <c r="O68" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4827,8 +5035,11 @@
       <c r="O69" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -4875,8 +5086,11 @@
       <c r="O70" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -4923,8 +5137,11 @@
       <c r="O71" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -4971,8 +5188,11 @@
       <c r="O72" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -5019,8 +5239,11 @@
       <c r="O73" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -5067,8 +5290,11 @@
       <c r="O74" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -5115,8 +5341,11 @@
       <c r="O75" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -5163,8 +5392,11 @@
       <c r="O76" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -5211,8 +5443,11 @@
       <c r="O77" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -5259,8 +5494,11 @@
       <c r="O78" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -5307,8 +5545,11 @@
       <c r="O79" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -5355,8 +5596,11 @@
       <c r="O80" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -5403,8 +5647,11 @@
       <c r="O81" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -5451,8 +5698,11 @@
       <c r="O82" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -5499,8 +5749,11 @@
       <c r="O83" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -5547,8 +5800,11 @@
       <c r="O84" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5595,8 +5851,11 @@
       <c r="O85" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -5643,8 +5902,11 @@
       <c r="O86" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -5691,8 +5953,11 @@
       <c r="O87" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -5739,8 +6004,11 @@
       <c r="O88" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -5787,8 +6055,11 @@
       <c r="O89" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -5835,8 +6106,11 @@
       <c r="O90" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -5883,8 +6157,11 @@
       <c r="O91" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -5931,8 +6208,11 @@
       <c r="O92" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -5979,8 +6259,11 @@
       <c r="O93" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -6027,8 +6310,11 @@
       <c r="O94" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -6075,8 +6361,11 @@
       <c r="O95" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -6123,8 +6412,11 @@
       <c r="O96" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -6171,8 +6463,11 @@
       <c r="O97" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -6219,8 +6514,11 @@
       <c r="O98" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -6267,8 +6565,11 @@
       <c r="O99" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -6315,8 +6616,11 @@
       <c r="O100" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -6363,8 +6667,11 @@
       <c r="O101" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -6411,8 +6718,11 @@
       <c r="O102" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -6459,8 +6769,11 @@
       <c r="O103" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -6507,8 +6820,11 @@
       <c r="O104" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -6555,8 +6871,11 @@
       <c r="O105" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -6603,8 +6922,11 @@
       <c r="O106" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -6651,8 +6973,11 @@
       <c r="O107" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -6699,8 +7024,11 @@
       <c r="O108" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -6747,8 +7075,11 @@
       <c r="O109" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -6795,8 +7126,11 @@
       <c r="O110" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -6843,8 +7177,11 @@
       <c r="O111" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -6891,8 +7228,11 @@
       <c r="O112" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -6939,8 +7279,11 @@
       <c r="O113" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -6987,8 +7330,11 @@
       <c r="O114" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -7035,8 +7381,11 @@
       <c r="O115" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -7083,8 +7432,11 @@
       <c r="O116" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -7131,8 +7483,11 @@
       <c r="O117" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -7179,8 +7534,11 @@
       <c r="O118" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -7227,8 +7585,11 @@
       <c r="O119" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -7275,8 +7636,11 @@
       <c r="O120" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -7323,8 +7687,11 @@
       <c r="O121" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -7371,8 +7738,11 @@
       <c r="O122" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -7419,8 +7789,11 @@
       <c r="O123" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -7467,8 +7840,11 @@
       <c r="O124" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -7515,8 +7891,11 @@
       <c r="O125" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -7563,8 +7942,11 @@
       <c r="O126" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -7611,8 +7993,11 @@
       <c r="O127" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -7659,8 +8044,11 @@
       <c r="O128" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -7707,8 +8095,11 @@
       <c r="O129" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -7755,8 +8146,11 @@
       <c r="O130" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -7803,8 +8197,11 @@
       <c r="O131" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -7851,8 +8248,11 @@
       <c r="O132" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -7899,8 +8299,11 @@
       <c r="O133" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -7947,8 +8350,11 @@
       <c r="O134" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -7995,8 +8401,11 @@
       <c r="O135" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -8043,8 +8452,11 @@
       <c r="O136" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -8091,8 +8503,11 @@
       <c r="O137" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -8139,8 +8554,11 @@
       <c r="O138" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -8187,8 +8605,11 @@
       <c r="O139" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -8235,8 +8656,11 @@
       <c r="O140" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -8283,8 +8707,11 @@
       <c r="O141" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>152</v>
       </c>
@@ -8331,8 +8758,11 @@
       <c r="O142" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -8379,8 +8809,11 @@
       <c r="O143" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -8427,8 +8860,11 @@
       <c r="O144" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -8475,8 +8911,11 @@
       <c r="O145" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -8523,8 +8962,11 @@
       <c r="O146" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -8571,8 +9013,11 @@
       <c r="O147" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>158</v>
       </c>
@@ -8619,8 +9064,11 @@
       <c r="O148" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -8667,8 +9115,11 @@
       <c r="O149" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>160</v>
       </c>
@@ -8715,8 +9166,11 @@
       <c r="O150" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -8763,8 +9217,11 @@
       <c r="O151" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
@@ -8811,8 +9268,11 @@
       <c r="O152" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>163</v>
       </c>
@@ -8859,8 +9319,11 @@
       <c r="O153" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>164</v>
       </c>
@@ -8907,8 +9370,11 @@
       <c r="O154" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>165</v>
       </c>
@@ -8955,8 +9421,11 @@
       <c r="O155" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -9003,8 +9472,11 @@
       <c r="O156" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -9051,8 +9523,11 @@
       <c r="O157" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>168</v>
       </c>
@@ -9099,8 +9574,11 @@
       <c r="O158" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>169</v>
       </c>
@@ -9147,8 +9625,11 @@
       <c r="O159" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -9195,8 +9676,11 @@
       <c r="O160" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>171</v>
       </c>
@@ -9243,8 +9727,11 @@
       <c r="O161" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
@@ -9291,8 +9778,11 @@
       <c r="O162" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>173</v>
       </c>
@@ -9339,8 +9829,11 @@
       <c r="O163" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -9387,8 +9880,11 @@
       <c r="O164" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -9435,8 +9931,11 @@
       <c r="O165" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -9483,8 +9982,11 @@
       <c r="O166" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -9531,8 +10033,11 @@
       <c r="O167" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>178</v>
       </c>
@@ -9579,8 +10084,11 @@
       <c r="O168" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>179</v>
       </c>
@@ -9627,8 +10135,11 @@
       <c r="O169" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -9675,8 +10186,11 @@
       <c r="O170" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -9723,8 +10237,11 @@
       <c r="O171" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>182</v>
       </c>
@@ -9771,8 +10288,11 @@
       <c r="O172" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>183</v>
       </c>
@@ -9819,8 +10339,11 @@
       <c r="O173" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -9867,8 +10390,11 @@
       <c r="O174" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>185</v>
       </c>
@@ -9915,8 +10441,11 @@
       <c r="O175" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -9963,8 +10492,11 @@
       <c r="O176" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
@@ -10011,8 +10543,11 @@
       <c r="O177" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -10059,8 +10594,11 @@
       <c r="O178" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>189</v>
       </c>
@@ -10107,8 +10645,11 @@
       <c r="O179" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>190</v>
       </c>
@@ -10155,8 +10696,11 @@
       <c r="O180" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -10203,8 +10747,11 @@
       <c r="O181" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>192</v>
       </c>
@@ -10251,8 +10798,11 @@
       <c r="O182" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -10299,8 +10849,11 @@
       <c r="O183" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -10347,8 +10900,11 @@
       <c r="O184" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -10395,8 +10951,11 @@
       <c r="O185" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -10443,8 +11002,11 @@
       <c r="O186" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -10491,8 +11053,11 @@
       <c r="O187" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -10539,8 +11104,11 @@
       <c r="O188" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -10587,8 +11155,11 @@
       <c r="O189" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -10635,8 +11206,11 @@
       <c r="O190" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -10683,8 +11257,11 @@
       <c r="O191" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
@@ -10731,8 +11308,11 @@
       <c r="O192" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -10779,8 +11359,11 @@
       <c r="O193" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>204</v>
       </c>
@@ -10827,8 +11410,11 @@
       <c r="O194" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -10875,8 +11461,11 @@
       <c r="O195" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -10923,8 +11512,11 @@
       <c r="O196" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>207</v>
       </c>
@@ -10971,8 +11563,11 @@
       <c r="O197" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>208</v>
       </c>
@@ -11019,8 +11614,11 @@
       <c r="O198" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>209</v>
       </c>
@@ -11067,8 +11665,11 @@
       <c r="O199" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>210</v>
       </c>
@@ -11115,8 +11716,11 @@
       <c r="O200" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>211</v>
       </c>
@@ -11163,8 +11767,11 @@
       <c r="O201" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>212</v>
       </c>
@@ -11211,8 +11818,11 @@
       <c r="O202" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>213</v>
       </c>
@@ -11259,8 +11869,11 @@
       <c r="O203" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>214</v>
       </c>
@@ -11307,8 +11920,11 @@
       <c r="O204" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>215</v>
       </c>
@@ -11355,8 +11971,11 @@
       <c r="O205" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -11403,8 +12022,11 @@
       <c r="O206" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -11451,8 +12073,11 @@
       <c r="O207" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -11499,8 +12124,11 @@
       <c r="O208" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -11547,8 +12175,11 @@
       <c r="O209" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -11595,8 +12226,11 @@
       <c r="O210" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -11643,8 +12277,11 @@
       <c r="O211" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>222</v>
       </c>
@@ -11691,8 +12328,11 @@
       <c r="O212" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>223</v>
       </c>
@@ -11739,8 +12379,11 @@
       <c r="O213" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>224</v>
       </c>
@@ -11787,8 +12430,11 @@
       <c r="O214" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>225</v>
       </c>
@@ -11835,8 +12481,11 @@
       <c r="O215" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>226</v>
       </c>
@@ -11883,8 +12532,11 @@
       <c r="O216" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>227</v>
       </c>
@@ -11931,8 +12583,11 @@
       <c r="O217" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>228</v>
       </c>
@@ -11979,8 +12634,11 @@
       <c r="O218" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>229</v>
       </c>
@@ -12027,8 +12685,11 @@
       <c r="O219" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -12075,8 +12736,11 @@
       <c r="O220" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>231</v>
       </c>
@@ -12123,8 +12787,11 @@
       <c r="O221" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -12171,8 +12838,11 @@
       <c r="O222" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -12219,8 +12889,11 @@
       <c r="O223" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>234</v>
       </c>
@@ -12267,8 +12940,11 @@
       <c r="O224" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>235</v>
       </c>
@@ -12315,8 +12991,11 @@
       <c r="O225" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>236</v>
       </c>
@@ -12363,8 +13042,11 @@
       <c r="O226" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>237</v>
       </c>
@@ -12411,8 +13093,11 @@
       <c r="O227" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>238</v>
       </c>
@@ -12459,8 +13144,11 @@
       <c r="O228" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>239</v>
       </c>
@@ -12507,8 +13195,11 @@
       <c r="O229" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>240</v>
       </c>
@@ -12555,8 +13246,11 @@
       <c r="O230" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>241</v>
       </c>
@@ -12603,8 +13297,11 @@
       <c r="O231" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>242</v>
       </c>
@@ -12651,8 +13348,11 @@
       <c r="O232" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>243</v>
       </c>
@@ -12699,8 +13399,11 @@
       <c r="O233" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>244</v>
       </c>
@@ -12747,8 +13450,11 @@
       <c r="O234" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>245</v>
       </c>
@@ -12795,8 +13501,11 @@
       <c r="O235" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>246</v>
       </c>
@@ -12843,8 +13552,11 @@
       <c r="O236" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>247</v>
       </c>
@@ -12891,8 +13603,11 @@
       <c r="O237" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -12939,8 +13654,11 @@
       <c r="O238" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>249</v>
       </c>
@@ -12987,8 +13705,11 @@
       <c r="O239" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -13035,8 +13756,11 @@
       <c r="O240" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>251</v>
       </c>
@@ -13083,8 +13807,11 @@
       <c r="O241" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -13131,8 +13858,11 @@
       <c r="O242" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>253</v>
       </c>
@@ -13179,8 +13909,11 @@
       <c r="O243" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
@@ -13227,8 +13960,11 @@
       <c r="O244" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>255</v>
       </c>
@@ -13275,8 +14011,11 @@
       <c r="O245" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -13323,8 +14062,11 @@
       <c r="O246" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>257</v>
       </c>
@@ -13371,8 +14113,11 @@
       <c r="O247" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -13419,8 +14164,11 @@
       <c r="O248" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>259</v>
       </c>
@@ -13467,8 +14215,11 @@
       <c r="O249" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -13515,8 +14266,11 @@
       <c r="O250" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
@@ -13563,8 +14317,11 @@
       <c r="O251" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>262</v>
       </c>
@@ -13611,8 +14368,11 @@
       <c r="O252" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
@@ -13659,8 +14419,11 @@
       <c r="O253" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>264</v>
       </c>
@@ -13707,8 +14470,11 @@
       <c r="O254" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -13755,8 +14521,11 @@
       <c r="O255" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>266</v>
       </c>
@@ -13803,8 +14572,11 @@
       <c r="O256" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
@@ -13851,8 +14623,11 @@
       <c r="O257" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>268</v>
       </c>
@@ -13899,8 +14674,11 @@
       <c r="O258" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>269</v>
       </c>
@@ -13947,8 +14725,11 @@
       <c r="O259" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>270</v>
       </c>
@@ -13995,8 +14776,11 @@
       <c r="O260" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -14043,8 +14827,11 @@
       <c r="O261" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>272</v>
       </c>
@@ -14091,8 +14878,11 @@
       <c r="O262" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -14139,8 +14929,11 @@
       <c r="O263" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -14187,8 +14980,11 @@
       <c r="O264" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -14235,8 +15031,11 @@
       <c r="O265" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>276</v>
       </c>
@@ -14283,8 +15082,11 @@
       <c r="O266" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -14331,8 +15133,11 @@
       <c r="O267" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>278</v>
       </c>
@@ -14379,8 +15184,11 @@
       <c r="O268" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>279</v>
       </c>
@@ -14427,8 +15235,11 @@
       <c r="O269" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>280</v>
       </c>
@@ -14475,8 +15286,11 @@
       <c r="O270" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>281</v>
       </c>
@@ -14523,8 +15337,11 @@
       <c r="O271" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>282</v>
       </c>
@@ -14571,8 +15388,11 @@
       <c r="O272" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>283</v>
       </c>
@@ -14619,8 +15439,11 @@
       <c r="O273" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>284</v>
       </c>
@@ -14667,8 +15490,11 @@
       <c r="O274" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>285</v>
       </c>
@@ -14715,8 +15541,11 @@
       <c r="O275" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>286</v>
       </c>
@@ -14763,8 +15592,11 @@
       <c r="O276" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>287</v>
       </c>
@@ -14811,8 +15643,11 @@
       <c r="O277" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>288</v>
       </c>
@@ -14859,8 +15694,11 @@
       <c r="O278" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -14907,8 +15745,11 @@
       <c r="O279" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>290</v>
       </c>
@@ -14955,8 +15796,11 @@
       <c r="O280" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>291</v>
       </c>
@@ -15003,8 +15847,11 @@
       <c r="O281" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>292</v>
       </c>
@@ -15051,8 +15898,11 @@
       <c r="O282" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>293</v>
       </c>
@@ -15099,8 +15949,11 @@
       <c r="O283" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -15147,8 +16000,11 @@
       <c r="O284" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>295</v>
       </c>
@@ -15195,8 +16051,11 @@
       <c r="O285" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -15243,8 +16102,11 @@
       <c r="O286" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>297</v>
       </c>
@@ -15291,8 +16153,11 @@
       <c r="O287" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -15339,8 +16204,11 @@
       <c r="O288" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>299</v>
       </c>
@@ -15387,8 +16255,11 @@
       <c r="O289" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>300</v>
       </c>
@@ -15435,8 +16306,11 @@
       <c r="O290" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -15483,8 +16357,11 @@
       <c r="O291" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>302</v>
       </c>
@@ -15531,8 +16408,11 @@
       <c r="O292" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -15579,8 +16459,11 @@
       <c r="O293" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>304</v>
       </c>
@@ -15627,8 +16510,11 @@
       <c r="O294" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>305</v>
       </c>
@@ -15675,8 +16561,11 @@
       <c r="O295" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>306</v>
       </c>
@@ -15723,8 +16612,11 @@
       <c r="O296" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -15771,8 +16663,11 @@
       <c r="O297" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -15819,8 +16714,11 @@
       <c r="O298" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>309</v>
       </c>
@@ -15867,8 +16765,11 @@
       <c r="O299" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -15915,8 +16816,11 @@
       <c r="O300" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>311</v>
       </c>
@@ -15963,8 +16867,11 @@
       <c r="O301" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>312</v>
       </c>
@@ -16011,8 +16918,11 @@
       <c r="O302" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -16059,8 +16969,11 @@
       <c r="O303" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>314</v>
       </c>
@@ -16107,8 +17020,11 @@
       <c r="O304" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>315</v>
       </c>
@@ -16155,8 +17071,11 @@
       <c r="O305" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -16203,8 +17122,11 @@
       <c r="O306" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -16251,8 +17173,11 @@
       <c r="O307" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>318</v>
       </c>
@@ -16299,8 +17224,11 @@
       <c r="O308" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>319</v>
       </c>
@@ -16347,8 +17275,11 @@
       <c r="O309" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -16395,8 +17326,11 @@
       <c r="O310" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>321</v>
       </c>
@@ -16443,8 +17377,11 @@
       <c r="O311" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>322</v>
       </c>
@@ -16491,8 +17428,11 @@
       <c r="O312" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>323</v>
       </c>
@@ -16539,8 +17479,11 @@
       <c r="O313" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
@@ -16587,8 +17530,11 @@
       <c r="O314" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
@@ -16635,8 +17581,11 @@
       <c r="O315" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>326</v>
       </c>
@@ -16683,8 +17632,11 @@
       <c r="O316" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>327</v>
       </c>
@@ -16731,8 +17683,11 @@
       <c r="O317" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>328</v>
       </c>
@@ -16779,8 +17734,11 @@
       <c r="O318" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>329</v>
       </c>
@@ -16827,8 +17785,11 @@
       <c r="O319" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -16875,8 +17836,11 @@
       <c r="O320" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -16923,8 +17887,11 @@
       <c r="O321" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -16971,8 +17938,11 @@
       <c r="O322" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>333</v>
       </c>
@@ -17019,8 +17989,11 @@
       <c r="O323" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>334</v>
       </c>
@@ -17067,8 +18040,11 @@
       <c r="O324" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>335</v>
       </c>
@@ -17115,8 +18091,11 @@
       <c r="O325" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>336</v>
       </c>
@@ -17163,8 +18142,11 @@
       <c r="O326" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -17211,9 +18193,13 @@
       <c r="O327" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="P327">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5BE84-1D2D-454F-B3E1-9708E3BB1CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65581075-06D8-4968-B08B-FF856A77D8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12260" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="356">
   <si>
     <t>姓名</t>
   </si>
@@ -1074,27 +1074,6 @@
     <t>死亡</t>
   </si>
   <si>
-    <t>未愈</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>好转</t>
-  </si>
-  <si>
-    <t>存活</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>好转</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>是否二感</t>
   </si>
   <si>
@@ -1117,13 +1096,21 @@
   <si>
     <t>慢性病个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,6 +1153,11 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1515,11 +1507,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2422C1-9143-4F91-B6D8-813C85B14C96}">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1555,7 +1550,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1565,10 +1560,10 @@
         <v>344</v>
       </c>
       <c r="O1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" t="s">
         <v>353</v>
-      </c>
-      <c r="P1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1616,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1667,7 +1662,7 @@
         <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1718,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -1769,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1820,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1871,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1922,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1973,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2024,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -2075,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P11">
         <v>3</v>
@@ -2126,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2177,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -2228,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2279,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2320,8 +2315,8 @@
       <c r="K16" s="1">
         <v>18</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>346</v>
+      <c r="L16" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>342</v>
@@ -2330,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -2381,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -2432,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -2483,7 +2478,7 @@
         <v>14</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -2534,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2585,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -2636,7 +2631,7 @@
         <v>33</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P22">
         <v>2</v>
@@ -2687,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -2738,7 +2733,7 @@
         <v>34</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2789,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2840,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2891,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P27">
         <v>4</v>
@@ -2942,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -2993,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -3044,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3085,8 +3080,8 @@
       <c r="K31" s="1">
         <v>21</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>346</v>
+      <c r="L31" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>341</v>
@@ -3095,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -3146,7 +3141,7 @@
         <v>57</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -3197,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3248,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -3299,7 +3294,7 @@
         <v>60</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -3340,8 +3335,8 @@
       <c r="K36" s="1">
         <v>31</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>346</v>
+      <c r="L36" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>341</v>
@@ -3350,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -3401,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -3452,7 +3447,7 @@
         <v>17</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3503,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P39">
         <v>3</v>
@@ -3554,7 +3549,7 @@
         <v>5</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -3605,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -3656,7 +3651,7 @@
         <v>31</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3707,7 +3702,7 @@
         <v>26</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3749,7 +3744,7 @@
         <v>23</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>341</v>
@@ -3758,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P44">
         <v>4</v>
@@ -3809,7 +3804,7 @@
         <v>58</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -3851,7 +3846,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>341</v>
@@ -3860,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3911,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -3962,7 +3957,7 @@
         <v>28</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P48">
         <v>3</v>
@@ -4013,7 +4008,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -4054,8 +4049,8 @@
       <c r="K50" s="1">
         <v>23</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>346</v>
+      <c r="L50" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>341</v>
@@ -4064,7 +4059,7 @@
         <v>19</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P50">
         <v>3</v>
@@ -4115,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -4157,7 +4152,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>342</v>
@@ -4166,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -4217,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -4268,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -4319,7 +4314,7 @@
         <v>31</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -4361,7 +4356,7 @@
         <v>13</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>341</v>
@@ -4370,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -4421,7 +4416,7 @@
         <v>31</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P57">
         <v>4</v>
@@ -4463,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>341</v>
@@ -4472,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -4523,7 +4518,7 @@
         <v>7</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P59">
         <v>3</v>
@@ -4574,7 +4569,7 @@
         <v>26</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P60">
         <v>3</v>
@@ -4625,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -4676,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P62">
         <v>4</v>
@@ -4727,7 +4722,7 @@
         <v>40</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P63">
         <v>3</v>
@@ -4778,7 +4773,7 @@
         <v>28</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -4829,7 +4824,7 @@
         <v>8</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -4880,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -4931,7 +4926,7 @@
         <v>16</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -4982,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -5033,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P69">
         <v>4</v>
@@ -5084,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -5135,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -5186,7 +5181,7 @@
         <v>9</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -5228,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>342</v>
@@ -5237,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -5288,7 +5283,7 @@
         <v>7</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P74">
         <v>3</v>
@@ -5330,7 +5325,7 @@
         <v>21</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>341</v>
@@ -5339,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P75">
         <v>5</v>
@@ -5390,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P76">
         <v>4</v>
@@ -5441,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -5492,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -5533,8 +5528,8 @@
       <c r="K79" s="1">
         <v>13</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>346</v>
+      <c r="L79" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>342</v>
@@ -5543,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -5585,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>341</v>
@@ -5594,7 +5589,7 @@
         <v>23</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -5645,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -5696,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -5738,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>341</v>
@@ -5747,7 +5742,7 @@
         <v>35</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -5798,7 +5793,7 @@
         <v>10</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P84">
         <v>4</v>
@@ -5849,7 +5844,7 @@
         <v>6</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P85">
         <v>6</v>
@@ -5900,7 +5895,7 @@
         <v>31</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P86">
         <v>3</v>
@@ -5951,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -5992,8 +5987,8 @@
       <c r="K88" s="1">
         <v>17</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>346</v>
+      <c r="L88" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>341</v>
@@ -6002,7 +5997,7 @@
         <v>14</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P88">
         <v>2</v>
@@ -6053,7 +6048,7 @@
         <v>45</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P89">
         <v>4</v>
@@ -6104,7 +6099,7 @@
         <v>55</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P90">
         <v>2</v>
@@ -6155,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P91">
         <v>2</v>
@@ -6206,7 +6201,7 @@
         <v>5</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P92">
         <v>2</v>
@@ -6257,7 +6252,7 @@
         <v>15</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P93">
         <v>2</v>
@@ -6308,7 +6303,7 @@
         <v>37</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P94">
         <v>4</v>
@@ -6359,7 +6354,7 @@
         <v>38</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P95">
         <v>2</v>
@@ -6410,7 +6405,7 @@
         <v>30</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P96">
         <v>3</v>
@@ -6461,7 +6456,7 @@
         <v>42</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P97">
         <v>3</v>
@@ -6512,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P98">
         <v>3</v>
@@ -6563,7 +6558,7 @@
         <v>13</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P99">
         <v>2</v>
@@ -6614,7 +6609,7 @@
         <v>8</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -6665,7 +6660,7 @@
         <v>19</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P101">
         <v>3</v>
@@ -6716,7 +6711,7 @@
         <v>2</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6767,7 +6762,7 @@
         <v>3</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6818,7 +6813,7 @@
         <v>112</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P104">
         <v>4</v>
@@ -6869,7 +6864,7 @@
         <v>8</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P105">
         <v>3</v>
@@ -6920,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P106">
         <v>4</v>
@@ -6961,8 +6956,8 @@
       <c r="K107" s="1">
         <v>23</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>346</v>
+      <c r="L107" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>341</v>
@@ -6971,7 +6966,7 @@
         <v>61</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P107">
         <v>2</v>
@@ -7022,7 +7017,7 @@
         <v>6</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P108">
         <v>2</v>
@@ -7073,7 +7068,7 @@
         <v>26</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P109">
         <v>3</v>
@@ -7124,7 +7119,7 @@
         <v>14</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P110">
         <v>2</v>
@@ -7175,7 +7170,7 @@
         <v>52</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7226,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P112">
         <v>3</v>
@@ -7277,7 +7272,7 @@
         <v>83</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -7328,7 +7323,7 @@
         <v>3</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P114">
         <v>1</v>
@@ -7379,7 +7374,7 @@
         <v>14</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -7430,7 +7425,7 @@
         <v>9</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P116">
         <v>2</v>
@@ -7481,7 +7476,7 @@
         <v>49</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P117">
         <v>2</v>
@@ -7523,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>342</v>
@@ -7532,7 +7527,7 @@
         <v>7</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7583,7 +7578,7 @@
         <v>10</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P119">
         <v>3</v>
@@ -7634,7 +7629,7 @@
         <v>39</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P120">
         <v>2</v>
@@ -7685,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P121">
         <v>2</v>
@@ -7736,7 +7731,7 @@
         <v>13</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P122">
         <v>2</v>
@@ -7787,7 +7782,7 @@
         <v>23</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -7838,7 +7833,7 @@
         <v>16</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P124">
         <v>3</v>
@@ -7889,7 +7884,7 @@
         <v>11</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P125">
         <v>2</v>
@@ -7940,7 +7935,7 @@
         <v>10</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -7991,7 +7986,7 @@
         <v>11</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -8042,7 +8037,7 @@
         <v>7</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P128">
         <v>3</v>
@@ -8093,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8144,7 +8139,7 @@
         <v>10</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -8195,7 +8190,7 @@
         <v>6</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8236,8 +8231,8 @@
       <c r="K132" s="1">
         <v>19</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>346</v>
+      <c r="L132" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>341</v>
@@ -8246,7 +8241,7 @@
         <v>65</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -8297,7 +8292,7 @@
         <v>10</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -8348,7 +8343,7 @@
         <v>16</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -8399,7 +8394,7 @@
         <v>4</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P135">
         <v>1</v>
@@ -8450,7 +8445,7 @@
         <v>13</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -8501,7 +8496,7 @@
         <v>28</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P137">
         <v>2</v>
@@ -8552,7 +8547,7 @@
         <v>5</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -8594,7 +8589,7 @@
         <v>28</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>341</v>
@@ -8603,7 +8598,7 @@
         <v>14</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P139">
         <v>1</v>
@@ -8654,7 +8649,7 @@
         <v>20</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P140">
         <v>4</v>
@@ -8705,7 +8700,7 @@
         <v>91</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P141">
         <v>2</v>
@@ -8756,7 +8751,7 @@
         <v>17</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P142">
         <v>1</v>
@@ -8798,7 +8793,7 @@
         <v>29</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>341</v>
@@ -8807,7 +8802,7 @@
         <v>2</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -8858,7 +8853,7 @@
         <v>27</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P144">
         <v>3</v>
@@ -8909,7 +8904,7 @@
         <v>5</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -8960,7 +8955,7 @@
         <v>27</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -9011,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P147">
         <v>2</v>
@@ -9062,7 +9057,7 @@
         <v>31</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P148">
         <v>2</v>
@@ -9113,7 +9108,7 @@
         <v>23</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -9164,7 +9159,7 @@
         <v>64</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -9215,7 +9210,7 @@
         <v>16</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P151">
         <v>3</v>
@@ -9266,7 +9261,7 @@
         <v>60</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P152">
         <v>2</v>
@@ -9317,7 +9312,7 @@
         <v>2</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P153">
         <v>1</v>
@@ -9368,7 +9363,7 @@
         <v>15</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P154">
         <v>2</v>
@@ -9419,7 +9414,7 @@
         <v>16</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P155">
         <v>4</v>
@@ -9460,8 +9455,8 @@
       <c r="K156" s="1">
         <v>9</v>
       </c>
-      <c r="L156" s="1" t="s">
-        <v>346</v>
+      <c r="L156" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>341</v>
@@ -9470,7 +9465,7 @@
         <v>19</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P156">
         <v>1</v>
@@ -9521,7 +9516,7 @@
         <v>9</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P157">
         <v>1</v>
@@ -9572,7 +9567,7 @@
         <v>42</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P158">
         <v>3</v>
@@ -9623,7 +9618,7 @@
         <v>14</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P159">
         <v>1</v>
@@ -9674,7 +9669,7 @@
         <v>6</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P160">
         <v>3</v>
@@ -9725,7 +9720,7 @@
         <v>4</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P161">
         <v>2</v>
@@ -9776,7 +9771,7 @@
         <v>10</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P162">
         <v>3</v>
@@ -9827,7 +9822,7 @@
         <v>8</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P163">
         <v>2</v>
@@ -9878,7 +9873,7 @@
         <v>28</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P164">
         <v>1</v>
@@ -9919,8 +9914,8 @@
       <c r="K165" s="1">
         <v>13</v>
       </c>
-      <c r="L165" s="1" t="s">
-        <v>346</v>
+      <c r="L165" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>341</v>
@@ -9929,7 +9924,7 @@
         <v>21</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P165">
         <v>2</v>
@@ -9980,7 +9975,7 @@
         <v>29</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P166">
         <v>2</v>
@@ -10031,7 +10026,7 @@
         <v>6</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P167">
         <v>1</v>
@@ -10082,7 +10077,7 @@
         <v>32</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P168">
         <v>2</v>
@@ -10124,7 +10119,7 @@
         <v>24</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>341</v>
@@ -10133,7 +10128,7 @@
         <v>15</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P169">
         <v>3</v>
@@ -10184,7 +10179,7 @@
         <v>16</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P170">
         <v>3</v>
@@ -10235,7 +10230,7 @@
         <v>12</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P171">
         <v>2</v>
@@ -10286,7 +10281,7 @@
         <v>13</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P172">
         <v>2</v>
@@ -10337,7 +10332,7 @@
         <v>23</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P173">
         <v>2</v>
@@ -10388,7 +10383,7 @@
         <v>2</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P174">
         <v>1</v>
@@ -10439,7 +10434,7 @@
         <v>17</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P175">
         <v>1</v>
@@ -10490,7 +10485,7 @@
         <v>17</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P176">
         <v>2</v>
@@ -10541,7 +10536,7 @@
         <v>14</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P177">
         <v>3</v>
@@ -10592,7 +10587,7 @@
         <v>7</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P178">
         <v>1</v>
@@ -10643,7 +10638,7 @@
         <v>38</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P179">
         <v>2</v>
@@ -10694,7 +10689,7 @@
         <v>6</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -10745,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P181">
         <v>2</v>
@@ -10796,7 +10791,7 @@
         <v>19</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P182">
         <v>1</v>
@@ -10847,7 +10842,7 @@
         <v>26</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P183">
         <v>1</v>
@@ -10889,7 +10884,7 @@
         <v>28</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>341</v>
@@ -10898,7 +10893,7 @@
         <v>22</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P184">
         <v>2</v>
@@ -10949,7 +10944,7 @@
         <v>24</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P185">
         <v>2</v>
@@ -11000,7 +10995,7 @@
         <v>29</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P186">
         <v>1</v>
@@ -11051,7 +11046,7 @@
         <v>19</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -11102,7 +11097,7 @@
         <v>17</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P188">
         <v>2</v>
@@ -11153,7 +11148,7 @@
         <v>23</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P189">
         <v>4</v>
@@ -11204,7 +11199,7 @@
         <v>5</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P190">
         <v>1</v>
@@ -11255,7 +11250,7 @@
         <v>14</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P191">
         <v>3</v>
@@ -11306,7 +11301,7 @@
         <v>9</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P192">
         <v>1</v>
@@ -11357,7 +11352,7 @@
         <v>13</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P193">
         <v>4</v>
@@ -11399,7 +11394,7 @@
         <v>24</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>341</v>
@@ -11408,7 +11403,7 @@
         <v>25</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P194">
         <v>1</v>
@@ -11459,7 +11454,7 @@
         <v>18</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P195">
         <v>4</v>
@@ -11510,7 +11505,7 @@
         <v>12</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P196">
         <v>1</v>
@@ -11561,7 +11556,7 @@
         <v>4</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P197">
         <v>2</v>
@@ -11612,7 +11607,7 @@
         <v>67</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P198">
         <v>3</v>
@@ -11663,7 +11658,7 @@
         <v>22</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P199">
         <v>1</v>
@@ -11704,8 +11699,8 @@
       <c r="K200" s="1">
         <v>21</v>
       </c>
-      <c r="L200" s="1" t="s">
-        <v>346</v>
+      <c r="L200" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>341</v>
@@ -11714,7 +11709,7 @@
         <v>25</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P200">
         <v>2</v>
@@ -11765,7 +11760,7 @@
         <v>14</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P201">
         <v>1</v>
@@ -11816,7 +11811,7 @@
         <v>5</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P202">
         <v>2</v>
@@ -11867,7 +11862,7 @@
         <v>8</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P203">
         <v>2</v>
@@ -11918,7 +11913,7 @@
         <v>16</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -11969,7 +11964,7 @@
         <v>64</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P205">
         <v>3</v>
@@ -12020,7 +12015,7 @@
         <v>2</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -12071,7 +12066,7 @@
         <v>19</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P207">
         <v>3</v>
@@ -12122,7 +12117,7 @@
         <v>24</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P208">
         <v>3</v>
@@ -12173,7 +12168,7 @@
         <v>31</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P209">
         <v>2</v>
@@ -12215,7 +12210,7 @@
         <v>29</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>341</v>
@@ -12224,7 +12219,7 @@
         <v>10</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P210">
         <v>1</v>
@@ -12275,7 +12270,7 @@
         <v>13</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P211">
         <v>2</v>
@@ -12326,7 +12321,7 @@
         <v>9</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P212">
         <v>1</v>
@@ -12377,7 +12372,7 @@
         <v>13</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P213">
         <v>2</v>
@@ -12428,7 +12423,7 @@
         <v>9</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -12479,7 +12474,7 @@
         <v>20</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P215">
         <v>1</v>
@@ -12530,7 +12525,7 @@
         <v>23</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P216">
         <v>1</v>
@@ -12581,7 +12576,7 @@
         <v>9</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P217">
         <v>1</v>
@@ -12632,7 +12627,7 @@
         <v>43</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P218">
         <v>2</v>
@@ -12683,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P219">
         <v>3</v>
@@ -12734,7 +12729,7 @@
         <v>18</v>
       </c>
       <c r="O220" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P220">
         <v>1</v>
@@ -12785,7 +12780,7 @@
         <v>6</v>
       </c>
       <c r="O221" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -12836,7 +12831,7 @@
         <v>5</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P222">
         <v>3</v>
@@ -12877,8 +12872,8 @@
       <c r="K223" s="1">
         <v>16</v>
       </c>
-      <c r="L223" s="1" t="s">
-        <v>346</v>
+      <c r="L223" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>341</v>
@@ -12887,7 +12882,7 @@
         <v>23</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -12938,7 +12933,7 @@
         <v>74</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P224">
         <v>1</v>
@@ -12989,7 +12984,7 @@
         <v>7</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -13040,7 +13035,7 @@
         <v>21</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P226">
         <v>1</v>
@@ -13091,7 +13086,7 @@
         <v>7</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -13142,7 +13137,7 @@
         <v>18</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P228">
         <v>2</v>
@@ -13193,7 +13188,7 @@
         <v>27</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P229">
         <v>1</v>
@@ -13244,7 +13239,7 @@
         <v>13</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P230">
         <v>1</v>
@@ -13295,7 +13290,7 @@
         <v>8</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P231">
         <v>1</v>
@@ -13346,7 +13341,7 @@
         <v>3</v>
       </c>
       <c r="O232" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P232">
         <v>3</v>
@@ -13397,7 +13392,7 @@
         <v>16</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P233">
         <v>1</v>
@@ -13448,7 +13443,7 @@
         <v>10</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -13499,7 +13494,7 @@
         <v>72</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P235">
         <v>1</v>
@@ -13550,7 +13545,7 @@
         <v>43</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P236">
         <v>1</v>
@@ -13601,7 +13596,7 @@
         <v>23</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P237">
         <v>2</v>
@@ -13652,7 +13647,7 @@
         <v>20</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -13693,8 +13688,8 @@
       <c r="K239" s="1">
         <v>24</v>
       </c>
-      <c r="L239" s="1" t="s">
-        <v>346</v>
+      <c r="L239" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>342</v>
@@ -13703,7 +13698,7 @@
         <v>51</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P239">
         <v>2</v>
@@ -13754,7 +13749,7 @@
         <v>9</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P240">
         <v>1</v>
@@ -13805,7 +13800,7 @@
         <v>36</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P241">
         <v>0</v>
@@ -13846,8 +13841,8 @@
       <c r="K242" s="1">
         <v>28</v>
       </c>
-      <c r="L242" s="1" t="s">
-        <v>346</v>
+      <c r="L242" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>341</v>
@@ -13856,7 +13851,7 @@
         <v>17</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P242">
         <v>0</v>
@@ -13907,7 +13902,7 @@
         <v>19</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P243">
         <v>1</v>
@@ -13958,7 +13953,7 @@
         <v>5</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P244">
         <v>1</v>
@@ -14009,7 +14004,7 @@
         <v>21</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P245">
         <v>1</v>
@@ -14060,7 +14055,7 @@
         <v>22</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P246">
         <v>2</v>
@@ -14111,7 +14106,7 @@
         <v>8</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -14162,7 +14157,7 @@
         <v>23</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -14213,7 +14208,7 @@
         <v>6</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P249">
         <v>1</v>
@@ -14264,7 +14259,7 @@
         <v>23</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P250">
         <v>1</v>
@@ -14315,7 +14310,7 @@
         <v>1</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P251">
         <v>2</v>
@@ -14366,7 +14361,7 @@
         <v>10</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -14417,7 +14412,7 @@
         <v>54</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P253">
         <v>2</v>
@@ -14468,7 +14463,7 @@
         <v>8</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P254">
         <v>4</v>
@@ -14519,7 +14514,7 @@
         <v>21</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P255">
         <v>0</v>
@@ -14570,7 +14565,7 @@
         <v>30</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P256">
         <v>3</v>
@@ -14621,7 +14616,7 @@
         <v>41</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P257">
         <v>2</v>
@@ -14672,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P258">
         <v>1</v>
@@ -14723,7 +14718,7 @@
         <v>10</v>
       </c>
       <c r="O259" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P259">
         <v>4</v>
@@ -14774,7 +14769,7 @@
         <v>10</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P260">
         <v>3</v>
@@ -14825,7 +14820,7 @@
         <v>31</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P261">
         <v>2</v>
@@ -14876,7 +14871,7 @@
         <v>3</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P262">
         <v>2</v>
@@ -14927,7 +14922,7 @@
         <v>10</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P263">
         <v>1</v>
@@ -14978,7 +14973,7 @@
         <v>2</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P264">
         <v>1</v>
@@ -15029,7 +15024,7 @@
         <v>6</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P265">
         <v>0</v>
@@ -15080,7 +15075,7 @@
         <v>39</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P266">
         <v>2</v>
@@ -15131,7 +15126,7 @@
         <v>17</v>
       </c>
       <c r="O267" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P267">
         <v>1</v>
@@ -15182,7 +15177,7 @@
         <v>15</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P268">
         <v>3</v>
@@ -15233,7 +15228,7 @@
         <v>40</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P269">
         <v>2</v>
@@ -15284,7 +15279,7 @@
         <v>17</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P270">
         <v>0</v>
@@ -15335,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="O271" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P271">
         <v>2</v>
@@ -15386,7 +15381,7 @@
         <v>20</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P272">
         <v>2</v>
@@ -15437,7 +15432,7 @@
         <v>66</v>
       </c>
       <c r="O273" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P273">
         <v>2</v>
@@ -15488,7 +15483,7 @@
         <v>21</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P274">
         <v>1</v>
@@ -15539,7 +15534,7 @@
         <v>7</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P275">
         <v>4</v>
@@ -15590,7 +15585,7 @@
         <v>8</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P276">
         <v>2</v>
@@ -15641,7 +15636,7 @@
         <v>15</v>
       </c>
       <c r="O277" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P277">
         <v>3</v>
@@ -15692,7 +15687,7 @@
         <v>3</v>
       </c>
       <c r="O278" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P278">
         <v>2</v>
@@ -15743,7 +15738,7 @@
         <v>11</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P279">
         <v>2</v>
@@ -15794,7 +15789,7 @@
         <v>6</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P280">
         <v>1</v>
@@ -15845,7 +15840,7 @@
         <v>28</v>
       </c>
       <c r="O281" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P281">
         <v>2</v>
@@ -15896,7 +15891,7 @@
         <v>38</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P282">
         <v>3</v>
@@ -15947,7 +15942,7 @@
         <v>4</v>
       </c>
       <c r="O283" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P283">
         <v>3</v>
@@ -15998,7 +15993,7 @@
         <v>13</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P284">
         <v>2</v>
@@ -16040,7 +16035,7 @@
         <v>23</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>341</v>
@@ -16049,7 +16044,7 @@
         <v>64</v>
       </c>
       <c r="O285" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P285">
         <v>0</v>
@@ -16100,7 +16095,7 @@
         <v>192</v>
       </c>
       <c r="O286" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P286">
         <v>2</v>
@@ -16151,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P287">
         <v>2</v>
@@ -16193,7 +16188,7 @@
         <v>15</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>341</v>
@@ -16202,7 +16197,7 @@
         <v>5</v>
       </c>
       <c r="O288" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P288">
         <v>1</v>
@@ -16253,7 +16248,7 @@
         <v>38</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P289">
         <v>3</v>
@@ -16304,7 +16299,7 @@
         <v>31</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P290">
         <v>2</v>
@@ -16355,7 +16350,7 @@
         <v>66</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P291">
         <v>3</v>
@@ -16406,7 +16401,7 @@
         <v>2</v>
       </c>
       <c r="O292" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P292">
         <v>3</v>
@@ -16448,7 +16443,7 @@
         <v>14</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>341</v>
@@ -16457,7 +16452,7 @@
         <v>38</v>
       </c>
       <c r="O293" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P293">
         <v>1</v>
@@ -16508,7 +16503,7 @@
         <v>8</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P294">
         <v>2</v>
@@ -16550,7 +16545,7 @@
         <v>24</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>341</v>
@@ -16559,7 +16554,7 @@
         <v>37</v>
       </c>
       <c r="O295" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P295">
         <v>3</v>
@@ -16610,7 +16605,7 @@
         <v>17</v>
       </c>
       <c r="O296" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P296">
         <v>1</v>
@@ -16661,7 +16656,7 @@
         <v>12</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P297">
         <v>3</v>
@@ -16712,7 +16707,7 @@
         <v>27</v>
       </c>
       <c r="O298" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P298">
         <v>1</v>
@@ -16763,7 +16758,7 @@
         <v>20</v>
       </c>
       <c r="O299" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P299">
         <v>1</v>
@@ -16814,7 +16809,7 @@
         <v>4</v>
       </c>
       <c r="O300" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P300">
         <v>1</v>
@@ -16855,8 +16850,8 @@
       <c r="K301" s="1">
         <v>24</v>
       </c>
-      <c r="L301" s="1" t="s">
-        <v>346</v>
+      <c r="L301" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>341</v>
@@ -16865,7 +16860,7 @@
         <v>14</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P301">
         <v>2</v>
@@ -16916,7 +16911,7 @@
         <v>12</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P302">
         <v>1</v>
@@ -16967,7 +16962,7 @@
         <v>19</v>
       </c>
       <c r="O303" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P303">
         <v>2</v>
@@ -17018,7 +17013,7 @@
         <v>19</v>
       </c>
       <c r="O304" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P304">
         <v>0</v>
@@ -17069,7 +17064,7 @@
         <v>5</v>
       </c>
       <c r="O305" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P305">
         <v>3</v>
@@ -17120,7 +17115,7 @@
         <v>1</v>
       </c>
       <c r="O306" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P306">
         <v>2</v>
@@ -17162,7 +17157,7 @@
         <v>29</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>341</v>
@@ -17171,7 +17166,7 @@
         <v>18</v>
       </c>
       <c r="O307" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P307">
         <v>2</v>
@@ -17222,7 +17217,7 @@
         <v>17</v>
       </c>
       <c r="O308" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P308">
         <v>0</v>
@@ -17264,7 +17259,7 @@
         <v>3</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>341</v>
@@ -17273,7 +17268,7 @@
         <v>6</v>
       </c>
       <c r="O309" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P309">
         <v>0</v>
@@ -17324,7 +17319,7 @@
         <v>13</v>
       </c>
       <c r="O310" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P310">
         <v>2</v>
@@ -17375,7 +17370,7 @@
         <v>5</v>
       </c>
       <c r="O311" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P311">
         <v>2</v>
@@ -17417,7 +17412,7 @@
         <v>20</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>341</v>
@@ -17426,7 +17421,7 @@
         <v>36</v>
       </c>
       <c r="O312" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P312">
         <v>2</v>
@@ -17468,7 +17463,7 @@
         <v>22</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>341</v>
@@ -17477,7 +17472,7 @@
         <v>55</v>
       </c>
       <c r="O313" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P313">
         <v>1</v>
@@ -17528,7 +17523,7 @@
         <v>2</v>
       </c>
       <c r="O314" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P314">
         <v>2</v>
@@ -17579,7 +17574,7 @@
         <v>23</v>
       </c>
       <c r="O315" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P315">
         <v>3</v>
@@ -17630,7 +17625,7 @@
         <v>27</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P316">
         <v>0</v>
@@ -17681,7 +17676,7 @@
         <v>23</v>
       </c>
       <c r="O317" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P317">
         <v>4</v>
@@ -17732,7 +17727,7 @@
         <v>46</v>
       </c>
       <c r="O318" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P318">
         <v>1</v>
@@ -17774,7 +17769,7 @@
         <v>11</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>341</v>
@@ -17783,7 +17778,7 @@
         <v>15</v>
       </c>
       <c r="O319" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P319">
         <v>1</v>
@@ -17825,7 +17820,7 @@
         <v>12</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M320" s="1" t="s">
         <v>342</v>
@@ -17834,7 +17829,7 @@
         <v>9</v>
       </c>
       <c r="O320" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P320">
         <v>2</v>
@@ -17885,7 +17880,7 @@
         <v>47</v>
       </c>
       <c r="O321" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P321">
         <v>0</v>
@@ -17927,7 +17922,7 @@
         <v>18</v>
       </c>
       <c r="L322" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M322" s="1" t="s">
         <v>341</v>
@@ -17936,7 +17931,7 @@
         <v>17</v>
       </c>
       <c r="O322" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P322">
         <v>3</v>
@@ -17978,7 +17973,7 @@
         <v>25</v>
       </c>
       <c r="L323" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M323" s="1" t="s">
         <v>341</v>
@@ -17987,7 +17982,7 @@
         <v>8</v>
       </c>
       <c r="O323" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P323">
         <v>2</v>
@@ -18028,8 +18023,8 @@
       <c r="K324" s="1">
         <v>25</v>
       </c>
-      <c r="L324" s="1" t="s">
-        <v>351</v>
+      <c r="L324" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="M324" s="1" t="s">
         <v>343</v>
@@ -18038,7 +18033,7 @@
         <v>3</v>
       </c>
       <c r="O324" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P324">
         <v>3</v>
@@ -18080,7 +18075,7 @@
         <v>33</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>343</v>
@@ -18089,7 +18084,7 @@
         <v>15</v>
       </c>
       <c r="O325" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P325">
         <v>1</v>
@@ -18131,7 +18126,7 @@
         <v>21</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M326" s="1" t="s">
         <v>343</v>
@@ -18140,7 +18135,7 @@
         <v>6</v>
       </c>
       <c r="O326" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P326">
         <v>1</v>
@@ -18182,7 +18177,7 @@
         <v>24</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>343</v>
@@ -18191,7 +18186,7 @@
         <v>6</v>
       </c>
       <c r="O327" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P327">
         <v>1</v>

--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qingt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65581075-06D8-4968-B08B-FF856A77D8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F3B1C3-C409-4BFC-8FBA-EF082481D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12260" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="394">
   <si>
     <t>姓名</t>
   </si>
@@ -1104,6 +1104,124 @@
   <si>
     <t>死亡</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院感染部位</t>
+  </si>
+  <si>
+    <t>呼吸道</t>
+  </si>
+  <si>
+    <t>呼吸道、消化道</t>
+  </si>
+  <si>
+    <t>消化道</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>呼吸道、泌尿道</t>
+  </si>
+  <si>
+    <t>呼吸道、血液</t>
+  </si>
+  <si>
+    <t>呼吸道、消化道、血液</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>泌尿道</t>
+  </si>
+  <si>
+    <t>腹腔</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>血液、皮肤</t>
+  </si>
+  <si>
+    <t>腹腔、呼吸道</t>
+  </si>
+  <si>
+    <t>皮肤组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血液            </t>
+  </si>
+  <si>
+    <t>结缔组织、呼吸道</t>
+  </si>
+  <si>
+    <t>颅脑</t>
+  </si>
+  <si>
+    <t>颅脑、呼吸道</t>
+  </si>
+  <si>
+    <t>皮肤、血液</t>
+  </si>
+  <si>
+    <t>胆道、呼吸道</t>
+  </si>
+  <si>
+    <t>呼吸道、泌尿道、血液</t>
+  </si>
+  <si>
+    <t>血液、呼吸道</t>
+  </si>
+  <si>
+    <t>呼吸道、胸水</t>
+  </si>
+  <si>
+    <t>血液、消化</t>
+  </si>
+  <si>
+    <t>呼吸道、呼吸道</t>
+  </si>
+  <si>
+    <t>腹腔、血液</t>
+  </si>
+  <si>
+    <t>呼吸、血液</t>
+  </si>
+  <si>
+    <t>呼吸道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹腔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新感部位</t>
+  </si>
+  <si>
+    <t>泌尿道、呼吸道</t>
+  </si>
+  <si>
+    <t>消化道、呼吸道</t>
+  </si>
+  <si>
+    <t>脑脊液</t>
+  </si>
+  <si>
+    <t>呼吸道、胆汁</t>
+  </si>
+  <si>
+    <t>尿液</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1158,6 +1276,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1505,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2422C1-9143-4F91-B6D8-813C85B14C96}">
-  <dimension ref="A1:P327"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1635,7 @@
     <col min="12" max="12" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,8 +1684,14 @@
       <c r="P1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1741,14 @@
       <c r="P2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1667,8 +1798,14 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,8 +1855,14 @@
       <c r="P4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1769,8 +1912,14 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1820,8 +1969,14 @@
       <c r="P6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1871,8 +2026,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1922,8 +2083,14 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1973,8 +2140,14 @@
       <c r="P9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2024,8 +2197,14 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2075,8 +2254,14 @@
       <c r="P11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,8 +2311,14 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,8 +2368,14 @@
       <c r="P13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2228,8 +2425,14 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2279,8 +2482,14 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2330,8 +2539,14 @@
       <c r="P16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2381,8 +2596,14 @@
       <c r="P17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2432,8 +2653,14 @@
       <c r="P18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2483,8 +2710,14 @@
       <c r="P19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2534,8 +2767,14 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2585,8 +2824,14 @@
       <c r="P21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2636,8 +2881,14 @@
       <c r="P22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2687,8 +2938,14 @@
       <c r="P23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2738,8 +2995,14 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2789,8 +3052,14 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2840,8 +3109,14 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2891,8 +3166,14 @@
       <c r="P27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2942,8 +3223,14 @@
       <c r="P28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2993,8 +3280,14 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -3044,8 +3337,14 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3095,8 +3394,14 @@
       <c r="P31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -3146,8 +3451,14 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3197,8 +3508,14 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3248,8 +3565,14 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3299,8 +3622,14 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3350,8 +3679,14 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3401,8 +3736,14 @@
       <c r="P37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -3452,8 +3793,14 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -3503,8 +3850,14 @@
       <c r="P39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -3554,8 +3907,14 @@
       <c r="P40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -3605,8 +3964,14 @@
       <c r="P41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -3656,8 +4021,14 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -3707,8 +4078,14 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -3758,8 +4135,14 @@
       <c r="P44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -3809,8 +4192,14 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -3860,8 +4249,14 @@
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -3911,8 +4306,14 @@
       <c r="P47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -3962,8 +4363,14 @@
       <c r="P48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -4013,8 +4420,14 @@
       <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q49" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -4064,8 +4477,14 @@
       <c r="P50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q50" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4115,8 +4534,14 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4166,8 +4591,14 @@
       <c r="P52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4217,8 +4648,14 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q53" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -4268,8 +4705,14 @@
       <c r="P54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -4319,8 +4762,14 @@
       <c r="P55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4370,8 +4819,14 @@
       <c r="P56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4421,8 +4876,14 @@
       <c r="P57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,8 +4933,14 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4523,8 +4990,14 @@
       <c r="P59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4574,8 +5047,14 @@
       <c r="P60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4625,8 +5104,14 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q61" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4676,8 +5161,14 @@
       <c r="P62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4727,8 +5218,14 @@
       <c r="P63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q63" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4778,8 +5275,14 @@
       <c r="P64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q64" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4829,8 +5332,14 @@
       <c r="P65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q65" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -4880,8 +5389,14 @@
       <c r="P66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q66" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -4931,8 +5446,14 @@
       <c r="P67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q67" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -4982,8 +5503,14 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -5033,8 +5560,14 @@
       <c r="P69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -5084,8 +5617,14 @@
       <c r="P70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q70" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -5135,8 +5674,14 @@
       <c r="P71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -5186,8 +5731,14 @@
       <c r="P72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -5237,8 +5788,14 @@
       <c r="P73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q73" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -5288,8 +5845,14 @@
       <c r="P74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q74" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -5339,8 +5902,14 @@
       <c r="P75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -5390,8 +5959,14 @@
       <c r="P76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -5441,8 +6016,14 @@
       <c r="P77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -5492,8 +6073,14 @@
       <c r="P78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q78" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -5543,8 +6130,14 @@
       <c r="P79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q79" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -5594,8 +6187,14 @@
       <c r="P80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -5645,8 +6244,14 @@
       <c r="P81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q81" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -5696,8 +6301,14 @@
       <c r="P82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -5747,8 +6358,14 @@
       <c r="P83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q83" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -5798,8 +6415,14 @@
       <c r="P84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q84" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5849,8 +6472,14 @@
       <c r="P85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q85" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -5900,8 +6529,14 @@
       <c r="P86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q86" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -5951,8 +6586,14 @@
       <c r="P87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -6002,8 +6643,14 @@
       <c r="P88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q88" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -6053,8 +6700,14 @@
       <c r="P89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q89" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -6104,8 +6757,14 @@
       <c r="P90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6155,8 +6814,14 @@
       <c r="P91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q91" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6206,8 +6871,14 @@
       <c r="P92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -6257,8 +6928,14 @@
       <c r="P93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -6308,8 +6985,14 @@
       <c r="P94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -6359,8 +7042,14 @@
       <c r="P95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -6410,8 +7099,14 @@
       <c r="P96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q96" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -6461,8 +7156,14 @@
       <c r="P97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -6512,8 +7213,14 @@
       <c r="P98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -6563,8 +7270,14 @@
       <c r="P99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -6614,8 +7327,14 @@
       <c r="P100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -6665,8 +7384,14 @@
       <c r="P101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -6716,8 +7441,14 @@
       <c r="P102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q102" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -6767,8 +7498,14 @@
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -6818,8 +7555,14 @@
       <c r="P104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -6869,8 +7612,14 @@
       <c r="P105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q105" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -6920,8 +7669,14 @@
       <c r="P106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -6971,8 +7726,14 @@
       <c r="P107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -7022,8 +7783,14 @@
       <c r="P108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -7073,8 +7840,14 @@
       <c r="P109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q109" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -7124,8 +7897,14 @@
       <c r="P110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -7175,8 +7954,14 @@
       <c r="P111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -7226,8 +8011,14 @@
       <c r="P112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -7277,8 +8068,14 @@
       <c r="P113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -7328,8 +8125,14 @@
       <c r="P114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q114" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -7379,8 +8182,14 @@
       <c r="P115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -7430,8 +8239,14 @@
       <c r="P116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q116" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -7481,8 +8296,14 @@
       <c r="P117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q117" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -7532,8 +8353,14 @@
       <c r="P118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q118" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -7583,8 +8410,14 @@
       <c r="P119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q119" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -7634,8 +8467,14 @@
       <c r="P120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -7685,8 +8524,14 @@
       <c r="P121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -7736,8 +8581,14 @@
       <c r="P122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q122" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -7787,8 +8638,14 @@
       <c r="P123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q123" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -7838,8 +8695,14 @@
       <c r="P124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q124" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -7889,8 +8752,14 @@
       <c r="P125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q125" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -7940,8 +8809,14 @@
       <c r="P126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q126" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -7991,8 +8866,14 @@
       <c r="P127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q127" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -8042,8 +8923,14 @@
       <c r="P128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -8093,8 +8980,14 @@
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -8144,8 +9037,14 @@
       <c r="P130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q130" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -8195,8 +9094,14 @@
       <c r="P131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -8246,8 +9151,14 @@
       <c r="P132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q132" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -8297,8 +9208,14 @@
       <c r="P133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q133" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -8348,8 +9265,14 @@
       <c r="P134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -8399,8 +9322,14 @@
       <c r="P135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -8450,8 +9379,14 @@
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q136" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -8501,8 +9436,14 @@
       <c r="P137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q137" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -8552,8 +9493,14 @@
       <c r="P138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q138" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -8603,8 +9550,14 @@
       <c r="P139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q139" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -8654,8 +9607,14 @@
       <c r="P140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q140" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -8705,8 +9664,14 @@
       <c r="P141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q141" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>152</v>
       </c>
@@ -8756,8 +9721,14 @@
       <c r="P142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -8807,8 +9778,14 @@
       <c r="P143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q143" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -8858,8 +9835,14 @@
       <c r="P144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -8909,8 +9892,14 @@
       <c r="P145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q145" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -8960,8 +9949,14 @@
       <c r="P146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q146" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -9011,8 +10006,14 @@
       <c r="P147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q147" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>158</v>
       </c>
@@ -9062,8 +10063,14 @@
       <c r="P148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q148" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -9113,8 +10120,14 @@
       <c r="P149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q149" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>160</v>
       </c>
@@ -9164,8 +10177,14 @@
       <c r="P150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q150" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -9215,8 +10234,14 @@
       <c r="P151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q151" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
@@ -9266,8 +10291,14 @@
       <c r="P152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q152" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>163</v>
       </c>
@@ -9317,8 +10348,14 @@
       <c r="P153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>164</v>
       </c>
@@ -9368,8 +10405,14 @@
       <c r="P154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>165</v>
       </c>
@@ -9419,8 +10462,14 @@
       <c r="P155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q155" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -9470,8 +10519,14 @@
       <c r="P156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q156" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -9521,8 +10576,14 @@
       <c r="P157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q157" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>168</v>
       </c>
@@ -9572,8 +10633,14 @@
       <c r="P158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q158" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>169</v>
       </c>
@@ -9623,8 +10690,14 @@
       <c r="P159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q159" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -9674,8 +10747,14 @@
       <c r="P160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q160" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>171</v>
       </c>
@@ -9725,8 +10804,14 @@
       <c r="P161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q161" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
@@ -9776,8 +10861,14 @@
       <c r="P162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q162" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>173</v>
       </c>
@@ -9827,8 +10918,14 @@
       <c r="P163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q163" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -9878,8 +10975,14 @@
       <c r="P164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q164" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -9929,8 +11032,14 @@
       <c r="P165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q165" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -9980,8 +11089,14 @@
       <c r="P166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -10031,8 +11146,14 @@
       <c r="P167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q167" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>178</v>
       </c>
@@ -10082,8 +11203,14 @@
       <c r="P168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q168" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>179</v>
       </c>
@@ -10133,8 +11260,14 @@
       <c r="P169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q169" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -10184,8 +11317,14 @@
       <c r="P170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q170" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -10235,8 +11374,14 @@
       <c r="P171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q171" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>182</v>
       </c>
@@ -10286,8 +11431,14 @@
       <c r="P172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q172" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>183</v>
       </c>
@@ -10337,8 +11488,14 @@
       <c r="P173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q173" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -10388,8 +11545,14 @@
       <c r="P174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q174" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>185</v>
       </c>
@@ -10439,8 +11602,14 @@
       <c r="P175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q175" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -10490,8 +11659,14 @@
       <c r="P176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q176" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
@@ -10541,8 +11716,14 @@
       <c r="P177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q177" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -10592,8 +11773,14 @@
       <c r="P178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q178" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>189</v>
       </c>
@@ -10643,8 +11830,14 @@
       <c r="P179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>190</v>
       </c>
@@ -10694,8 +11887,14 @@
       <c r="P180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q180" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -10745,8 +11944,14 @@
       <c r="P181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>192</v>
       </c>
@@ -10796,8 +12001,14 @@
       <c r="P182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q182" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -10847,8 +12058,14 @@
       <c r="P183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -10898,8 +12115,14 @@
       <c r="P184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q184" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -10949,8 +12172,14 @@
       <c r="P185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q185" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -11000,8 +12229,14 @@
       <c r="P186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q186" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -11051,8 +12286,14 @@
       <c r="P187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q187" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -11102,8 +12343,14 @@
       <c r="P188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -11153,8 +12400,14 @@
       <c r="P189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q189" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -11204,8 +12457,14 @@
       <c r="P190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q190" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -11255,8 +12514,14 @@
       <c r="P191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q191" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
@@ -11306,8 +12571,14 @@
       <c r="P192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q192" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -11357,8 +12628,14 @@
       <c r="P193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q193" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>204</v>
       </c>
@@ -11408,8 +12685,14 @@
       <c r="P194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q194" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -11459,8 +12742,14 @@
       <c r="P195">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q195" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -11510,8 +12799,14 @@
       <c r="P196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q196" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>207</v>
       </c>
@@ -11561,8 +12856,14 @@
       <c r="P197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q197" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>208</v>
       </c>
@@ -11612,8 +12913,14 @@
       <c r="P198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q198" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>209</v>
       </c>
@@ -11663,8 +12970,14 @@
       <c r="P199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q199" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>210</v>
       </c>
@@ -11714,8 +13027,14 @@
       <c r="P200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q200" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>211</v>
       </c>
@@ -11765,8 +13084,14 @@
       <c r="P201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q201" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>212</v>
       </c>
@@ -11816,8 +13141,14 @@
       <c r="P202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q202" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>213</v>
       </c>
@@ -11867,8 +13198,14 @@
       <c r="P203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q203" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>214</v>
       </c>
@@ -11918,8 +13255,14 @@
       <c r="P204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q204" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>215</v>
       </c>
@@ -11969,8 +13312,14 @@
       <c r="P205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q205" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -12020,8 +13369,14 @@
       <c r="P206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q206" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -12071,8 +13426,14 @@
       <c r="P207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q207" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -12122,8 +13483,14 @@
       <c r="P208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q208" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -12173,8 +13540,14 @@
       <c r="P209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q209" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -12224,8 +13597,14 @@
       <c r="P210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -12275,8 +13654,14 @@
       <c r="P211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q211" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>222</v>
       </c>
@@ -12326,8 +13711,14 @@
       <c r="P212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q212" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>223</v>
       </c>
@@ -12377,8 +13768,14 @@
       <c r="P213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q213" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>224</v>
       </c>
@@ -12428,8 +13825,14 @@
       <c r="P214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q214" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>225</v>
       </c>
@@ -12479,8 +13882,14 @@
       <c r="P215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q215" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>226</v>
       </c>
@@ -12530,8 +13939,14 @@
       <c r="P216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q216" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>227</v>
       </c>
@@ -12581,8 +13996,14 @@
       <c r="P217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q217" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>228</v>
       </c>
@@ -12632,8 +14053,14 @@
       <c r="P218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q218" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>229</v>
       </c>
@@ -12683,8 +14110,14 @@
       <c r="P219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q219" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -12734,8 +14167,14 @@
       <c r="P220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q220" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>231</v>
       </c>
@@ -12785,8 +14224,14 @@
       <c r="P221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q221" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -12836,8 +14281,14 @@
       <c r="P222">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q222" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -12887,8 +14338,14 @@
       <c r="P223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q223" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>234</v>
       </c>
@@ -12938,8 +14395,14 @@
       <c r="P224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q224" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>235</v>
       </c>
@@ -12989,8 +14452,14 @@
       <c r="P225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q225" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>236</v>
       </c>
@@ -13040,8 +14509,14 @@
       <c r="P226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q226" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>237</v>
       </c>
@@ -13091,8 +14566,14 @@
       <c r="P227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q227" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>238</v>
       </c>
@@ -13142,8 +14623,14 @@
       <c r="P228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q228" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>239</v>
       </c>
@@ -13193,8 +14680,14 @@
       <c r="P229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q229" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>240</v>
       </c>
@@ -13244,8 +14737,14 @@
       <c r="P230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q230" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>241</v>
       </c>
@@ -13295,8 +14794,14 @@
       <c r="P231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q231" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>242</v>
       </c>
@@ -13346,8 +14851,14 @@
       <c r="P232">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q232" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>243</v>
       </c>
@@ -13397,8 +14908,14 @@
       <c r="P233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q233" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>244</v>
       </c>
@@ -13448,8 +14965,14 @@
       <c r="P234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q234" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>245</v>
       </c>
@@ -13499,8 +15022,14 @@
       <c r="P235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q235" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>246</v>
       </c>
@@ -13550,8 +15079,14 @@
       <c r="P236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q236" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>247</v>
       </c>
@@ -13601,8 +15136,14 @@
       <c r="P237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q237" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -13652,8 +15193,14 @@
       <c r="P238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q238" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>249</v>
       </c>
@@ -13703,8 +15250,14 @@
       <c r="P239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q239" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -13754,8 +15307,14 @@
       <c r="P240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q240" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>251</v>
       </c>
@@ -13805,8 +15364,14 @@
       <c r="P241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q241" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -13856,8 +15421,14 @@
       <c r="P242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q242" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>253</v>
       </c>
@@ -13907,8 +15478,14 @@
       <c r="P243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q243" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
@@ -13958,8 +15535,14 @@
       <c r="P244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q244" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>255</v>
       </c>
@@ -14009,8 +15592,14 @@
       <c r="P245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q245" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -14060,8 +15649,14 @@
       <c r="P246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q246" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>257</v>
       </c>
@@ -14111,8 +15706,14 @@
       <c r="P247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q247" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -14162,8 +15763,14 @@
       <c r="P248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q248" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>259</v>
       </c>
@@ -14213,8 +15820,14 @@
       <c r="P249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q249" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -14264,8 +15877,14 @@
       <c r="P250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q250" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
@@ -14315,8 +15934,14 @@
       <c r="P251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q251" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>262</v>
       </c>
@@ -14366,8 +15991,14 @@
       <c r="P252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q252" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
@@ -14417,8 +16048,14 @@
       <c r="P253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q253" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>264</v>
       </c>
@@ -14468,8 +16105,14 @@
       <c r="P254">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q254" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -14519,8 +16162,14 @@
       <c r="P255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q255" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>266</v>
       </c>
@@ -14570,8 +16219,14 @@
       <c r="P256">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q256" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
@@ -14621,8 +16276,14 @@
       <c r="P257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q257" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>268</v>
       </c>
@@ -14672,8 +16333,14 @@
       <c r="P258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q258" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>269</v>
       </c>
@@ -14723,8 +16390,14 @@
       <c r="P259">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q259" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>270</v>
       </c>
@@ -14774,8 +16447,14 @@
       <c r="P260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q260" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -14825,8 +16504,14 @@
       <c r="P261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q261" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>272</v>
       </c>
@@ -14876,8 +16561,14 @@
       <c r="P262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q262" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -14927,8 +16618,14 @@
       <c r="P263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q263" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -14978,8 +16675,14 @@
       <c r="P264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q264" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -15029,8 +16732,14 @@
       <c r="P265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q265" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>276</v>
       </c>
@@ -15080,8 +16789,14 @@
       <c r="P266">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q266" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -15131,8 +16846,14 @@
       <c r="P267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q267" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>278</v>
       </c>
@@ -15182,8 +16903,14 @@
       <c r="P268">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q268" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>279</v>
       </c>
@@ -15233,8 +16960,14 @@
       <c r="P269">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q269" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>280</v>
       </c>
@@ -15284,8 +17017,14 @@
       <c r="P270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q270" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>281</v>
       </c>
@@ -15335,8 +17074,14 @@
       <c r="P271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q271" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>282</v>
       </c>
@@ -15386,8 +17131,14 @@
       <c r="P272">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q272" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>283</v>
       </c>
@@ -15437,8 +17188,14 @@
       <c r="P273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q273" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>284</v>
       </c>
@@ -15488,8 +17245,14 @@
       <c r="P274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q274" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>285</v>
       </c>
@@ -15539,8 +17302,14 @@
       <c r="P275">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q275" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>286</v>
       </c>
@@ -15590,8 +17359,14 @@
       <c r="P276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q276" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>287</v>
       </c>
@@ -15641,8 +17416,14 @@
       <c r="P277">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q277" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>288</v>
       </c>
@@ -15692,8 +17473,14 @@
       <c r="P278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q278" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -15743,8 +17530,14 @@
       <c r="P279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q279" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>290</v>
       </c>
@@ -15794,8 +17587,14 @@
       <c r="P280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q280" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>291</v>
       </c>
@@ -15845,8 +17644,14 @@
       <c r="P281">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q281" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>292</v>
       </c>
@@ -15896,8 +17701,14 @@
       <c r="P282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q282" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>293</v>
       </c>
@@ -15947,8 +17758,14 @@
       <c r="P283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q283" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -15998,8 +17815,14 @@
       <c r="P284">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q284" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>295</v>
       </c>
@@ -16049,8 +17872,14 @@
       <c r="P285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q285" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -16100,8 +17929,14 @@
       <c r="P286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q286" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>297</v>
       </c>
@@ -16151,8 +17986,14 @@
       <c r="P287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q287" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -16202,8 +18043,14 @@
       <c r="P288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q288" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>299</v>
       </c>
@@ -16253,8 +18100,14 @@
       <c r="P289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q289" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>300</v>
       </c>
@@ -16304,8 +18157,14 @@
       <c r="P290">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q290" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -16355,8 +18214,14 @@
       <c r="P291">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q291" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>302</v>
       </c>
@@ -16406,8 +18271,14 @@
       <c r="P292">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q292" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -16457,8 +18328,14 @@
       <c r="P293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q293" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>304</v>
       </c>
@@ -16508,8 +18385,14 @@
       <c r="P294">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q294" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>305</v>
       </c>
@@ -16559,8 +18442,14 @@
       <c r="P295">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q295" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>306</v>
       </c>
@@ -16610,8 +18499,14 @@
       <c r="P296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q296" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -16661,8 +18556,14 @@
       <c r="P297">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q297" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -16712,8 +18613,14 @@
       <c r="P298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q298" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>309</v>
       </c>
@@ -16763,8 +18670,14 @@
       <c r="P299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q299" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -16814,8 +18727,14 @@
       <c r="P300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q300" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>311</v>
       </c>
@@ -16865,8 +18784,14 @@
       <c r="P301">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q301" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>312</v>
       </c>
@@ -16916,8 +18841,14 @@
       <c r="P302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q302" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R302" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -16967,8 +18898,14 @@
       <c r="P303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q303" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>314</v>
       </c>
@@ -17018,8 +18955,14 @@
       <c r="P304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q304" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>315</v>
       </c>
@@ -17069,8 +19012,14 @@
       <c r="P305">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q305" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R305" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -17120,8 +19069,14 @@
       <c r="P306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q306" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R306" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -17171,8 +19126,14 @@
       <c r="P307">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q307" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R307" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>318</v>
       </c>
@@ -17222,8 +19183,14 @@
       <c r="P308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q308" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R308" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>319</v>
       </c>
@@ -17273,8 +19240,14 @@
       <c r="P309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q309" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R309" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -17324,8 +19297,14 @@
       <c r="P310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q310" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="R310" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>321</v>
       </c>
@@ -17375,8 +19354,14 @@
       <c r="P311">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q311" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R311" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>322</v>
       </c>
@@ -17426,8 +19411,14 @@
       <c r="P312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q312" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R312" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>323</v>
       </c>
@@ -17477,8 +19468,14 @@
       <c r="P313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q313" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R313" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
@@ -17528,8 +19525,14 @@
       <c r="P314">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q314" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="R314" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
@@ -17579,8 +19582,14 @@
       <c r="P315">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q315" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R315" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>326</v>
       </c>
@@ -17630,8 +19639,14 @@
       <c r="P316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q316" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R316" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>327</v>
       </c>
@@ -17681,8 +19696,14 @@
       <c r="P317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q317" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R317" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>328</v>
       </c>
@@ -17732,8 +19753,14 @@
       <c r="P318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q318" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R318" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>329</v>
       </c>
@@ -17783,8 +19810,14 @@
       <c r="P319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q319" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R319" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -17834,8 +19867,14 @@
       <c r="P320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q320" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R320" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -17885,8 +19924,14 @@
       <c r="P321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q321" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R321" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -17936,8 +19981,14 @@
       <c r="P322">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q322" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R322" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>333</v>
       </c>
@@ -17987,8 +20038,14 @@
       <c r="P323">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q323" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R323" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>334</v>
       </c>
@@ -18038,8 +20095,14 @@
       <c r="P324">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q324" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R324" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>335</v>
       </c>
@@ -18089,8 +20152,14 @@
       <c r="P325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q325" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R325" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>336</v>
       </c>
@@ -18140,8 +20209,14 @@
       <c r="P326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q326" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R326" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -18190,6 +20265,12 @@
       </c>
       <c r="P327">
         <v>1</v>
+      </c>
+      <c r="Q327" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="R327" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F357BA-932A-437E-85A1-1284A4E6E97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F139EAD-5647-4530-AAB4-5F1A3EA1BA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E5B91E5-8481-43EE-9F7C-DAFA922504F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="478">
   <si>
     <t>姓名</t>
   </si>
@@ -1286,6 +1286,213 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性心脏疾病</t>
+  </si>
+  <si>
+    <t>慢性肝脏疾病</t>
+  </si>
+  <si>
+    <t>慢性肺疾病</t>
+  </si>
+  <si>
+    <t>慢性肾脏疾病</t>
+  </si>
+  <si>
+    <t>合并症</t>
+  </si>
+  <si>
+    <t>高血压、糖尿病</t>
+  </si>
+  <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>肝衰竭</t>
+  </si>
+  <si>
+    <t>高血压</t>
+  </si>
+  <si>
+    <t>心力衰竭</t>
+  </si>
+  <si>
+    <t>慢阻肺</t>
+  </si>
+  <si>
+    <t>肝硬化</t>
+  </si>
+  <si>
+    <t>肺心病</t>
+  </si>
+  <si>
+    <t>冠心病</t>
+  </si>
+  <si>
+    <t>慢支</t>
+  </si>
+  <si>
+    <t>肿瘤、高血压</t>
+  </si>
+  <si>
+    <t>慢阻肺、支气管哮喘</t>
+  </si>
+  <si>
+    <t>风心病</t>
+  </si>
+  <si>
+    <t>糖尿病</t>
+  </si>
+  <si>
+    <t>心功能不全</t>
+  </si>
+  <si>
+    <t>肾功能不全</t>
+  </si>
+  <si>
+    <t>恶性肿瘤</t>
+  </si>
+  <si>
+    <t>糖尿病、肿瘤</t>
+  </si>
+  <si>
+    <t>间质性肺病</t>
+  </si>
+  <si>
+    <t>慢性乙肝</t>
+  </si>
+  <si>
+    <t>慢性肾炎</t>
+  </si>
+  <si>
+    <t>慢性肾功能不全</t>
+  </si>
+  <si>
+    <t>高血压、恶性肿瘤</t>
+  </si>
+  <si>
+    <t>肾衰竭</t>
+  </si>
+  <si>
+    <t>肝功能不全</t>
+  </si>
+  <si>
+    <t>高血压、糖尿病、恶性肿瘤</t>
+  </si>
+  <si>
+    <t>肥厚型心肌病</t>
+  </si>
+  <si>
+    <t>呼吸衰竭</t>
+  </si>
+  <si>
+    <t>肝硬化失代偿期</t>
+  </si>
+  <si>
+    <t>艾滋病</t>
+  </si>
+  <si>
+    <t>房颤</t>
+  </si>
+  <si>
+    <t>肺占位性肿物</t>
+  </si>
+  <si>
+    <t>尿毒症</t>
+  </si>
+  <si>
+    <t>慢性肾衰竭</t>
+  </si>
+  <si>
+    <t>乙型肝炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无      </t>
+  </si>
+  <si>
+    <t>恶性肿瘤、骨髓抑制</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精肝</t>
+  </si>
+  <si>
+    <t>恶性肿瘤、高血压、糖尿病</t>
+  </si>
+  <si>
+    <t>具有心脏起搏器</t>
+  </si>
+  <si>
+    <t>心房颤动</t>
+  </si>
+  <si>
+    <t>肝炎、肝硬化</t>
+  </si>
+  <si>
+    <t>哮喘</t>
+  </si>
+  <si>
+    <t>房颤、主动脉狭窄伴关闭不全</t>
+  </si>
+  <si>
+    <t>肝肾综合征</t>
+  </si>
+  <si>
+    <t>肝脓肿</t>
+  </si>
+  <si>
+    <t>肺气肿</t>
+  </si>
+  <si>
+    <t>肺结核</t>
+  </si>
+  <si>
+    <t>支气管扩张</t>
+  </si>
+  <si>
+    <t>糖尿病、恶性肿瘤</t>
+  </si>
+  <si>
+    <t>恶性肿瘤、糖尿病</t>
+  </si>
+  <si>
+    <t>肝炎</t>
+  </si>
+  <si>
+    <t>高血压、恶性肿瘤、系统性红斑狼疮</t>
+  </si>
+  <si>
+    <t>恶性肿瘤、高血压</t>
+  </si>
+  <si>
+    <t>高血压、糖尿病、恶性肿瘤、骨髓抑制</t>
+  </si>
+  <si>
+    <t>糖尿病、恶性肿瘤、骨髓抑制</t>
+  </si>
+  <si>
+    <t>高血压、ANCA相关性血管炎</t>
+  </si>
+  <si>
+    <t>肝硬化、肝炎</t>
+  </si>
+  <si>
+    <t>类风关、高血压、糖尿病</t>
+  </si>
+  <si>
+    <t>高血压、恶性肿瘤、骨髓抑制</t>
+  </si>
+  <si>
+    <t>粒细胞缺乏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1693,18 +1900,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2422C1-9143-4F91-B6D8-813C85B14C96}">
-  <dimension ref="A1:AF327"/>
+  <dimension ref="A1:AK327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AF327"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="33" max="33" width="32.75" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.08203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.08203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,8 +2013,23 @@
       <c r="AF1" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1900,8 +2127,23 @@
       <c r="AF2" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1999,8 +2241,23 @@
       <c r="AF3" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2098,8 +2355,23 @@
       <c r="AF4" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2197,8 +2469,23 @@
       <c r="AF5" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2296,8 +2583,23 @@
       <c r="AF6" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2395,8 +2697,23 @@
       <c r="AF7" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2494,8 +2811,23 @@
       <c r="AF8" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2593,8 +2925,23 @@
       <c r="AF9" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG9" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2692,8 +3039,23 @@
       <c r="AF10" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2791,8 +3153,23 @@
       <c r="AF11" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2890,8 +3267,23 @@
       <c r="AF12" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2989,8 +3381,23 @@
       <c r="AF13" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3088,8 +3495,23 @@
       <c r="AF14" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3187,8 +3609,23 @@
       <c r="AF15" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3286,8 +3723,23 @@
       <c r="AF16" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3385,8 +3837,23 @@
       <c r="AF17" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3484,8 +3951,23 @@
       <c r="AF18" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3583,8 +4065,23 @@
       <c r="AF19" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG19" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3682,8 +4179,23 @@
       <c r="AF20" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3781,8 +4293,23 @@
       <c r="AF21" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -3880,8 +4407,23 @@
       <c r="AF22" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -3979,8 +4521,23 @@
       <c r="AF23" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4078,8 +4635,23 @@
       <c r="AF24" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4177,8 +4749,23 @@
       <c r="AF25" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4276,8 +4863,23 @@
       <c r="AF26" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4375,8 +4977,23 @@
       <c r="AF27" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG27" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4474,8 +5091,23 @@
       <c r="AF28" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4573,8 +5205,23 @@
       <c r="AF29" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4672,8 +5319,23 @@
       <c r="AF30" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4771,8 +5433,23 @@
       <c r="AF31" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -4870,8 +5547,23 @@
       <c r="AF32" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4969,8 +5661,23 @@
       <c r="AF33" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -5068,8 +5775,23 @@
       <c r="AF34" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -5167,8 +5889,23 @@
       <c r="AF35" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -5266,8 +6003,23 @@
       <c r="AF36" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5365,8 +6117,23 @@
       <c r="AF37" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG37" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -5464,8 +6231,23 @@
       <c r="AF38" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -5563,8 +6345,23 @@
       <c r="AF39" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -5662,8 +6459,23 @@
       <c r="AF40" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -5761,8 +6573,23 @@
       <c r="AF41" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -5860,8 +6687,23 @@
       <c r="AF42" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -5959,8 +6801,23 @@
       <c r="AF43" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -6058,8 +6915,23 @@
       <c r="AF44" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -6157,8 +7029,23 @@
       <c r="AF45" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK45" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -6256,8 +7143,23 @@
       <c r="AF46" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -6355,8 +7257,23 @@
       <c r="AF47" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -6454,8 +7371,23 @@
       <c r="AF48" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6553,8 +7485,23 @@
       <c r="AF49" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -6652,8 +7599,23 @@
       <c r="AF50" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6751,8 +7713,23 @@
       <c r="AF51" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -6850,8 +7827,23 @@
       <c r="AF52" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6949,8 +7941,23 @@
       <c r="AF53" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -7048,8 +8055,23 @@
       <c r="AF54" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7147,8 +8169,23 @@
       <c r="AF55" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG55" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -7246,8 +8283,23 @@
       <c r="AF56" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG56" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK56" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7345,8 +8397,23 @@
       <c r="AF57" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK57" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -7444,8 +8511,23 @@
       <c r="AF58" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG58" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK58" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7543,8 +8625,23 @@
       <c r="AF59" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ59" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -7642,8 +8739,23 @@
       <c r="AF60" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7741,8 +8853,23 @@
       <c r="AF61" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG61" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ61" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK61" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -7840,8 +8967,23 @@
       <c r="AF62" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG62" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ62" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK62" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -7939,8 +9081,23 @@
       <c r="AF63" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG63" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK63" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -8038,8 +9195,23 @@
       <c r="AF64" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ64" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK64" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -8137,8 +9309,23 @@
       <c r="AF65" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK65" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -8236,8 +9423,23 @@
       <c r="AF66" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG66" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK66" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -8335,8 +9537,23 @@
       <c r="AF67" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG67" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ67" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK67" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -8434,8 +9651,23 @@
       <c r="AF68" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK68" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -8533,8 +9765,23 @@
       <c r="AF69" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG69" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ69" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK69" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -8632,8 +9879,23 @@
       <c r="AF70" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK70" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -8731,8 +9993,23 @@
       <c r="AF71" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK71" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -8830,8 +10107,23 @@
       <c r="AF72" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK72" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -8929,8 +10221,23 @@
       <c r="AF73" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG73" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK73" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -9028,8 +10335,23 @@
       <c r="AF74" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI74" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ74" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK74" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -9127,8 +10449,23 @@
       <c r="AF75" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG75" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI75" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ75" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK75" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -9226,8 +10563,23 @@
       <c r="AF76" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG76" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI76" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ76" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK76" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -9325,8 +10677,23 @@
       <c r="AF77" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG77" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK77" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -9424,8 +10791,23 @@
       <c r="AF78" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK78" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -9523,8 +10905,23 @@
       <c r="AF79" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ79" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK79" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -9622,8 +11019,23 @@
       <c r="AF80" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI80" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK80" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -9721,8 +11133,23 @@
       <c r="AF81" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG81" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ81" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK81" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -9820,8 +11247,23 @@
       <c r="AF82" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI82" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK82" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -9919,8 +11361,23 @@
       <c r="AF83" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH83" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI83" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK83" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -10018,8 +11475,23 @@
       <c r="AF84" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG84" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK84" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -10117,8 +11589,23 @@
       <c r="AF85" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG85" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH85" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI85" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ85" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK85" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -10216,8 +11703,23 @@
       <c r="AF86" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ86" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK86" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -10315,8 +11817,23 @@
       <c r="AF87" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK87" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -10414,8 +11931,23 @@
       <c r="AF88" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK88" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -10513,8 +12045,23 @@
       <c r="AF89" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK89" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -10612,8 +12159,23 @@
       <c r="AF90" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG90" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI90" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ90" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK90" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -10711,8 +12273,23 @@
       <c r="AF91" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG91" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI91" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK91" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -10810,8 +12387,23 @@
       <c r="AF92" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG92" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI92" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ92" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK92" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -10909,8 +12501,23 @@
       <c r="AF93" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK93" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -11008,8 +12615,23 @@
       <c r="AF94" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG94" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK94" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -11107,8 +12729,23 @@
       <c r="AF95" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG95" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI95" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ95" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK95" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -11206,8 +12843,23 @@
       <c r="AF96" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG96" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH96" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI96" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ96" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK96" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -11305,8 +12957,23 @@
       <c r="AF97" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG97" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH97" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI97" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ97" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK97" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -11404,8 +13071,23 @@
       <c r="AF98" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG98" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI98" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ98" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK98" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -11503,8 +13185,23 @@
       <c r="AF99" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG99" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK99" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -11602,8 +13299,23 @@
       <c r="AF100" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ100" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK100" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -11701,8 +13413,23 @@
       <c r="AF101" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG101" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH101" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK101" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -11800,8 +13527,23 @@
       <c r="AF102" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK102" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -11899,8 +13641,23 @@
       <c r="AF103" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK103" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -11998,8 +13755,23 @@
       <c r="AF104" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG104" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH104" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI104" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ104" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK104" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -12097,8 +13869,23 @@
       <c r="AF105" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH105" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI105" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK105" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -12196,8 +13983,23 @@
       <c r="AF106" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG106" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH106" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI106" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ106" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK106" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -12295,8 +14097,23 @@
       <c r="AF107" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ107" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK107" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -12394,8 +14211,23 @@
       <c r="AF108" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK108" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -12493,8 +14325,23 @@
       <c r="AF109" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG109" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI109" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ109" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK109" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -12592,8 +14439,23 @@
       <c r="AF110" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ110" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK110" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -12691,8 +14553,23 @@
       <c r="AF111" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK111" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -12790,8 +14667,23 @@
       <c r="AF112" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK112" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -12889,8 +14781,23 @@
       <c r="AF113" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH113" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK113" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -12988,8 +14895,23 @@
       <c r="AF114" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH114" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK114" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -13087,8 +15009,23 @@
       <c r="AF115" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK115" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -13186,8 +15123,23 @@
       <c r="AF116" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG116" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK116" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -13285,8 +15237,23 @@
       <c r="AF117" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG117" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH117" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI117" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ117" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK117" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -13384,8 +15351,23 @@
       <c r="AF118" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK118" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -13483,8 +15465,23 @@
       <c r="AF119" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG119" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK119" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -13582,8 +15579,23 @@
       <c r="AF120" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ120" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK120" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -13681,8 +15693,23 @@
       <c r="AF121" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG121" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK121" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>132</v>
       </c>
@@ -13780,8 +15807,23 @@
       <c r="AF122" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG122" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH122" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI122" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ122" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK122" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -13879,8 +15921,23 @@
       <c r="AF123" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK123" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -13978,8 +16035,23 @@
       <c r="AF124" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI124" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ124" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK124" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -14077,8 +16149,23 @@
       <c r="AF125" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG125" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH125" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI125" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ125" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK125" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>136</v>
       </c>
@@ -14176,8 +16263,23 @@
       <c r="AF126" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK126" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -14275,8 +16377,23 @@
       <c r="AF127" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG127" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH127" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AJ127" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK127" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -14374,8 +16491,23 @@
       <c r="AF128" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG128" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH128" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI128" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ128" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK128" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -14473,8 +16605,23 @@
       <c r="AF129" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ129" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK129" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -14572,8 +16719,23 @@
       <c r="AF130" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK130" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -14671,8 +16833,23 @@
       <c r="AF131" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK131" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -14770,8 +16947,23 @@
       <c r="AF132" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK132" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -14869,8 +17061,23 @@
       <c r="AF133" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG133" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH133" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI133" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ133" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK133" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -14968,8 +17175,23 @@
       <c r="AF134" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK134" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -15067,8 +17289,23 @@
       <c r="AF135" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK135" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -15166,8 +17403,23 @@
       <c r="AF136" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK136" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -15265,8 +17517,23 @@
       <c r="AF137" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ137" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK137" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>148</v>
       </c>
@@ -15364,8 +17631,23 @@
       <c r="AF138" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG138" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH138" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI138" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ138" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK138" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -15463,8 +17745,23 @@
       <c r="AF139" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK139" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -15562,8 +17859,23 @@
       <c r="AF140" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG140" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH140" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI140" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ140" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK140" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -15661,8 +17973,23 @@
       <c r="AF141" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG141" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH141" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI141" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ141" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK141" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>152</v>
       </c>
@@ -15760,8 +18087,23 @@
       <c r="AF142" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK142" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -15859,8 +18201,23 @@
       <c r="AF143" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG143" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH143" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI143" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ143" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK143" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -15958,8 +18315,23 @@
       <c r="AF144" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG144" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH144" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI144" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ144" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK144" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -16057,8 +18429,23 @@
       <c r="AF145" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG145" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH145" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI145" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ145" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK145" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>156</v>
       </c>
@@ -16156,8 +18543,23 @@
       <c r="AF146" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG146" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH146" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI146" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ146" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK146" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -16255,8 +18657,23 @@
       <c r="AF147" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG147" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH147" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI147" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ147" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK147" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>158</v>
       </c>
@@ -16354,8 +18771,23 @@
       <c r="AF148" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI148" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK148" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -16453,8 +18885,23 @@
       <c r="AF149" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK149" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>160</v>
       </c>
@@ -16552,8 +18999,23 @@
       <c r="AF150" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG150" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH150" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI150" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ150" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK150" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -16651,8 +19113,23 @@
       <c r="AF151" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG151" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH151" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI151" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ151" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK151" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
@@ -16750,8 +19227,23 @@
       <c r="AF152" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH152" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK152" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>163</v>
       </c>
@@ -16849,8 +19341,23 @@
       <c r="AF153" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH153" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AI153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK153" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>164</v>
       </c>
@@ -16948,8 +19455,23 @@
       <c r="AF154" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG154" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH154" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI154" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ154" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK154" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>165</v>
       </c>
@@ -17047,8 +19569,23 @@
       <c r="AF155" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG155" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH155" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI155" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ155" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK155" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -17146,8 +19683,23 @@
       <c r="AF156" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK156" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -17245,8 +19797,23 @@
       <c r="AF157" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK157" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>168</v>
       </c>
@@ -17344,8 +19911,23 @@
       <c r="AF158" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG158" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK158" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>169</v>
       </c>
@@ -17443,8 +20025,23 @@
       <c r="AF159" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG159" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH159" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI159" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ159" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK159" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -17542,8 +20139,23 @@
       <c r="AF160" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG160" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK160" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>171</v>
       </c>
@@ -17641,8 +20253,23 @@
       <c r="AF161" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG161" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH161" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI161" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK161" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
@@ -17740,8 +20367,23 @@
       <c r="AF162" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG162" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK162" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>173</v>
       </c>
@@ -17839,8 +20481,23 @@
       <c r="AF163" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG163" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK163" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -17938,8 +20595,23 @@
       <c r="AF164" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG164" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH164" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI164" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK164" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -18037,8 +20709,23 @@
       <c r="AF165" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG165" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH165" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI165" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK165" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -18136,8 +20823,23 @@
       <c r="AF166" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -18235,8 +20937,23 @@
       <c r="AF167" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG167" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH167" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK167" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>178</v>
       </c>
@@ -18334,8 +21051,23 @@
       <c r="AF168" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG168" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK168" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>179</v>
       </c>
@@ -18433,8 +21165,23 @@
       <c r="AF169" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK169" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -18532,8 +21279,23 @@
       <c r="AF170" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG170" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK170" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -18631,8 +21393,23 @@
       <c r="AF171" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK171" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>182</v>
       </c>
@@ -18730,8 +21507,23 @@
       <c r="AF172" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK172" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>183</v>
       </c>
@@ -18829,8 +21621,23 @@
       <c r="AF173" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK173" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>184</v>
       </c>
@@ -18928,8 +21735,23 @@
       <c r="AF174" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG174" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH174" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK174" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>185</v>
       </c>
@@ -19027,8 +21849,23 @@
       <c r="AF175" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG175" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK175" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -19126,8 +21963,23 @@
       <c r="AF176" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH176" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK176" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
@@ -19225,8 +22077,23 @@
       <c r="AF177" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG177" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH177" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI177" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ177" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK177" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -19324,8 +22191,23 @@
       <c r="AF178" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG178" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH178" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI178" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ178" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK178" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>189</v>
       </c>
@@ -19423,8 +22305,23 @@
       <c r="AF179" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK179" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>190</v>
       </c>
@@ -19522,8 +22419,23 @@
       <c r="AF180" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG180" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH180" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI180" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ180" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK180" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -19621,8 +22533,23 @@
       <c r="AF181" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG181" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH181" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI181" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ181" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK181" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>192</v>
       </c>
@@ -19720,8 +22647,23 @@
       <c r="AF182" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG182" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH182" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI182" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ182" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK182" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -19819,8 +22761,23 @@
       <c r="AF183" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG183" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH183" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI183" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ183" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK183" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>194</v>
       </c>
@@ -19918,8 +22875,23 @@
       <c r="AF184" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG184" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH184" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI184" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ184" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK184" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -20017,8 +22989,23 @@
       <c r="AF185" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG185" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH185" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI185" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ185" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK185" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -20116,8 +23103,23 @@
       <c r="AF186" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG186" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH186" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI186" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ186" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK186" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -20215,8 +23217,23 @@
       <c r="AF187" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG187" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH187" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI187" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ187" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK187" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -20314,8 +23331,23 @@
       <c r="AF188" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG188" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH188" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI188" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ188" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK188" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -20413,8 +23445,23 @@
       <c r="AF189" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG189" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH189" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI189" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ189" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK189" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>200</v>
       </c>
@@ -20512,8 +23559,23 @@
       <c r="AF190" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG190" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH190" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI190" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ190" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK190" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -20611,8 +23673,23 @@
       <c r="AF191" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG191" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH191" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI191" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ191" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK191" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
@@ -20710,8 +23787,23 @@
       <c r="AF192" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG192" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH192" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI192" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ192" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK192" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -20809,8 +23901,23 @@
       <c r="AF193" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG193" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH193" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI193" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ193" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK193" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>204</v>
       </c>
@@ -20908,8 +24015,23 @@
       <c r="AF194" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK194" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -21007,8 +24129,23 @@
       <c r="AF195" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG195" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH195" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI195" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK195" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -21106,8 +24243,23 @@
       <c r="AF196" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG196" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH196" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI196" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ196" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK196" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>207</v>
       </c>
@@ -21205,8 +24357,23 @@
       <c r="AF197" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG197" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH197" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI197" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ197" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK197" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>208</v>
       </c>
@@ -21304,8 +24471,23 @@
       <c r="AF198" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG198" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH198" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI198" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ198" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK198" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>209</v>
       </c>
@@ -21403,8 +24585,23 @@
       <c r="AF199" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK199" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>210</v>
       </c>
@@ -21502,8 +24699,23 @@
       <c r="AF200" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG200" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH200" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI200" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ200" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK200" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>211</v>
       </c>
@@ -21601,8 +24813,23 @@
       <c r="AF201" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG201" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH201" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI201" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ201" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK201" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>212</v>
       </c>
@@ -21700,8 +24927,23 @@
       <c r="AF202" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG202" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH202" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI202" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ202" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK202" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>213</v>
       </c>
@@ -21799,8 +25041,23 @@
       <c r="AF203" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK203" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>214</v>
       </c>
@@ -21898,8 +25155,23 @@
       <c r="AF204" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG204" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH204" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI204" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ204" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK204" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>215</v>
       </c>
@@ -21997,8 +25269,23 @@
       <c r="AF205" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG205" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH205" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI205" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ205" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK205" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -22096,8 +25383,23 @@
       <c r="AF206" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG206" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH206" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI206" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ206" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK206" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -22195,8 +25497,23 @@
       <c r="AF207" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG207" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH207" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI207" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ207" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK207" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -22294,8 +25611,23 @@
       <c r="AF208" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG208" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH208" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI208" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ208" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK208" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -22393,8 +25725,23 @@
       <c r="AF209" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG209" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH209" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI209" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ209" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK209" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -22492,8 +25839,23 @@
       <c r="AF210" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG210" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH210" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI210" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ210" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK210" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -22591,8 +25953,23 @@
       <c r="AF211" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG211" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH211" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI211" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ211" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK211" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>222</v>
       </c>
@@ -22690,8 +26067,23 @@
       <c r="AF212" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG212" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH212" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI212" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ212" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK212" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>223</v>
       </c>
@@ -22789,8 +26181,23 @@
       <c r="AF213" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG213" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH213" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI213" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ213" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK213" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>224</v>
       </c>
@@ -22888,8 +26295,23 @@
       <c r="AF214" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG214" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH214" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI214" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ214" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK214" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>225</v>
       </c>
@@ -22987,8 +26409,23 @@
       <c r="AF215" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG215" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH215" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI215" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ215" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK215" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>226</v>
       </c>
@@ -23086,8 +26523,23 @@
       <c r="AF216" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG216" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH216" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI216" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ216" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK216" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>227</v>
       </c>
@@ -23185,8 +26637,23 @@
       <c r="AF217" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG217" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH217" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI217" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ217" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK217" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>228</v>
       </c>
@@ -23284,8 +26751,23 @@
       <c r="AF218" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG218" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH218" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI218" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ218" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK218" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>229</v>
       </c>
@@ -23383,8 +26865,23 @@
       <c r="AF219" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG219" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH219" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI219" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ219" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK219" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -23482,8 +26979,23 @@
       <c r="AF220" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG220" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH220" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI220" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ220" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK220" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>231</v>
       </c>
@@ -23581,8 +27093,23 @@
       <c r="AF221" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG221" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH221" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI221" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ221" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK221" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -23680,8 +27207,23 @@
       <c r="AF222" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG222" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH222" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI222" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ222" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK222" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -23779,8 +27321,23 @@
       <c r="AF223" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG223" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH223" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI223" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ223" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK223" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>234</v>
       </c>
@@ -23878,8 +27435,23 @@
       <c r="AF224" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG224" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH224" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI224" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ224" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK224" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>235</v>
       </c>
@@ -23977,8 +27549,23 @@
       <c r="AF225" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG225" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH225" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI225" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ225" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK225" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>236</v>
       </c>
@@ -24076,8 +27663,23 @@
       <c r="AF226" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG226" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH226" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI226" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ226" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK226" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>237</v>
       </c>
@@ -24175,8 +27777,23 @@
       <c r="AF227" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG227" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH227" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI227" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ227" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK227" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>238</v>
       </c>
@@ -24274,8 +27891,23 @@
       <c r="AF228" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG228" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH228" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI228" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ228" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK228" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>239</v>
       </c>
@@ -24373,8 +28005,23 @@
       <c r="AF229" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG229" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH229" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI229" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ229" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK229" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>240</v>
       </c>
@@ -24472,8 +28119,23 @@
       <c r="AF230" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG230" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH230" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI230" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ230" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK230" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>241</v>
       </c>
@@ -24571,8 +28233,23 @@
       <c r="AF231" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG231" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH231" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI231" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ231" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK231" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>242</v>
       </c>
@@ -24670,8 +28347,23 @@
       <c r="AF232" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG232" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH232" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI232" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ232" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK232" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>243</v>
       </c>
@@ -24769,8 +28461,23 @@
       <c r="AF233" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG233" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH233" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI233" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK233" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>244</v>
       </c>
@@ -24868,8 +28575,23 @@
       <c r="AF234" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG234" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH234" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI234" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ234" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK234" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>245</v>
       </c>
@@ -24967,8 +28689,23 @@
       <c r="AF235" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG235" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH235" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI235" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ235" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK235" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>246</v>
       </c>
@@ -25066,8 +28803,23 @@
       <c r="AF236" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK236" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>247</v>
       </c>
@@ -25165,8 +28917,23 @@
       <c r="AF237" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG237" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH237" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI237" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ237" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK237" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -25264,8 +29031,23 @@
       <c r="AF238" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG238" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH238" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI238" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ238" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK238" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>249</v>
       </c>
@@ -25363,8 +29145,23 @@
       <c r="AF239" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG239" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH239" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI239" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ239" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK239" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -25462,8 +29259,23 @@
       <c r="AF240" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG240" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH240" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI240" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ240" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK240" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>251</v>
       </c>
@@ -25561,8 +29373,23 @@
       <c r="AF241" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG241" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH241" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI241" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ241" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK241" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
@@ -25660,8 +29487,23 @@
       <c r="AF242" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG242" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH242" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI242" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ242" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK242" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>253</v>
       </c>
@@ -25759,8 +29601,23 @@
       <c r="AF243" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG243" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH243" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI243" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ243" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK243" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
@@ -25858,8 +29715,23 @@
       <c r="AF244" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG244" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH244" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI244" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ244" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK244" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>255</v>
       </c>
@@ -25957,8 +29829,23 @@
       <c r="AF245" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG245" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH245" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI245" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ245" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK245" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -26056,8 +29943,23 @@
       <c r="AF246" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG246" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH246" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI246" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ246" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK246" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>257</v>
       </c>
@@ -26155,8 +30057,23 @@
       <c r="AF247" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG247" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH247" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI247" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ247" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK247" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -26254,8 +30171,23 @@
       <c r="AF248" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK248" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>259</v>
       </c>
@@ -26353,8 +30285,23 @@
       <c r="AF249" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK249" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -26452,8 +30399,23 @@
       <c r="AF250" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG250" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH250" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI250" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ250" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK250" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
@@ -26551,8 +30513,23 @@
       <c r="AF251" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG251" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH251" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI251" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ251" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK251" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>262</v>
       </c>
@@ -26650,8 +30627,23 @@
       <c r="AF252" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG252" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH252" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI252" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ252" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK252" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
@@ -26749,8 +30741,23 @@
       <c r="AF253" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG253" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH253" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI253" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ253" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK253" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>264</v>
       </c>
@@ -26848,8 +30855,23 @@
       <c r="AF254" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG254" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH254" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI254" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ254" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK254" s="1" t="s">
+        <v>468</v>
+      </c>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -26947,8 +30969,23 @@
       <c r="AF255" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG255" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH255" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI255" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ255" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK255" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>266</v>
       </c>
@@ -27046,8 +31083,23 @@
       <c r="AF256" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG256" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH256" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI256" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ256" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK256" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
@@ -27145,8 +31197,23 @@
       <c r="AF257" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG257" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH257" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI257" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ257" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK257" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>268</v>
       </c>
@@ -27244,8 +31311,23 @@
       <c r="AF258" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG258" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH258" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI258" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ258" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK258" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>269</v>
       </c>
@@ -27343,8 +31425,23 @@
       <c r="AF259" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG259" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH259" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI259" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ259" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK259" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>270</v>
       </c>
@@ -27442,8 +31539,23 @@
       <c r="AF260" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG260" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH260" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI260" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ260" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK260" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -27541,8 +31653,23 @@
       <c r="AF261" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG261" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH261" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI261" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ261" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK261" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>272</v>
       </c>
@@ -27640,8 +31767,23 @@
       <c r="AF262" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG262" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH262" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI262" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ262" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK262" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -27739,8 +31881,23 @@
       <c r="AF263" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG263" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH263" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI263" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ263" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK263" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -27838,8 +31995,23 @@
       <c r="AF264" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG264" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH264" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI264" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ264" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK264" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -27937,8 +32109,23 @@
       <c r="AF265" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG265" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH265" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI265" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ265" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK265" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>276</v>
       </c>
@@ -28036,8 +32223,23 @@
       <c r="AF266" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG266" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH266" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI266" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ266" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK266" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -28135,8 +32337,23 @@
       <c r="AF267" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG267" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK267" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>278</v>
       </c>
@@ -28234,8 +32451,23 @@
       <c r="AF268" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG268" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH268" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI268" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ268" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK268" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>279</v>
       </c>
@@ -28333,8 +32565,23 @@
       <c r="AF269" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG269" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH269" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI269" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ269" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK269" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>280</v>
       </c>
@@ -28432,8 +32679,23 @@
       <c r="AF270" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG270" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH270" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI270" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ270" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK270" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>281</v>
       </c>
@@ -28531,8 +32793,23 @@
       <c r="AF271" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ271" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK271" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>282</v>
       </c>
@@ -28630,8 +32907,23 @@
       <c r="AF272" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH272" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI272" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK272" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>283</v>
       </c>
@@ -28729,8 +33021,23 @@
       <c r="AF273" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG273" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH273" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI273" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ273" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK273" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>284</v>
       </c>
@@ -28828,8 +33135,23 @@
       <c r="AF274" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK274" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>285</v>
       </c>
@@ -28927,8 +33249,23 @@
       <c r="AF275" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG275" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH275" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI275" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ275" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK275" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>286</v>
       </c>
@@ -29026,8 +33363,23 @@
       <c r="AF276" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG276" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH276" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI276" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ276" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK276" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>287</v>
       </c>
@@ -29125,8 +33477,23 @@
       <c r="AF277" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG277" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH277" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI277" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ277" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK277" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>288</v>
       </c>
@@ -29224,8 +33591,23 @@
       <c r="AF278" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG278" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH278" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI278" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ278" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK278" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -29323,8 +33705,23 @@
       <c r="AF279" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG279" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH279" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI279" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ279" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK279" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>290</v>
       </c>
@@ -29422,8 +33819,23 @@
       <c r="AF280" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG280" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH280" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI280" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ280" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK280" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>291</v>
       </c>
@@ -29521,8 +33933,23 @@
       <c r="AF281" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG281" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH281" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI281" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ281" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK281" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>292</v>
       </c>
@@ -29620,8 +34047,23 @@
       <c r="AF282" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ282" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK282" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>293</v>
       </c>
@@ -29719,8 +34161,23 @@
       <c r="AF283" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG283" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH283" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI283" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ283" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK283" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -29818,8 +34275,23 @@
       <c r="AF284" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG284" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH284" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI284" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ284" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK284" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>295</v>
       </c>
@@ -29917,8 +34389,23 @@
       <c r="AF285" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG285" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH285" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI285" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ285" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK285" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -30016,8 +34503,23 @@
       <c r="AF286" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG286" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH286" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI286" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ286" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK286" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>297</v>
       </c>
@@ -30115,8 +34617,23 @@
       <c r="AF287" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG287" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH287" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI287" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ287" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK287" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -30214,8 +34731,23 @@
       <c r="AF288" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG288" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH288" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI288" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ288" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK288" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>299</v>
       </c>
@@ -30313,8 +34845,23 @@
       <c r="AF289" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG289" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH289" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI289" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ289" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK289" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>300</v>
       </c>
@@ -30412,8 +34959,23 @@
       <c r="AF290" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG290" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH290" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI290" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ290" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK290" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -30511,8 +35073,23 @@
       <c r="AF291" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG291" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH291" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI291" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ291" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK291" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>302</v>
       </c>
@@ -30610,8 +35187,23 @@
       <c r="AF292" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG292" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH292" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI292" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ292" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK292" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -30709,8 +35301,23 @@
       <c r="AF293" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG293" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH293" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI293" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ293" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK293" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>304</v>
       </c>
@@ -30808,8 +35415,23 @@
       <c r="AF294" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG294" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH294" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI294" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ294" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK294" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>305</v>
       </c>
@@ -30907,8 +35529,23 @@
       <c r="AF295" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG295" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH295" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI295" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ295" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK295" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>306</v>
       </c>
@@ -31006,8 +35643,23 @@
       <c r="AF296" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG296" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH296" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI296" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ296" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK296" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -31105,8 +35757,23 @@
       <c r="AF297" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG297" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH297" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI297" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ297" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK297" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -31204,8 +35871,23 @@
       <c r="AF298" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG298" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH298" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI298" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ298" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK298" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>309</v>
       </c>
@@ -31303,8 +35985,23 @@
       <c r="AF299" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG299" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH299" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI299" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ299" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK299" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -31402,8 +36099,23 @@
       <c r="AF300" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG300" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH300" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI300" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ300" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK300" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>311</v>
       </c>
@@ -31501,8 +36213,23 @@
       <c r="AF301" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG301" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH301" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI301" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ301" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK301" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>312</v>
       </c>
@@ -31600,8 +36327,23 @@
       <c r="AF302" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG302" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH302" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI302" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ302" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK302" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -31699,8 +36441,23 @@
       <c r="AF303" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG303" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH303" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI303" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ303" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK303" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>314</v>
       </c>
@@ -31798,8 +36555,23 @@
       <c r="AF304" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG304" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH304" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI304" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ304" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK304" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>315</v>
       </c>
@@ -31897,8 +36669,23 @@
       <c r="AF305" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG305" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH305" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI305" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ305" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK305" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -31996,8 +36783,23 @@
       <c r="AF306" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG306" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH306" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI306" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ306" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK306" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -32095,8 +36897,23 @@
       <c r="AF307" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG307" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH307" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI307" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ307" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK307" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>318</v>
       </c>
@@ -32194,8 +37011,23 @@
       <c r="AF308" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG308" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH308" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI308" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ308" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK308" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>319</v>
       </c>
@@ -32293,8 +37125,23 @@
       <c r="AF309" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG309" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH309" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI309" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ309" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK309" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -32392,8 +37239,23 @@
       <c r="AF310" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG310" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH310" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI310" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ310" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK310" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>321</v>
       </c>
@@ -32491,8 +37353,23 @@
       <c r="AF311" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG311" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH311" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI311" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ311" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK311" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>322</v>
       </c>
@@ -32590,8 +37467,23 @@
       <c r="AF312" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG312" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH312" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI312" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ312" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK312" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>323</v>
       </c>
@@ -32689,8 +37581,23 @@
       <c r="AF313" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG313" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH313" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI313" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ313" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK313" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
@@ -32788,8 +37695,23 @@
       <c r="AF314" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG314" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH314" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI314" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ314" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK314" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
@@ -32887,8 +37809,23 @@
       <c r="AF315" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG315" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH315" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI315" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ315" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK315" s="1" t="s">
+        <v>474</v>
+      </c>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>326</v>
       </c>
@@ -32986,8 +37923,23 @@
       <c r="AF316" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG316" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH316" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI316" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ316" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK316" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>327</v>
       </c>
@@ -33085,8 +38037,23 @@
       <c r="AF317" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG317" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH317" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI317" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ317" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK317" s="1" t="s">
+        <v>475</v>
+      </c>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>328</v>
       </c>
@@ -33184,8 +38151,23 @@
       <c r="AF318" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG318" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH318" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI318" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ318" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK318" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>329</v>
       </c>
@@ -33283,8 +38265,23 @@
       <c r="AF319" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG319" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH319" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI319" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ319" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK319" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -33382,8 +38379,23 @@
       <c r="AF320" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK320" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -33481,8 +38493,23 @@
       <c r="AF321" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG321" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH321" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI321" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ321" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK321" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -33580,8 +38607,23 @@
       <c r="AF322" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AG322" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH322" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI322" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ322" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK322" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>333</v>
       </c>
@@ -33679,8 +38721,23 @@
       <c r="AF323" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG323" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH323" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI323" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ323" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK323" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>334</v>
       </c>
@@ -33778,8 +38835,23 @@
       <c r="AF324" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG324" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH324" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI324" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ324" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK324" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>335</v>
       </c>
@@ -33877,8 +38949,23 @@
       <c r="AF325" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG325" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH325" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI325" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ325" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK325" s="1" t="s">
+        <v>476</v>
+      </c>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>336</v>
       </c>
@@ -33976,8 +39063,23 @@
       <c r="AF326" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AG326" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH326" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI326" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ326" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK326" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -34074,6 +39176,21 @@
       </c>
       <c r="AF327" s="1" t="s">
         <v>409</v>
+      </c>
+      <c r="AG327" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH327" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI327" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ327" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK327" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
